--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\! Reset Pak Husni Teja Sukmana\2023 - Klasifikasi Kopra metode KNN\Implementasi-KNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\latihan-ML\klasifikasi_kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F569CB8D-A39E-4EE0-A865-664D7A014DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFEAB8-AF1E-4F32-8725-21D9A5934521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F72F3524-F4AB-4B50-99FC-8D56E8165C03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F72F3524-F4AB-4B50-99FC-8D56E8165C03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,16 +26,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Hasil Klasifikasi Jenis Copra Menggunakan Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>Percobaan</t>
+  </si>
+  <si>
+    <t>Akurasi</t>
+  </si>
+  <si>
+    <t>Presisi</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Logistic Regresi</t>
+  </si>
+  <si>
+    <t>Decision Tree (C45)</t>
+  </si>
+  <si>
+    <t>Suport Vector Machine</t>
+  </si>
+  <si>
+    <t>K Nearest-Neighbor</t>
+  </si>
+  <si>
+    <t>F1 - Score</t>
+  </si>
+  <si>
+    <t>Algoritma</t>
+  </si>
+  <si>
+    <t>Accuration</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>K-NN</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Ensambel Voting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +120,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -67,13 +144,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,33 +571,1680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3BA2CD-1C09-45B7-B54E-149BD1C3B60C}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="19" width="10.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.6925</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.66049999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.57240000000000002</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.3533</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.4017</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.3649</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.37330000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.8004</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.7772</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.77029999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.7208</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.75229999999999997</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.68079999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.8135</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.8135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.8014</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.70630000000000004</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.76119999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.8054</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.8044</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B19F23-BDA9-4F99-90D6-1A4F10744182}">
+  <dimension ref="A3:O39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.7208</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.8014</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.6925</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.75229999999999997</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.8054</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.8044</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.8004</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.57240000000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.3533</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.4017</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.3649</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.70630000000000004</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.7772</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.8135</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.68079999999999996</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.8135</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\latihan-ML\klasifikasi_kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFEAB8-AF1E-4F32-8725-21D9A5934521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B04E44-1BF9-45C8-AD99-12DDD48C835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F72F3524-F4AB-4B50-99FC-8D56E8165C03}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>Hasil Klasifikasi Jenis Copra Menggunakan Unsupervised Learning</t>
   </si>
@@ -96,15 +96,22 @@
   <si>
     <t>Ensambel Voting</t>
   </si>
+  <si>
+    <t>Train 80% dan Test 20%</t>
+  </si>
+  <si>
+    <t>Train 90% dan Test 10%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +133,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,18 +220,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -220,13 +240,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,23 +258,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,13 +625,13 @@
       <selection activeCell="B11" sqref="B11:Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="19" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="32.4" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -597,7 +645,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
@@ -635,7 +683,7 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -712,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -789,7 +837,7 @@
         <v>0.66049999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -866,7 +914,7 @@
         <v>0.37330000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -943,7 +991,7 @@
         <v>0.77029999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1020,7 +1068,7 @@
         <v>0.68079999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1097,7 +1145,7 @@
         <v>0.8135</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1174,7 +1222,7 @@
         <v>0.76119999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1251,7 +1299,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1274,976 +1322,1777 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B19F23-BDA9-4F99-90D6-1A4F10744182}">
-  <dimension ref="A3:O39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="6">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="K4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="6">
         <v>6</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I5" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3</v>
+      </c>
+      <c r="P5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>5</v>
+      </c>
+      <c r="R5" s="6">
+        <v>6</v>
+      </c>
+      <c r="S5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.54349999999999998</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.79890000000000005</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.72829999999999995</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.84240000000000004</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="26"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.71009999999999995</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.54810000000000003</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.79249999999999998</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.72919999999999996</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.83179999999999998</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.80259999999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.84089999999999998</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0.7772</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0.84509999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.70660000000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.53069999999999995</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.79039999999999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.71909999999999996</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.82979999999999998</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.7621</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0.748</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.8448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0.84219999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="15">
         <v>0.70569999999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="15">
         <v>0.52939999999999998</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="15">
         <v>0.79120000000000001</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="15">
         <v>0.7208</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="15">
         <v>0.83020000000000005</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="15">
         <v>0.8014</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="15">
         <v>0.83699999999999997</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0.5111</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0.8427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.51090000000000002</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.73370000000000002</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.79349999999999998</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.84240000000000004</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="K11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.69579999999999997</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.51280000000000003</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.72760000000000002</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.79039999999999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.83579999999999999</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0.84240000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.69340000000000002</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.50629999999999997</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.77880000000000005</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.72350000000000003</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.78549999999999998</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0.6885</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0.4713</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="S13" s="15">
+        <v>0.83840000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="R14" s="15">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="S14" s="15">
+        <v>0.83889999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="15">
         <v>0.6925</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="15">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="15">
         <v>0.77949999999999997</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="15">
         <v>0.71930000000000005</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="15">
         <v>0.84770000000000001</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="15">
         <v>0.78680000000000005</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I15" s="15">
         <v>0.83589999999999998</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="K15" s="16"/>
+      <c r="L15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.7661</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0.72460000000000002</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0.77610000000000001</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0.83819999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.55979999999999996</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.75539999999999996</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.75539999999999996</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="K16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.75049999999999994</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.55149999999999999</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.75249999999999995</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.75229999999999997</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.78049999999999997</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.8054</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0.80430000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.74419999999999997</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.55189999999999995</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.749</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.74809999999999999</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.75229999999999997</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.8054</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0.48570000000000002</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0.81030000000000002</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0.76070000000000004</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0.80189999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.749</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0.4884</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0.80120000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="15">
         <v>0.74619999999999997</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="15">
         <v>0.55169999999999997</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="15">
         <v>0.75029999999999997</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="15">
         <v>0.74919999999999998</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="15">
         <v>0.81299999999999994</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="15">
         <v>0.78069999999999995</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I20" s="15">
         <v>0.8044</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="K20" s="16"/>
+      <c r="L20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0.7107</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0.48609999999999998</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0.8105</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0.8014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.79349999999999998</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.58150000000000002</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.80430000000000001</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.89129999999999998</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.82609999999999995</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="K21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.79379999999999995</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.57189999999999996</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.8004</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.88660000000000005</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.81669999999999998</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0.86960000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.78549999999999998</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.57440000000000002</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.80130000000000001</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.79530000000000001</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.81769999999999998</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.87080000000000002</v>
-      </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.8004</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0.5131</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0.7954</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0.78839999999999999</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0.8861</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="S23" s="15">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0.86709999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="15">
         <v>0.78710000000000002</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="15">
         <v>0.57240000000000002</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="15">
         <v>0.80049999999999999</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="15">
         <v>0.79769999999999996</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="15">
         <v>0.88660000000000005</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="15">
         <v>0.81669999999999998</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I25" s="15">
         <v>0.87019999999999997</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="K25" s="16"/>
+      <c r="L25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0.755</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>0.8861</v>
+      </c>
+      <c r="R25" s="15">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="S25" s="15">
+        <v>0.86719999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.3533</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.82609999999999995</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="K26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.60670000000000002</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.4017</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.63849999999999996</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.81479999999999997</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.70930000000000004</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.3533</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="R27" s="15">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="S27" s="15">
+        <v>0.80710000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.60550000000000004</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.3649</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.65629999999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.81369999999999998</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.70630000000000004</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.82050000000000001</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.4017</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0.60589999999999999</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0.80369999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.3649</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0.70630000000000004</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0.60680000000000001</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="R29" s="15">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0.80349999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="15">
         <v>0.60370000000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="15">
         <v>0.32269999999999999</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="15">
         <v>0.65849999999999997</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="15">
         <v>0.62890000000000001</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G30" s="15">
         <v>0.81410000000000005</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H30" s="15">
         <v>0.70650000000000002</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I30" s="15">
         <v>0.82089999999999996</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="K30" s="16"/>
+      <c r="L30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0.69389999999999996</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0.80289999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.66849999999999998</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.39129999999999998</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.7772</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.68479999999999996</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.77170000000000005</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="28"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="K31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.41289999999999999</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.68020000000000003</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.8135</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.81289999999999996</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.7772</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0.82340000000000002</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0.81789999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.39369999999999999</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.76929999999999998</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.81379999999999997</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0.8135</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="15">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R33" s="15">
+        <v>0.755</v>
+      </c>
+      <c r="S33" s="15">
+        <v>0.81259999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="15">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O34" s="15">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>0.81989999999999996</v>
+      </c>
+      <c r="R34" s="15">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="S34" s="15">
+        <v>0.81430000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="15">
         <v>0.66049999999999998</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="15">
         <v>0.37330000000000002</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="15">
         <v>0.77029999999999998</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="15">
         <v>0.68079999999999996</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="15">
         <v>0.8135</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="15">
         <v>0.76119999999999999</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I35" s="15">
         <v>0.81299999999999994</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="K35" s="16"/>
+      <c r="L35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0.6744</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0.81279999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="13"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="K36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="24"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="E37" s="29">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="G37" s="25">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="H37" s="25">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="I37" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="25">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="N37" s="25">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="O37" s="25">
+        <v>0.7772</v>
+      </c>
+      <c r="P37" s="25">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="Q37" s="25">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="R37" s="25">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="S37" s="25">
+        <v>0.87770000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="H38" s="25">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="I38" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="25">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="N38" s="25">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="O38" s="25">
+        <v>0.7681</v>
+      </c>
+      <c r="P38" s="25">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="R38" s="25">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="S38" s="25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E39" s="29">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="I39" s="25">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="25">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="N39" s="25">
+        <v>0.5101</v>
+      </c>
+      <c r="O39" s="25">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="P39" s="25">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="Q39" s="25">
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="R39" s="25">
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="S39" s="25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="C40" s="25">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="E40" s="29">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="F40" s="25">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="G40" s="25">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="H40" s="25">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="I40" s="25">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="25">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="N40" s="25">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="O40" s="25">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="P40" s="25">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="Q40" s="25">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="R40" s="25">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="S40" s="25">
+        <v>0.87490000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="12">
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="K1:S2"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\latihan-ML\klasifikasi_kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B04E44-1BF9-45C8-AD99-12DDD48C835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D65C2E-47F6-49FE-BDC2-7DECBDCA2B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F72F3524-F4AB-4B50-99FC-8D56E8165C03}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -246,10 +246,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -259,51 +303,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3BA2CD-1C09-45B7-B54E-149BD1C3B60C}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:Y11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -632,56 +632,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32.4" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9" t="s">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="4" t="s">
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B19F23-BDA9-4F99-90D6-1A4F10744182}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1336,80 +1336,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="K4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6">
         <v>1</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="I5" s="6">
         <v>7</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="6">
         <v>1</v>
       </c>
@@ -1456,10 +1456,10 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1467,10 +1467,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -1484,50 +1484,50 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="9">
         <v>0.71740000000000004</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="9">
         <v>0.54349999999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="9">
         <v>0.79890000000000005</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <v>0.72829999999999995</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="9">
         <v>0.83699999999999997</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="9">
         <v>0.80979999999999996</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="9">
         <v>0.84240000000000004</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="9">
         <v>0.73909999999999998</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="9">
         <v>0.51629999999999998</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="9">
         <v>0.77170000000000005</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="9">
         <v>0.74729999999999996</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="9">
         <v>0.84240000000000004</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="9">
         <v>0.7772</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="9">
         <v>0.84509999999999996</v>
       </c>
     </row>
@@ -1536,50 +1536,50 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="9">
         <v>0.71009999999999995</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="9">
         <v>0.54810000000000003</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>0.79249999999999998</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="9">
         <v>0.72919999999999996</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="9">
         <v>0.83179999999999998</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="9">
         <v>0.80259999999999998</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="9">
         <v>0.84089999999999998</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="9">
         <v>0.73640000000000005</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="9">
         <v>0.50980000000000003</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="9">
         <v>0.7621</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="9">
         <v>0.748</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="9">
         <v>0.84030000000000005</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="9">
         <v>0.76870000000000005</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="9">
         <v>0.8448</v>
       </c>
     </row>
@@ -1588,50 +1588,50 @@
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="9">
         <v>0.70660000000000001</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="9">
         <v>0.53069999999999995</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="9">
         <v>0.79039999999999999</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="9">
         <v>0.71909999999999996</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="9">
         <v>0.82979999999999998</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="9">
         <v>0.80100000000000005</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="9">
         <v>0.83650000000000002</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="9">
         <v>0.73540000000000005</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="9">
         <v>0.51290000000000002</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="9">
         <v>0.76680000000000004</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="9">
         <v>0.74419999999999997</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="9">
         <v>0.83950000000000002</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="9">
         <v>0.77270000000000005</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="9">
         <v>0.84219999999999995</v>
       </c>
     </row>
@@ -1640,50 +1640,50 @@
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="9">
         <v>0.70569999999999999</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="9">
         <v>0.52939999999999998</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="9">
         <v>0.79120000000000001</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="9">
         <v>0.7208</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="9">
         <v>0.83020000000000005</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="9">
         <v>0.8014</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="9">
         <v>0.83699999999999997</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="9">
         <v>0.73450000000000004</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="9">
         <v>0.5111</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="9">
         <v>0.76300000000000001</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="9">
         <v>0.74460000000000004</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="9">
         <v>0.83960000000000001</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="9">
         <v>0.76939999999999997</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="9">
         <v>0.8427</v>
       </c>
     </row>
@@ -1692,74 +1692,74 @@
         <v>17</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="K11" s="17" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="9">
         <v>0.70109999999999995</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="9">
         <v>0.51090000000000002</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="9">
         <v>0.78800000000000003</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="9">
         <v>0.73370000000000002</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="9">
         <v>0.85329999999999995</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="9">
         <v>0.79349999999999998</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="9">
         <v>0.84240000000000004</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="9">
         <v>0.69020000000000004</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="9">
         <v>0.46739999999999998</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="9">
         <v>0.77449999999999997</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="9">
         <v>0.73099999999999998</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="9">
         <v>0.85870000000000002</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="9">
         <v>0.78259999999999996</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="9">
         <v>0.84240000000000004</v>
       </c>
     </row>
@@ -1768,50 +1768,50 @@
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="9">
         <v>0.69579999999999997</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="9">
         <v>0.51280000000000003</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="9">
         <v>0.78120000000000001</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="9">
         <v>0.72760000000000002</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="9">
         <v>0.84799999999999998</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="9">
         <v>0.79039999999999999</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="9">
         <v>0.83579999999999999</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="9">
         <v>0.6885</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="9">
         <v>0.4713</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="9">
         <v>0.76500000000000001</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="9">
         <v>0.72789999999999999</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="9">
         <v>0.85650000000000004</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="9">
         <v>0.77510000000000001</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="9">
         <v>0.83840000000000003</v>
       </c>
     </row>
@@ -1820,50 +1820,50 @@
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="9">
         <v>0.69340000000000002</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="9">
         <v>0.50629999999999997</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="9">
         <v>0.77880000000000005</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="9">
         <v>0.72350000000000003</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="9">
         <v>0.84750000000000003</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="9">
         <v>0.78549999999999998</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="9">
         <v>0.83599999999999997</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="9">
         <v>0.68830000000000002</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="9">
         <v>0.46589999999999998</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="9">
         <v>0.76929999999999998</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="9">
         <v>0.72809999999999997</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="9">
         <v>0.85560000000000003</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="9">
         <v>0.77790000000000004</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="9">
         <v>0.83889999999999998</v>
       </c>
     </row>
@@ -1872,126 +1872,126 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="9">
         <v>0.6925</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="9">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="9">
         <v>0.77949999999999997</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="9">
         <v>0.71930000000000005</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="9">
         <v>0.84770000000000001</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="9">
         <v>0.78680000000000005</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="9">
         <v>0.83589999999999998</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="9">
         <v>0.68610000000000004</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="9">
         <v>0.46760000000000002</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="9">
         <v>0.7661</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="9">
         <v>0.72460000000000002</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="9">
         <v>0.85560000000000003</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="9">
         <v>0.77610000000000001</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="9">
         <v>0.83819999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="K16" s="20" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="9">
         <v>0.75</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="9">
         <v>0.55979999999999996</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="9">
         <v>0.75539999999999996</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="9">
         <v>0.75539999999999996</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="9">
         <v>0.82069999999999999</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="9">
         <v>0.78800000000000003</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="9">
         <v>0.80979999999999996</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="9">
         <v>0.71199999999999997</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="9">
         <v>0.49180000000000001</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="9">
         <v>0.73099999999999998</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="9">
         <v>0.73909999999999998</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="9">
         <v>0.81520000000000004</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="9">
         <v>0.76900000000000002</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="9">
         <v>0.80430000000000001</v>
       </c>
     </row>
@@ -2000,50 +2000,50 @@
       <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="9">
         <v>0.75049999999999994</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="9">
         <v>0.55149999999999999</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="9">
         <v>0.75249999999999995</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="9">
         <v>0.75229999999999997</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="9">
         <v>0.81299999999999994</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="9">
         <v>0.78049999999999997</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="9">
         <v>0.8054</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16" t="s">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="9">
         <v>0.71289999999999998</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="9">
         <v>0.48570000000000002</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="9">
         <v>0.71930000000000005</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="9">
         <v>0.73770000000000002</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="9">
         <v>0.81030000000000002</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="9">
         <v>0.76070000000000004</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S18" s="9">
         <v>0.80189999999999995</v>
       </c>
     </row>
@@ -2052,50 +2052,50 @@
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="9">
         <v>0.74419999999999997</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="9">
         <v>0.55189999999999995</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="9">
         <v>0.749</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="9">
         <v>0.74809999999999999</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="9">
         <v>0.81389999999999996</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="9">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="9">
         <v>0.80400000000000005</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16" t="s">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="9">
         <v>0.70979999999999999</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="9">
         <v>0.4884</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="9">
         <v>0.72629999999999995</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="9">
         <v>0.73760000000000003</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="9">
         <v>0.81179999999999997</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="9">
         <v>0.76480000000000004</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="9">
         <v>0.80120000000000002</v>
       </c>
     </row>
@@ -2104,126 +2104,126 @@
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="9">
         <v>0.74619999999999997</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="9">
         <v>0.55169999999999997</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="9">
         <v>0.75029999999999997</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="9">
         <v>0.74919999999999998</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="9">
         <v>0.81299999999999994</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="9">
         <v>0.78069999999999995</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="9">
         <v>0.8044</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16" t="s">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="9">
         <v>0.7107</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="9">
         <v>0.48609999999999998</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="9">
         <v>0.71899999999999997</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="9">
         <v>0.73760000000000003</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="9">
         <v>0.8105</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="9">
         <v>0.76160000000000005</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="9">
         <v>0.8014</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="K21" s="22" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="K21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="9">
         <v>0.79349999999999998</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="9">
         <v>0.58150000000000002</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="9">
         <v>0.80979999999999996</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="9">
         <v>0.80430000000000001</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="9">
         <v>0.89129999999999998</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="9">
         <v>0.82609999999999995</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="9">
         <v>0.875</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16" t="s">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="9">
         <v>0.75819999999999999</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="9">
         <v>0.52170000000000005</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="9">
         <v>0.80159999999999998</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="9">
         <v>0.78800000000000003</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="9">
         <v>0.88859999999999995</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="9">
         <v>0.79349999999999998</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="9">
         <v>0.86960000000000004</v>
       </c>
     </row>
@@ -2232,50 +2232,50 @@
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="9">
         <v>0.79379999999999995</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="9">
         <v>0.57189999999999996</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="9">
         <v>0.8004</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="9">
         <v>0.80900000000000005</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="9">
         <v>0.88660000000000005</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="9">
         <v>0.81669999999999998</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="9">
         <v>0.87019999999999997</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16" t="s">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="9">
         <v>0.75929999999999997</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="9">
         <v>0.5131</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="9">
         <v>0.7954</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="9">
         <v>0.78839999999999999</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="9">
         <v>0.8861</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="9">
         <v>0.78680000000000005</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S23" s="9">
         <v>0.86750000000000005</v>
       </c>
     </row>
@@ -2284,50 +2284,50 @@
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="9">
         <v>0.78549999999999998</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="9">
         <v>0.57440000000000002</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="9">
         <v>0.80130000000000001</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="9">
         <v>0.79530000000000001</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="9">
         <v>0.88719999999999999</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="9">
         <v>0.81769999999999998</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="9">
         <v>0.87080000000000002</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="9">
         <v>0.75529999999999997</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="9">
         <v>0.51729999999999998</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="9">
         <v>0.79759999999999998</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="9">
         <v>0.78520000000000001</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="9">
         <v>0.88619999999999999</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="9">
         <v>0.78949999999999998</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S24" s="9">
         <v>0.86709999999999998</v>
       </c>
     </row>
@@ -2336,126 +2336,126 @@
       <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="9">
         <v>0.78710000000000002</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="9">
         <v>0.57240000000000002</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="9">
         <v>0.80049999999999999</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="9">
         <v>0.79769999999999996</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="9">
         <v>0.88660000000000005</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="9">
         <v>0.81669999999999998</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="9">
         <v>0.87019999999999997</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16" t="s">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="9">
         <v>0.755</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="9">
         <v>0.51419999999999999</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="9">
         <v>0.79530000000000001</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="9">
         <v>0.78559999999999997</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="9">
         <v>0.8861</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="9">
         <v>0.78659999999999997</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="9">
         <v>0.86719999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="K26" s="22" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="K26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="9">
         <v>0.60329999999999995</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="9">
         <v>0.3533</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="9">
         <v>0.66300000000000003</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="9">
         <v>0.625</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="9">
         <v>0.82069999999999999</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="9">
         <v>0.71740000000000004</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="9">
         <v>0.82609999999999995</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="9">
         <v>0.60599999999999998</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="9">
         <v>0.35870000000000002</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="9">
         <v>0.67120000000000002</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="9">
         <v>0.60599999999999998</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="9">
         <v>0.77990000000000004</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="9">
         <v>0.70379999999999998</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S27" s="9">
         <v>0.80710000000000004</v>
       </c>
     </row>
@@ -2464,50 +2464,50 @@
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="9">
         <v>0.60670000000000002</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="9">
         <v>0.4017</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="9">
         <v>0.66180000000000005</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="9">
         <v>0.63849999999999996</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="9">
         <v>0.81479999999999997</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="9">
         <v>0.70930000000000004</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="9">
         <v>0.82150000000000001</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16" t="s">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="9">
         <v>0.60589999999999999</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="9">
         <v>0.38490000000000002</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="9">
         <v>0.66539999999999999</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="9">
         <v>0.61229999999999996</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="9">
         <v>0.77339999999999998</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="9">
         <v>0.69430000000000003</v>
       </c>
-      <c r="S28" s="15">
+      <c r="S28" s="9">
         <v>0.80369999999999997</v>
       </c>
     </row>
@@ -2516,50 +2516,50 @@
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="9">
         <v>0.60550000000000004</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="9">
         <v>0.3649</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="9">
         <v>0.65629999999999999</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="9">
         <v>0.63129999999999997</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="9">
         <v>0.81369999999999998</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="9">
         <v>0.70630000000000004</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="9">
         <v>0.82050000000000001</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="9">
         <v>0.60680000000000001</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="9">
         <v>0.36649999999999999</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="9">
         <v>0.66690000000000005</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="9">
         <v>0.60919999999999996</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="9">
         <v>0.77539999999999998</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="9">
         <v>0.69740000000000002</v>
       </c>
-      <c r="S29" s="15">
+      <c r="S29" s="9">
         <v>0.80349999999999999</v>
       </c>
     </row>
@@ -2568,126 +2568,126 @@
       <c r="B30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="9">
         <v>0.60370000000000001</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="9">
         <v>0.32269999999999999</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="9">
         <v>0.65849999999999997</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="9">
         <v>0.62890000000000001</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="9">
         <v>0.81410000000000005</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="9">
         <v>0.70650000000000002</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="9">
         <v>0.82089999999999996</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16" t="s">
+      <c r="K30" s="10"/>
+      <c r="L30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="9">
         <v>0.60509999999999997</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="9">
         <v>0.26550000000000001</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="9">
         <v>0.66539999999999999</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="9">
         <v>0.60760000000000003</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="9">
         <v>0.77280000000000004</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="9">
         <v>0.69389999999999996</v>
       </c>
-      <c r="S30" s="15">
+      <c r="S30" s="9">
         <v>0.80289999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="K31" s="22" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="K31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="9">
         <v>0.66849999999999998</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="9">
         <v>0.39129999999999998</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="9">
         <v>0.7772</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="9">
         <v>0.68479999999999996</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="9">
         <v>0.82069999999999999</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="9">
         <v>0.77170000000000005</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="9">
         <v>0.82069999999999999</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16" t="s">
+      <c r="K32" s="10"/>
+      <c r="L32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="9">
         <v>0.64670000000000005</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="9">
         <v>0.36680000000000001</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="9">
         <v>0.75539999999999996</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="9">
         <v>0.67930000000000001</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="9">
         <v>0.82340000000000002</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32" s="9">
         <v>0.76359999999999995</v>
       </c>
-      <c r="S32" s="15">
+      <c r="S32" s="9">
         <v>0.81789999999999996</v>
       </c>
     </row>
@@ -2696,50 +2696,50 @@
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="9">
         <v>0.66110000000000002</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="9">
         <v>0.41289999999999999</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="9">
         <v>0.77190000000000003</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="9">
         <v>0.68020000000000003</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="9">
         <v>0.8135</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="9">
         <v>0.76160000000000005</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="9">
         <v>0.81289999999999996</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16" t="s">
+      <c r="K33" s="10"/>
+      <c r="L33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="9">
         <v>0.64159999999999995</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="9">
         <v>0.38519999999999999</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="9">
         <v>0.74939999999999996</v>
       </c>
-      <c r="P33" s="15">
+      <c r="P33" s="9">
         <v>0.67430000000000001</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="9">
         <v>0.81899999999999995</v>
       </c>
-      <c r="R33" s="15">
+      <c r="R33" s="9">
         <v>0.755</v>
       </c>
-      <c r="S33" s="15">
+      <c r="S33" s="9">
         <v>0.81259999999999999</v>
       </c>
     </row>
@@ -2748,50 +2748,50 @@
       <c r="B34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="9">
         <v>0.66259999999999997</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="9">
         <v>0.39369999999999999</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="9">
         <v>0.76929999999999998</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="9">
         <v>0.68179999999999996</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="9">
         <v>0.81379999999999997</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="9">
         <v>0.76149999999999995</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="9">
         <v>0.81389999999999996</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16" t="s">
+      <c r="K34" s="10"/>
+      <c r="L34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="9">
         <v>0.64490000000000003</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="9">
         <v>0.36699999999999999</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="9">
         <v>0.75080000000000002</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34" s="9">
         <v>0.67710000000000004</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="9">
         <v>0.81989999999999996</v>
       </c>
-      <c r="R34" s="15">
+      <c r="R34" s="9">
         <v>0.75829999999999997</v>
       </c>
-      <c r="S34" s="15">
+      <c r="S34" s="9">
         <v>0.81430000000000002</v>
       </c>
     </row>
@@ -2800,75 +2800,75 @@
       <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="9">
         <v>0.66049999999999998</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="9">
         <v>0.37330000000000002</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="9">
         <v>0.77029999999999998</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="9">
         <v>0.68079999999999996</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="9">
         <v>0.8135</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="9">
         <v>0.76119999999999999</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="9">
         <v>0.81299999999999994</v>
       </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16" t="s">
+      <c r="K35" s="10"/>
+      <c r="L35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="9">
         <v>0.64170000000000005</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="9">
         <v>0.35399999999999998</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="9">
         <v>0.74929999999999997</v>
       </c>
-      <c r="P35" s="15">
+      <c r="P35" s="9">
         <v>0.6744</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="9">
         <v>0.81869999999999998</v>
       </c>
-      <c r="R35" s="15">
+      <c r="R35" s="9">
         <v>0.75509999999999999</v>
       </c>
-      <c r="S35" s="15">
+      <c r="S35" s="9">
         <v>0.81279999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="K36" s="20" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="K36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
       <c r="S36" s="24"/>
     </row>
     <row r="37" spans="1:19">
@@ -2876,50 +2876,50 @@
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="16">
         <v>0.76629999999999998</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="16">
         <v>0.61409999999999998</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="19">
         <v>0.83150000000000002</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="16">
         <v>0.78800000000000003</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="16">
         <v>0.88590000000000002</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="16">
         <v>0.83699999999999997</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="16">
         <v>0.875</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16" t="s">
+      <c r="K37" s="10"/>
+      <c r="L37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="16">
         <v>0.75819999999999999</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N37" s="16">
         <v>0.51359999999999995</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="16">
         <v>0.7772</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="16">
         <v>0.77990000000000004</v>
       </c>
-      <c r="Q37" s="25">
+      <c r="Q37" s="16">
         <v>0.88039999999999996</v>
       </c>
-      <c r="R37" s="25">
+      <c r="R37" s="16">
         <v>0.80979999999999996</v>
       </c>
-      <c r="S37" s="25">
+      <c r="S37" s="16">
         <v>0.87770000000000004</v>
       </c>
     </row>
@@ -2928,50 +2928,50 @@
       <c r="B38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="16">
         <v>0.76839999999999997</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="16">
         <v>0.60440000000000005</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="19">
         <v>0.82569999999999999</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="16">
         <v>0.78290000000000004</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="16">
         <v>0.88370000000000004</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="16">
         <v>0.82809999999999995</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="16">
         <v>0.875</v>
       </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16" t="s">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="25">
+      <c r="M38" s="16">
         <v>0.75829999999999997</v>
       </c>
-      <c r="N38" s="25">
+      <c r="N38" s="16">
         <v>0.50749999999999995</v>
       </c>
-      <c r="O38" s="25">
+      <c r="O38" s="16">
         <v>0.7681</v>
       </c>
-      <c r="P38" s="25">
+      <c r="P38" s="16">
         <v>0.77949999999999997</v>
       </c>
-      <c r="Q38" s="25">
+      <c r="Q38" s="16">
         <v>0.87760000000000005</v>
       </c>
-      <c r="R38" s="25">
+      <c r="R38" s="16">
         <v>0.80259999999999998</v>
       </c>
-      <c r="S38" s="25">
+      <c r="S38" s="16">
         <v>0.875</v>
       </c>
     </row>
@@ -2980,50 +2980,50 @@
       <c r="B39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="16">
         <v>0.75670000000000004</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="16">
         <v>0.60499999999999998</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="19">
         <v>0.82420000000000004</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="16">
         <v>0.77700000000000002</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="16">
         <v>0.88109999999999999</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="16">
         <v>0.82809999999999995</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="16">
         <v>0.86960000000000004</v>
       </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16" t="s">
+      <c r="K39" s="10"/>
+      <c r="L39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="16">
         <v>0.75460000000000005</v>
       </c>
-      <c r="N39" s="25">
+      <c r="N39" s="16">
         <v>0.5101</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="16">
         <v>0.77249999999999996</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="16">
         <v>0.77729999999999999</v>
       </c>
-      <c r="Q39" s="25">
+      <c r="Q39" s="16">
         <v>0.87790000000000001</v>
       </c>
-      <c r="R39" s="25">
+      <c r="R39" s="16">
         <v>0.80530000000000002</v>
       </c>
-      <c r="S39" s="25">
+      <c r="S39" s="16">
         <v>0.875</v>
       </c>
     </row>
@@ -3032,50 +3032,50 @@
       <c r="B40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="16">
         <v>0.75829999999999997</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="16">
         <v>0.60419999999999996</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="19">
         <v>0.82469999999999999</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="16">
         <v>0.77690000000000003</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="16">
         <v>0.88149999999999995</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="16">
         <v>0.82809999999999995</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="16">
         <v>0.86960000000000004</v>
       </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16" t="s">
+      <c r="K40" s="10"/>
+      <c r="L40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="16">
         <v>0.75390000000000001</v>
       </c>
-      <c r="N40" s="25">
+      <c r="N40" s="16">
         <v>0.50790000000000002</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="16">
         <v>0.76819999999999999</v>
       </c>
-      <c r="P40" s="25">
+      <c r="P40" s="16">
         <v>0.77649999999999997</v>
       </c>
-      <c r="Q40" s="25">
+      <c r="Q40" s="16">
         <v>0.87749999999999995</v>
       </c>
-      <c r="R40" s="25">
+      <c r="R40" s="16">
         <v>0.80179999999999996</v>
       </c>
-      <c r="S40" s="25">
+      <c r="S40" s="16">
         <v>0.87490000000000001</v>
       </c>
     </row>

--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\klasifikasi_kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0393551-D330-4A0B-A63E-EF43786EBA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DBFCA4-BAC9-4573-9D92-B533B0F6C9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
   <si>
     <t>Train 80% dan Test 20%</t>
   </si>
@@ -470,9 +470,6 @@
     <t>Voting</t>
   </si>
   <si>
-    <t>Bagging</t>
-  </si>
-  <si>
     <t>Konsep Ensembel Learning with Multi Base Model</t>
   </si>
   <si>
@@ -480,6 +477,18 @@
   </si>
   <si>
     <t>GNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoritma Bagging </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Algoritma Voting dan Stacking</t>
+  </si>
+  <si>
+    <t>Metode tidak cocok dilakukan bagging</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -530,6 +539,11 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -584,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -693,11 +707,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,15 +872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,20 +903,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -828,10 +927,88 @@
     <xf numFmtId="2" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,25 +1016,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2203,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:AX102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA56" sqref="AA56:AG59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2214,2969 +2372,3976 @@
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
     <col min="18" max="18" width="2.140625" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="33" width="5.7109375" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" customWidth="1"/>
+    <col min="35" max="35" width="2.140625" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" customWidth="1"/>
+    <col min="37" max="50" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1">
+    <row r="1" spans="1:50" ht="15" customHeight="1">
       <c r="B1" s="7"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="T1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+    </row>
+    <row r="2" spans="1:50" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+    </row>
+    <row r="3" spans="1:50" ht="15" customHeight="1">
+      <c r="A3" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="6" spans="1:16" ht="12" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="R3" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="64"/>
+    </row>
+    <row r="4" spans="1:50" ht="15" customHeight="1">
+      <c r="R4" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+    </row>
+    <row r="6" spans="1:50" ht="12" customHeight="1">
+      <c r="A6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="12" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="29">
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="R6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="67"/>
+      <c r="T6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="61"/>
+    </row>
+    <row r="7" spans="1:50" ht="12" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>3</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="26">
         <v>4</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="26">
         <v>5</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="26">
         <v>6</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="26">
         <v>7</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="26">
         <v>1</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="26">
         <v>2</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="26">
         <v>3</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="26">
         <v>4</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="26">
         <v>5</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="26">
         <v>6</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="26">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="12" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="R7" s="68"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="26">
+        <v>1</v>
+      </c>
+      <c r="U7" s="26">
+        <v>2</v>
+      </c>
+      <c r="V7" s="26">
+        <v>3</v>
+      </c>
+      <c r="W7" s="26">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-    </row>
-    <row r="9" spans="1:16" ht="12" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31" t="s">
+      <c r="X7" s="26">
         <v>5</v>
       </c>
-      <c r="C9" s="35">
+      <c r="Y7" s="26">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="26">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="12" customHeight="1">
+      <c r="A8" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="R8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="71"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+    </row>
+    <row r="9" spans="1:50" ht="12" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32">
         <v>0.71740000000000004</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="32">
         <v>0.54349999999999998</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="32">
         <v>0.79890000000000005</v>
       </c>
-      <c r="F9" s="35">
-        <v>0.72829999999999984</v>
-      </c>
-      <c r="G9" s="35">
+      <c r="F9" s="32">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="G9" s="32">
         <v>0.83699999999999997</v>
       </c>
-      <c r="H9" s="35">
-        <v>0.80979999999999985</v>
-      </c>
-      <c r="I9" s="35">
-        <v>0.84239999999999982</v>
-      </c>
-      <c r="J9" s="36">
-        <v>0.70920000000000016</v>
-      </c>
-      <c r="K9" s="36">
+      <c r="H9" s="32">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0.70920000000000005</v>
+      </c>
+      <c r="K9" s="33">
         <v>0.51359999999999995</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="33">
         <v>0.75</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="33">
         <v>0.74180000000000001</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="33">
         <v>0.8397</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="33">
         <v>0.76090000000000002</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="33">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="12" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31" t="s">
+      <c r="R9" s="22"/>
+      <c r="S9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="32">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="U9" s="32">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="V9" s="32">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="W9" s="32">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="X9" s="32">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="AB9" s="33">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="AC9" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AD9" s="33">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="AE9" s="33">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="AF9" s="33">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="AG9" s="33">
+        <v>0.85050000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="12" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>0.71009999999999984</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="C10" s="32">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="D10" s="32">
         <v>0.54810000000000003</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="32">
         <v>0.79249999999999998</v>
       </c>
-      <c r="F10" s="35">
-        <v>0.72919999999999985</v>
-      </c>
-      <c r="G10" s="35">
-        <v>0.83179999999999976</v>
-      </c>
-      <c r="H10" s="35">
+      <c r="F10" s="32">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="H10" s="32">
         <v>0.80259999999999998</v>
       </c>
-      <c r="I10" s="35">
-        <v>0.84089999999999987</v>
-      </c>
-      <c r="J10" s="36">
+      <c r="I10" s="32">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="J10" s="33">
         <v>0.70799999999999996</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="33">
         <v>0.50080000000000002</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="33">
         <v>0.73960000000000004</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="33">
         <v>0.74409999999999998</v>
       </c>
-      <c r="N10" s="36">
-        <v>0.8375999999999999</v>
-      </c>
-      <c r="O10" s="36">
+      <c r="N10" s="33">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="O10" s="33">
         <v>0.75260000000000005</v>
       </c>
-      <c r="P10" s="36">
-        <v>0.83689999999999976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="12" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31" t="s">
+      <c r="P10" s="33">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="32">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="U10" s="32">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="V10" s="32">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="W10" s="32">
+        <v>0.75839999999999996</v>
+      </c>
+      <c r="X10" s="32">
+        <v>0.8488</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>0.8599</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="AB10" s="33">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="AC10" s="33">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="AD10" s="33">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="AE10" s="33">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="AF10" s="33">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="AG10" s="33">
+        <v>0.8478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="12" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="32">
         <v>0.70660000000000001</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="32">
         <v>0.53069999999999995</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="32">
         <v>0.79039999999999999</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="32">
         <v>0.71909999999999996</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="32">
         <v>0.82979999999999998</v>
       </c>
-      <c r="H11" s="35">
-        <v>0.80099999999999982</v>
-      </c>
-      <c r="I11" s="35">
+      <c r="H11" s="32">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I11" s="32">
         <v>0.83650000000000002</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="33">
         <v>0.70550000000000002</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="33">
         <v>0.50860000000000005</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="33">
         <v>0.74460000000000004</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="33">
         <v>0.73770000000000002</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="33">
         <v>0.83660000000000001</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="33">
         <v>0.75580000000000003</v>
       </c>
-      <c r="P11" s="36">
-        <v>0.83399999999999985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="12" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31" t="s">
+      <c r="P11" s="33">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="32">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="U11" s="32">
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="V11" s="32">
+        <v>0.7903</v>
+      </c>
+      <c r="W11" s="32">
+        <v>0.74539999999999995</v>
+      </c>
+      <c r="X11" s="32">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>0.8579</v>
+      </c>
+      <c r="AA11" s="33">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="AB11" s="33">
+        <v>0.504</v>
+      </c>
+      <c r="AC11" s="33">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AD11" s="33">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="AE11" s="33">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="AF11" s="33">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="AG11" s="33">
+        <v>0.84740000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="12" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="32">
         <v>0.70569999999999999</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="32">
         <v>0.52939999999999998</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="32">
         <v>0.79120000000000001</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="32">
         <v>0.7208</v>
       </c>
-      <c r="G12" s="35">
-        <v>0.83019999999999983</v>
-      </c>
-      <c r="H12" s="35">
-        <v>0.80139999999999989</v>
-      </c>
-      <c r="I12" s="35">
+      <c r="G12" s="32">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0.8014</v>
+      </c>
+      <c r="I12" s="32">
         <v>0.83699999999999997</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="33">
         <v>0.70489999999999997</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="33">
         <v>0.50080000000000002</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="33">
         <v>0.74099999999999999</v>
       </c>
-      <c r="M12" s="36">
-        <v>0.73719999999999986</v>
-      </c>
-      <c r="N12" s="36">
+      <c r="M12" s="33">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="N12" s="33">
         <v>0.83660000000000001</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="33">
         <v>0.75280000000000002</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="33">
         <v>0.83460000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="12" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="R12" s="22"/>
+      <c r="S12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="32">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="U12" s="32">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="V12" s="32">
+        <v>0.7913</v>
+      </c>
+      <c r="W12" s="32">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="X12" s="32">
+        <v>0.8478</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="AB12" s="33">
+        <v>0.501</v>
+      </c>
+      <c r="AC12" s="33">
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="AD12" s="33">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="AE12" s="33">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="AF12" s="33">
+        <v>0.7712</v>
+      </c>
+      <c r="AG12" s="33">
+        <v>0.84730000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="12" customHeight="1">
+      <c r="A13" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" ht="12" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="R13" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="S13" s="71"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+    </row>
+    <row r="14" spans="1:50" ht="12" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="35">
-        <v>0.70109999999999983</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="32">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="D14" s="32">
         <v>0.51090000000000002</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="32">
         <v>0.78800000000000003</v>
       </c>
-      <c r="F14" s="35">
-        <v>0.73369999999999991</v>
-      </c>
-      <c r="G14" s="35">
-        <v>0.85329999999999973</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0.79349999999999987</v>
-      </c>
-      <c r="I14" s="35">
-        <v>0.84239999999999982</v>
-      </c>
-      <c r="J14" s="36">
+      <c r="F14" s="32">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="J14" s="33">
         <v>0.69020000000000004</v>
       </c>
-      <c r="K14" s="36">
-        <v>0.46739999999999993</v>
-      </c>
-      <c r="L14" s="36">
-        <v>0.77449999999999986</v>
-      </c>
-      <c r="M14" s="36">
-        <v>0.73099999999999987</v>
-      </c>
-      <c r="N14" s="36">
+      <c r="K14" s="33">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="N14" s="33">
         <v>0.85870000000000002</v>
       </c>
-      <c r="O14" s="36">
-        <v>0.78259999999999985</v>
-      </c>
-      <c r="P14" s="36">
-        <v>0.84239999999999982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="12" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31" t="s">
+      <c r="O14" s="33">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="P14" s="33">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="32">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="U14" s="32">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="V14" s="32">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="W14" s="32">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="X14" s="32">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="AA14" s="33">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AB14" s="33">
+        <v>0.4864</v>
+      </c>
+      <c r="AC14" s="33">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="AD14" s="33">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="AE14" s="33">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="AF14" s="33">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="AG14" s="33">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" ht="12" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="32">
         <v>0.69579999999999997</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="32">
         <v>0.51280000000000003</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="32">
         <v>0.78120000000000001</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="32">
         <v>0.72760000000000002</v>
       </c>
-      <c r="G15" s="35">
-        <v>0.8480000000000002</v>
-      </c>
-      <c r="H15" s="35">
+      <c r="G15" s="32">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H15" s="32">
         <v>0.79039999999999999</v>
       </c>
-      <c r="I15" s="35">
-        <v>0.8358000000000001</v>
-      </c>
-      <c r="J15" s="36">
+      <c r="I15" s="32">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="J15" s="33">
         <v>0.6885</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="33">
         <v>0.4713</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="33">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="33">
         <v>0.72789999999999999</v>
       </c>
-      <c r="N15" s="36">
-        <v>0.85650000000000015</v>
-      </c>
-      <c r="O15" s="36">
+      <c r="N15" s="33">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="O15" s="33">
         <v>0.77510000000000001</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="33">
         <v>0.83840000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="12" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
+      <c r="R15" s="22"/>
+      <c r="S15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="32">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="U15" s="32">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="V15" s="32">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="W15" s="32">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="X15" s="32">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="AA15" s="33">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="AB15" s="33">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="AC15" s="33">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AD15" s="33">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="AE15" s="33">
+        <v>0.8609</v>
+      </c>
+      <c r="AF15" s="33">
+        <v>0.78180000000000005</v>
+      </c>
+      <c r="AG15" s="33">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" ht="12" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="32">
         <v>0.69340000000000002</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="32">
         <v>0.50629999999999997</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="32">
         <v>0.77880000000000005</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="32">
         <v>0.72350000000000003</v>
       </c>
-      <c r="G16" s="35">
-        <v>0.84749999999999981</v>
-      </c>
-      <c r="H16" s="35">
-        <v>0.78549999999999986</v>
-      </c>
-      <c r="I16" s="35">
+      <c r="G16" s="32">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="I16" s="32">
         <v>0.83599999999999997</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="33">
         <v>0.68830000000000002</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="33">
         <v>0.46589999999999998</v>
       </c>
-      <c r="L16" s="36">
-        <v>0.76929999999999987</v>
-      </c>
-      <c r="M16" s="36">
+      <c r="L16" s="33">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="M16" s="33">
         <v>0.72809999999999997</v>
       </c>
-      <c r="N16" s="36">
-        <v>0.85560000000000014</v>
-      </c>
-      <c r="O16" s="36">
+      <c r="N16" s="33">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="O16" s="33">
         <v>0.77790000000000004</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="33">
         <v>0.83889999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="12" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31" t="s">
+      <c r="R16" s="22"/>
+      <c r="S16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="32">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="U16" s="32">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="V16" s="32">
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="W16" s="32">
+        <v>0.7177</v>
+      </c>
+      <c r="X16" s="32">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="AA16" s="33">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AB16" s="33">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="AC16" s="33">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="AD16" s="33">
+        <v>0.74980000000000002</v>
+      </c>
+      <c r="AE16" s="33">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="AF16" s="33">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="AG16" s="33">
+        <v>0.85309999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="12" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="32">
         <v>0.6925</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="32">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E17" s="35">
-        <v>0.77949999999999986</v>
-      </c>
-      <c r="F17" s="35">
+      <c r="E17" s="32">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="F17" s="32">
         <v>0.71930000000000005</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="32">
         <v>0.84770000000000001</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="32">
         <v>0.78680000000000005</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="32">
         <v>0.83589999999999998</v>
       </c>
-      <c r="J17" s="36">
-        <v>0.68610000000000015</v>
-      </c>
-      <c r="K17" s="36">
+      <c r="J17" s="33">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="K17" s="33">
         <v>0.46760000000000002</v>
       </c>
-      <c r="L17" s="36">
-        <v>0.76609999999999989</v>
-      </c>
-      <c r="M17" s="36">
+      <c r="L17" s="33">
+        <v>0.7661</v>
+      </c>
+      <c r="M17" s="33">
         <v>0.72460000000000002</v>
       </c>
-      <c r="N17" s="36">
-        <v>0.85560000000000014</v>
-      </c>
-      <c r="O17" s="36">
+      <c r="N17" s="33">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="O17" s="33">
         <v>0.77610000000000001</v>
       </c>
-      <c r="P17" s="36">
-        <v>0.83819999999999983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="12" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="P17" s="33">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="32">
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="U17" s="32">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="V17" s="32">
+        <v>0.7994</v>
+      </c>
+      <c r="W17" s="32">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="X17" s="32">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="AA17" s="33">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="AB17" s="33">
+        <v>0.4753</v>
+      </c>
+      <c r="AC17" s="33">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="AD17" s="33">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="AE17" s="33">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="AF17" s="33">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AG17" s="33">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="12" customHeight="1">
+      <c r="A18" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-    </row>
-    <row r="19" spans="1:16" ht="12" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+    </row>
+    <row r="19" spans="1:33" ht="12" customHeight="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="32">
         <v>0.75</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="32">
         <v>0.55979999999999996</v>
       </c>
-      <c r="E19" s="35">
-        <v>0.78259999999999985</v>
-      </c>
-      <c r="F19" s="35">
+      <c r="E19" s="32">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="F19" s="32">
         <v>0.74460000000000004</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="32">
         <v>0.82609999999999995</v>
       </c>
-      <c r="H19" s="35">
-        <v>0.80979999999999985</v>
-      </c>
-      <c r="I19" s="35">
+      <c r="H19" s="32">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="I19" s="32">
         <v>0.79890000000000005</v>
       </c>
-      <c r="J19" s="36">
-        <v>0.71199999999999986</v>
-      </c>
-      <c r="K19" s="36">
+      <c r="J19" s="33">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="K19" s="33">
         <v>0.49180000000000001</v>
       </c>
-      <c r="L19" s="36">
-        <v>0.73099999999999987</v>
-      </c>
-      <c r="M19" s="36">
+      <c r="L19" s="33">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="M19" s="33">
         <v>0.73909999999999998</v>
       </c>
-      <c r="N19" s="36">
-        <v>0.81520000000000015</v>
-      </c>
-      <c r="O19" s="36">
+      <c r="N19" s="33">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="O19" s="33">
         <v>0.76900000000000002</v>
       </c>
-      <c r="P19" s="36">
-        <v>0.8042999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="12" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31" t="s">
+      <c r="P19" s="33">
+        <v>0.80430000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="12" customHeight="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="35">
-        <v>0.74779999999999991</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="C20" s="32">
+        <v>0.74780000000000002</v>
+      </c>
+      <c r="D20" s="32">
         <v>0.55130000000000001</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="32">
         <v>0.77480000000000004</v>
       </c>
-      <c r="F20" s="35">
-        <v>0.74339999999999984</v>
-      </c>
-      <c r="G20" s="35">
+      <c r="F20" s="32">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="G20" s="32">
         <v>0.81920000000000004</v>
       </c>
-      <c r="H20" s="35">
-        <v>0.8015000000000001</v>
-      </c>
-      <c r="I20" s="35">
-        <v>0.79279999999999984</v>
-      </c>
-      <c r="J20" s="36">
+      <c r="H20" s="32">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="J20" s="33">
         <v>0.71289999999999998</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="33">
         <v>0.48570000000000002</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="33">
         <v>0.71930000000000005</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="33">
         <v>0.73770000000000002</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="33">
         <v>0.81030000000000002</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="33">
         <v>0.76070000000000004</v>
       </c>
-      <c r="P20" s="36">
-        <v>0.80189999999999984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="12" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31" t="s">
+      <c r="P20" s="33">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="R20" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+    </row>
+    <row r="21" spans="1:33" ht="12" customHeight="1">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="35">
-        <v>0.74329999999999985</v>
-      </c>
-      <c r="D21" s="35">
+      <c r="C21" s="32">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="D21" s="32">
         <v>0.55189999999999995</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="32">
         <v>0.7742</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="32">
         <v>0.73650000000000004</v>
       </c>
-      <c r="G21" s="35">
-        <v>0.81959999999999977</v>
-      </c>
-      <c r="H21" s="35">
+      <c r="G21" s="32">
+        <v>0.8196</v>
+      </c>
+      <c r="H21" s="32">
         <v>0.80220000000000002</v>
       </c>
-      <c r="I21" s="35">
-        <v>0.79359999999999986</v>
-      </c>
-      <c r="J21" s="36">
+      <c r="I21" s="32">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="J21" s="33">
         <v>0.70979999999999999</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="33">
         <v>0.4884</v>
       </c>
-      <c r="L21" s="36">
-        <v>0.72629999999999983</v>
-      </c>
-      <c r="M21" s="36">
+      <c r="L21" s="33">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="M21" s="33">
         <v>0.73760000000000003</v>
       </c>
-      <c r="N21" s="36">
-        <v>0.81179999999999986</v>
-      </c>
-      <c r="O21" s="36">
+      <c r="N21" s="33">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="O21" s="33">
         <v>0.76480000000000004</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="33">
         <v>0.80120000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="12" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31" t="s">
+      <c r="R21" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+    </row>
+    <row r="22" spans="1:33" ht="12" customHeight="1">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="32">
         <v>0.74450000000000005</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="32">
         <v>0.5514</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="32">
         <v>0.77429999999999999</v>
       </c>
-      <c r="F22" s="35">
-        <v>0.73819999999999986</v>
-      </c>
-      <c r="G22" s="35">
-        <v>0.81929999999999981</v>
-      </c>
-      <c r="H22" s="35">
+      <c r="F22" s="32">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="H22" s="32">
         <v>0.80159999999999998</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="32">
         <v>0.79310000000000003</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="33">
         <v>0.7107</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="33">
         <v>0.48609999999999998</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="33">
         <v>0.71899999999999997</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="33">
         <v>0.73760000000000003</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="33">
         <v>0.8105</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="33">
         <v>0.76160000000000005</v>
       </c>
-      <c r="P22" s="36">
-        <v>0.80139999999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="12" customHeight="1">
-      <c r="A23" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-    </row>
-    <row r="24" spans="1:16" ht="12" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31" t="s">
+      <c r="P22" s="33">
+        <v>0.8014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="12" customHeight="1">
+      <c r="A23" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="R23" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+    </row>
+    <row r="24" spans="1:33" ht="12" customHeight="1">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="32">
+        <v>0.6522</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="J24" s="33">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="K24" s="33">
+        <v>0.4375</v>
+      </c>
+      <c r="L24" s="33">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="M24" s="33">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="O24" s="33">
+        <v>0.7147</v>
+      </c>
+      <c r="P24" s="33">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="26">
+        <v>1</v>
+      </c>
+      <c r="U24" s="26">
+        <v>2</v>
+      </c>
+      <c r="V24" s="26">
+        <v>3</v>
+      </c>
+      <c r="W24" s="26">
+        <v>4</v>
+      </c>
+      <c r="X24" s="26">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="26">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="26">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="26">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="26">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG24" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="12" customHeight="1">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0.4698</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0.7601</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0.7379</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0.7954</v>
+      </c>
+      <c r="J25" s="33">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0.45950000000000002</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="M25" s="33">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0.7742</v>
+      </c>
+      <c r="O25" s="33">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="P25" s="33">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="R25" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="S25" s="55"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+    </row>
+    <row r="26" spans="1:33" ht="12" customHeight="1">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.45490000000000003</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0.7903</v>
+      </c>
+      <c r="J26" s="33">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0.43540000000000001</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="M26" s="33">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="O26" s="33">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="P26" s="33">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+    </row>
+    <row r="27" spans="1:33" ht="12" customHeight="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0.64229999999999998</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0.6825</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="J27" s="33">
+        <v>0.6391</v>
+      </c>
+      <c r="K27" s="33">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="M27" s="33">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="O27" s="33">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="P27" s="33">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+    </row>
+    <row r="28" spans="1:33" ht="12" customHeight="1">
+      <c r="A28" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+    </row>
+    <row r="29" spans="1:33" ht="12" customHeight="1">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="32">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.7772</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="J29" s="33">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="K29" s="33">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="L29" s="33">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="M29" s="33">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0.82340000000000002</v>
+      </c>
+      <c r="O29" s="33">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="P29" s="33">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+    </row>
+    <row r="30" spans="1:33" ht="12" customHeight="1">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="32">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0.8135</v>
+      </c>
+      <c r="H30" s="32">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="I30" s="32">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="J30" s="33">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="K30" s="33">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L30" s="33">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="M30" s="33">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="O30" s="33">
+        <v>0.755</v>
+      </c>
+      <c r="P30" s="33">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="R30" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="56"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+    </row>
+    <row r="31" spans="1:33" ht="12" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="32">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="H31" s="32">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="J31" s="33">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="K31" s="33">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="L31" s="33">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="M31" s="33">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0.81989999999999996</v>
+      </c>
+      <c r="O31" s="33">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="P31" s="33">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T31" s="32">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="U31" s="32">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="V31" s="32">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D24" s="35">
-        <v>0.57609999999999995</v>
-      </c>
-      <c r="E24" s="35">
-        <v>0.80979999999999985</v>
-      </c>
-      <c r="F24" s="35">
-        <v>0.8207000000000001</v>
-      </c>
-      <c r="G24" s="35">
-        <v>0.89670000000000005</v>
-      </c>
-      <c r="H24" s="35">
-        <v>0.83149999999999979</v>
-      </c>
-      <c r="I24" s="35">
-        <v>0.88039999999999985</v>
-      </c>
-      <c r="J24" s="36">
+      <c r="W31" s="32">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="X31" s="32">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="Y31" s="32">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="Z31" s="32">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="AA31" s="33">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="AB31" s="33">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="AC31" s="33">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="AD31" s="33">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AE31" s="33">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="AF31" s="33">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="AG31" s="33">
+        <v>0.8397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="12" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0.68079999999999996</v>
+      </c>
+      <c r="G32" s="32">
+        <v>0.8135</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J32" s="33">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="K32" s="33">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L32" s="33">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="M32" s="33">
+        <v>0.6744</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="O32" s="33">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="P32" s="33">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="32">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="U32" s="32">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="V32" s="32">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="W32" s="32">
+        <v>0.7278</v>
+      </c>
+      <c r="X32" s="32">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="Y32" s="32">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="Z32" s="32">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="AA32" s="33">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="AB32" s="33">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="AC32" s="33">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="AD32" s="33">
+        <v>0.7278</v>
+      </c>
+      <c r="AE32" s="33">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="AF32" s="33">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="AG32" s="33">
+        <v>0.83460000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="12" customHeight="1">
+      <c r="A33" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="T33" s="32">
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="U33" s="32">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="V33" s="32">
+        <v>0.77969999999999995</v>
+      </c>
+      <c r="W33" s="32">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="X33" s="32">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="Z33" s="32">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="AA33" s="33">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="AB33" s="33">
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="AC33" s="33">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="AD33" s="33">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="AE33" s="33">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="AF33" s="33">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="AG33" s="33">
+        <v>0.83620000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="12" customHeight="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0.7228</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="G34" s="32">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="H34" s="32">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="I34" s="32">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="J34" s="33">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="K34" s="33">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="L34" s="33">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="M34" s="33">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="O34" s="33">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="P34" s="33">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T34" s="32">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="U34" s="32">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="V34" s="32">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="W34" s="32">
+        <v>0.72019999999999995</v>
+      </c>
+      <c r="X34" s="32">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="Y34" s="32">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="Z34" s="32">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="AA34" s="33">
+        <v>0.70050000000000001</v>
+      </c>
+      <c r="AB34" s="33">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="AC34" s="33">
+        <v>0.77259999999999995</v>
+      </c>
+      <c r="AD34" s="33">
+        <v>0.7248</v>
+      </c>
+      <c r="AE34" s="33">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="AF34" s="33">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="AG34" s="33">
+        <v>0.83479999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="12" customHeight="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="E35" s="32">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="G35" s="32">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="H35" s="32">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="I35" s="32">
+        <v>0.80320000000000003</v>
+      </c>
+      <c r="J35" s="33">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="K35" s="33">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="L35" s="33">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="M35" s="33">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0.81889999999999996</v>
+      </c>
+      <c r="O35" s="33">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="P35" s="33">
+        <v>0.81489999999999996</v>
+      </c>
+      <c r="R35" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="S35" s="56"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+    </row>
+    <row r="36" spans="1:33" ht="12" customHeight="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="32">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="D36" s="32">
+        <v>0.3947</v>
+      </c>
+      <c r="E36" s="32">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0.7117</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="I36" s="32">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="J36" s="33">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="K36" s="33">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="L36" s="33">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="M36" s="33">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="O36" s="33">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="P36" s="33">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="32">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="U36" s="32">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="V36" s="32">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="W36" s="32">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="X36" s="32">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="Y36" s="32">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="Z36" s="32">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="AA36" s="33">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="AB36" s="33">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="AC36" s="33">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AD36" s="33">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="AE36" s="33">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="AF36" s="33">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AG36" s="33">
+        <v>0.86680000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="12" customHeight="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0.71160000000000001</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="H37" s="32">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="I37" s="32">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="J37" s="33">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="K37" s="33">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="L37" s="33">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="M37" s="33">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="O37" s="33">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="P37" s="33">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="32">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="U37" s="32">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="V37" s="32">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="W37" s="32">
+        <v>0.8407</v>
+      </c>
+      <c r="X37" s="32">
+        <v>0.876</v>
+      </c>
+      <c r="Y37" s="32">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="Z37" s="32">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="AA37" s="33">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="AB37" s="33">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="AC37" s="33">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="AD37" s="33">
+        <v>0.7913</v>
+      </c>
+      <c r="AE37" s="33">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="AF37" s="33">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="AG37" s="33">
+        <v>0.8639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="12" customHeight="1">
+      <c r="A38" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="32">
+        <v>0.7591</v>
+      </c>
+      <c r="U38" s="32">
+        <v>0.5474</v>
+      </c>
+      <c r="V38" s="32">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="W38" s="32">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="X38" s="32">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="Y38" s="32">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="Z38" s="32">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="AA38" s="33">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AB38" s="33">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="AC38" s="33">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AD38" s="33">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="AE38" s="33">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="AF38" s="33">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="AG38" s="33">
+        <v>0.86439999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="12" customHeight="1">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="32">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="D39" s="32">
+        <v>0.4239</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="H39" s="32">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="I39" s="32">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="J39" s="33">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K39" s="33">
+        <v>0.4158</v>
+      </c>
+      <c r="L39" s="33">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M39" s="33">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O39" s="33">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="P39" s="33">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T39" s="32">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="U39" s="32">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="V39" s="32">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="W39" s="32">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="X39" s="32">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="Y39" s="32">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="Z39" s="32">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="AA39" s="33">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="AB39" s="33">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="AC39" s="33">
+        <v>0.7601</v>
+      </c>
+      <c r="AD39" s="33">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="AE39" s="33">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AF39" s="33">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="AG39" s="33">
+        <v>0.8639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="12" customHeight="1">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="32">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="D40" s="32">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E40" s="32">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0.73040000000000005</v>
+      </c>
+      <c r="G40" s="32">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="H40" s="32">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="I40" s="32">
+        <v>0.8276</v>
+      </c>
+      <c r="J40" s="33">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="K40" s="33">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="L40" s="33">
+        <v>0.7893</v>
+      </c>
+      <c r="M40" s="33">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="N40" s="33">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="O40" s="33">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="P40" s="33">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="S40" s="36"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="34"/>
+    </row>
+    <row r="41" spans="1:33" ht="12" customHeight="1">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="32">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="D41" s="32">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="E41" s="32">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F41" s="32">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="G41" s="32">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="H41" s="32">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="I41" s="32">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="J41" s="33">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="K41" s="33">
+        <v>0.41689999999999999</v>
+      </c>
+      <c r="L41" s="33">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="M41" s="33">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="N41" s="33">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="O41" s="33">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="P41" s="33">
+        <v>0.8014</v>
+      </c>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="32">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="U41" s="32">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="V41" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="W41" s="32">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="X41" s="32">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="Y41" s="32">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="Z41" s="32">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="AA41" s="33">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AB41" s="33">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="AC41" s="33">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="AD41" s="33">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="AE41" s="33">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="AF41" s="33">
+        <v>0.7147</v>
+      </c>
+      <c r="AG41" s="33">
+        <v>0.77170000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="12" customHeight="1">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="32">
+        <v>0.6321</v>
+      </c>
+      <c r="D42" s="32">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="E42" s="32">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0.7006</v>
+      </c>
+      <c r="G42" s="32">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="H42" s="32">
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="I42" s="32">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="J42" s="33">
+        <v>0.62309999999999999</v>
+      </c>
+      <c r="K42" s="33">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="L42" s="33">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="M42" s="33">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="N42" s="33">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="O42" s="33">
+        <v>0.7742</v>
+      </c>
+      <c r="P42" s="33">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="32">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="U42" s="32">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="V42" s="32">
+        <v>0.7601</v>
+      </c>
+      <c r="W42" s="32">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="X42" s="32">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="Y42" s="32">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="Z42" s="32">
+        <v>0.7954</v>
+      </c>
+      <c r="AA42" s="33">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="AB42" s="33">
+        <v>0.4546</v>
+      </c>
+      <c r="AC42" s="33">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="AD42" s="33">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="AE42" s="33">
+        <v>0.7742</v>
+      </c>
+      <c r="AF42" s="33">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AG42" s="33">
+        <v>0.77149999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="12" customHeight="1">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="32">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="U43" s="32">
+        <v>0.4597</v>
+      </c>
+      <c r="V43" s="32">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="W43" s="32">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="X43" s="32">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="Y43" s="32">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="Z43" s="32">
+        <v>0.7903</v>
+      </c>
+      <c r="AA43" s="33">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="AB43" s="33">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="AC43" s="33">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="AD43" s="33">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="AE43" s="33">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="AF43" s="33">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="AG43" s="33">
+        <v>0.76759999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="12" customHeight="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="32">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="U44" s="32">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="V44" s="32">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="W44" s="32">
+        <v>0.6825</v>
+      </c>
+      <c r="X44" s="32">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="Y44" s="32">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="Z44" s="32">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="AA44" s="33">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="AB44" s="33">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="AC44" s="33">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="AD44" s="33">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="AE44" s="33">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="AF44" s="33">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="AG44" s="33">
+        <v>0.76790000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="12" customHeight="1">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="R45" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="S45" s="36"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+    </row>
+    <row r="46" spans="1:33" ht="12" customHeight="1">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="32">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="U46" s="32">
+        <v>0.3967</v>
+      </c>
+      <c r="V46" s="32">
+        <v>0.7772</v>
+      </c>
+      <c r="W46" s="32">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="X46" s="32">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="Y46" s="32">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="Z46" s="32">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="AA46" s="33">
+        <v>0.6522</v>
+      </c>
+      <c r="AB46" s="33">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="AC46" s="33">
         <v>0.75819999999999999</v>
       </c>
-      <c r="K24" s="36">
-        <v>0.52170000000000005</v>
-      </c>
-      <c r="L24" s="36">
-        <v>0.80159999999999998</v>
-      </c>
-      <c r="M24" s="36">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="N24" s="36">
-        <v>0.88859999999999995</v>
-      </c>
-      <c r="O24" s="36">
-        <v>0.79349999999999987</v>
-      </c>
-      <c r="P24" s="36">
-        <v>0.86959999999999982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="12" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31" t="s">
+      <c r="AD46" s="33">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="AE46" s="33">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="AF46" s="33">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="AG46" s="33">
+        <v>0.81789999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="12" customHeight="1">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="35">
-        <v>0.78569999999999984</v>
-      </c>
-      <c r="D25" s="35">
-        <v>0.56940000000000002</v>
-      </c>
-      <c r="E25" s="35">
-        <v>0.80269999999999997</v>
-      </c>
-      <c r="F25" s="35">
-        <v>0.82729999999999992</v>
-      </c>
-      <c r="G25" s="35">
-        <v>0.89239999999999997</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0.82269999999999999</v>
-      </c>
-      <c r="I25" s="35">
-        <v>0.87580000000000013</v>
-      </c>
-      <c r="J25" s="36">
-        <v>0.75929999999999986</v>
-      </c>
-      <c r="K25" s="36">
-        <v>0.5131</v>
-      </c>
-      <c r="L25" s="36">
-        <v>0.79539999999999988</v>
-      </c>
-      <c r="M25" s="36">
-        <v>0.78839999999999999</v>
-      </c>
-      <c r="N25" s="36">
-        <v>0.88610000000000011</v>
-      </c>
-      <c r="O25" s="36">
-        <v>0.78680000000000005</v>
-      </c>
-      <c r="P25" s="36">
-        <v>0.86750000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="12" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31" t="s">
+      <c r="T47" s="32">
+        <v>0.65510000000000002</v>
+      </c>
+      <c r="U47" s="32">
+        <v>0.4194</v>
+      </c>
+      <c r="V47" s="32">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="W47" s="32">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="X47" s="32">
+        <v>0.8135</v>
+      </c>
+      <c r="Y47" s="32">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="Z47" s="32">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="AA47" s="33">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="AB47" s="33">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="AC47" s="33">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="AD47" s="33">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="AE47" s="33">
+        <v>0.81620000000000004</v>
+      </c>
+      <c r="AF47" s="33">
+        <v>0.755</v>
+      </c>
+      <c r="AG47" s="33">
+        <v>0.81259999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="12" customHeight="1">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="35">
-        <v>0.77959999999999985</v>
-      </c>
-      <c r="D26" s="35">
-        <v>0.56840000000000002</v>
-      </c>
-      <c r="E26" s="35">
-        <v>0.80210000000000004</v>
-      </c>
-      <c r="F26" s="35">
-        <v>0.81079999999999985</v>
-      </c>
-      <c r="G26" s="35">
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="H26" s="35">
-        <v>0.8234999999999999</v>
-      </c>
-      <c r="I26" s="35">
-        <v>0.87660000000000005</v>
-      </c>
-      <c r="J26" s="36">
-        <v>0.75529999999999986</v>
-      </c>
-      <c r="K26" s="36">
-        <v>0.51729999999999998</v>
-      </c>
-      <c r="L26" s="36">
-        <v>0.79759999999999998</v>
-      </c>
-      <c r="M26" s="36">
-        <v>0.78520000000000001</v>
-      </c>
-      <c r="N26" s="36">
-        <v>0.88619999999999999</v>
-      </c>
-      <c r="O26" s="36">
-        <v>0.78949999999999987</v>
-      </c>
-      <c r="P26" s="36">
-        <v>0.86709999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="12" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31" t="s">
+      <c r="T48" s="32">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="U48" s="32">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="V48" s="32">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="W48" s="32">
+        <v>0.6915</v>
+      </c>
+      <c r="X48" s="32">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="Y48" s="32">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="Z48" s="32">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="AA48" s="33">
+        <v>0.65</v>
+      </c>
+      <c r="AB48" s="33">
+        <v>0.3669</v>
+      </c>
+      <c r="AC48" s="33">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="AD48" s="33">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="AE48" s="33">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AF48" s="33">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="AG48" s="33">
+        <v>0.81430000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" ht="12" customHeight="1">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="35">
-        <v>0.78049999999999997</v>
-      </c>
-      <c r="D27" s="35">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="E27" s="35">
-        <v>0.80240000000000011</v>
-      </c>
-      <c r="F27" s="35">
-        <v>0.81340000000000001</v>
-      </c>
-      <c r="G27" s="35">
-        <v>0.89249999999999985</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0.82279999999999975</v>
-      </c>
-      <c r="I27" s="35">
-        <v>0.87590000000000001</v>
-      </c>
-      <c r="J27" s="36">
-        <v>0.755</v>
-      </c>
-      <c r="K27" s="36">
-        <v>0.51419999999999999</v>
-      </c>
-      <c r="L27" s="36">
-        <v>0.79530000000000001</v>
-      </c>
-      <c r="M27" s="36">
-        <v>0.78559999999999985</v>
-      </c>
-      <c r="N27" s="36">
-        <v>0.88610000000000011</v>
-      </c>
-      <c r="O27" s="36">
-        <v>0.78659999999999985</v>
-      </c>
-      <c r="P27" s="36">
-        <v>0.86720000000000008</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="12" customHeight="1">
-      <c r="A28" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-    </row>
-    <row r="29" spans="1:16" ht="12" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
+      <c r="T49" s="32">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="U49" s="32">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="V49" s="32">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="W49" s="32">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="X49" s="32">
+        <v>0.8135</v>
+      </c>
+      <c r="Y49" s="32">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="Z49" s="32">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AA49" s="33">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="AB49" s="33">
+        <v>0.3508</v>
+      </c>
+      <c r="AC49" s="33">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="AD49" s="33">
+        <v>0.6774</v>
+      </c>
+      <c r="AE49" s="33">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AF49" s="33">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="AG49" s="33">
+        <v>0.81279999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" ht="12" customHeight="1">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="R50" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="S50" s="36"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+    </row>
+    <row r="51" spans="1:33" ht="12" customHeight="1">
+      <c r="R51" s="28"/>
+      <c r="S51" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="35">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="D29" s="35">
-        <v>0.3533</v>
-      </c>
-      <c r="E29" s="35">
-        <v>0.66300000000000014</v>
-      </c>
-      <c r="F29" s="35">
-        <v>0.625</v>
-      </c>
-      <c r="G29" s="35">
-        <v>0.8207000000000001</v>
-      </c>
-      <c r="H29" s="35">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="I29" s="35">
-        <v>0.82609999999999995</v>
-      </c>
-      <c r="J29" s="36">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="K29" s="36">
-        <v>0.35870000000000002</v>
-      </c>
-      <c r="L29" s="36">
-        <v>0.67120000000000002</v>
-      </c>
-      <c r="M29" s="36">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="N29" s="36">
-        <v>0.77990000000000004</v>
-      </c>
-      <c r="O29" s="36">
-        <v>0.70379999999999998</v>
-      </c>
-      <c r="P29" s="36">
-        <v>0.80709999999999982</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="12" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31" t="s">
+      <c r="T51" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="45"/>
+      <c r="AF51" s="45"/>
+      <c r="AG51" s="45"/>
+    </row>
+    <row r="52" spans="1:33" ht="12" customHeight="1">
+      <c r="R52" s="28"/>
+      <c r="S52" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="35">
-        <v>0.60670000000000002</v>
-      </c>
-      <c r="D30" s="35">
-        <v>0.40170000000000006</v>
-      </c>
-      <c r="E30" s="35">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="F30" s="35">
-        <v>0.63849999999999996</v>
-      </c>
-      <c r="G30" s="35">
-        <v>0.81479999999999975</v>
-      </c>
-      <c r="H30" s="35">
-        <v>0.70930000000000004</v>
-      </c>
-      <c r="I30" s="35">
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="J30" s="36">
-        <v>0.60589999999999999</v>
-      </c>
-      <c r="K30" s="36">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="L30" s="36">
-        <v>0.66539999999999999</v>
-      </c>
-      <c r="M30" s="36">
-        <v>0.61229999999999984</v>
-      </c>
-      <c r="N30" s="36">
-        <v>0.77339999999999998</v>
-      </c>
-      <c r="O30" s="36">
-        <v>0.69430000000000003</v>
-      </c>
-      <c r="P30" s="36">
-        <v>0.80369999999999986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="12" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31" t="s">
+      <c r="T52" s="49"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="45"/>
+      <c r="AF52" s="45"/>
+      <c r="AG52" s="45"/>
+    </row>
+    <row r="53" spans="1:33" ht="12" customHeight="1">
+      <c r="R53" s="28"/>
+      <c r="S53" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="35">
-        <v>0.60550000000000004</v>
-      </c>
-      <c r="D31" s="35">
-        <v>0.3649</v>
-      </c>
-      <c r="E31" s="35">
-        <v>0.65629999999999999</v>
-      </c>
-      <c r="F31" s="35">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="G31" s="35">
-        <v>0.81370000000000009</v>
-      </c>
-      <c r="H31" s="35">
-        <v>0.70630000000000015</v>
-      </c>
-      <c r="I31" s="35">
-        <v>0.82050000000000001</v>
-      </c>
-      <c r="J31" s="36">
-        <v>0.60680000000000001</v>
-      </c>
-      <c r="K31" s="36">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="L31" s="36">
-        <v>0.66690000000000005</v>
-      </c>
-      <c r="M31" s="36">
-        <v>0.60919999999999996</v>
-      </c>
-      <c r="N31" s="36">
-        <v>0.77539999999999987</v>
-      </c>
-      <c r="O31" s="36">
-        <v>0.69740000000000002</v>
-      </c>
-      <c r="P31" s="36">
-        <v>0.80349999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="12" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31" t="s">
+      <c r="T53" s="49"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
+      <c r="AD53" s="45"/>
+      <c r="AE53" s="45"/>
+      <c r="AF53" s="45"/>
+      <c r="AG53" s="45"/>
+    </row>
+    <row r="54" spans="1:33" ht="12" customHeight="1">
+      <c r="R54" s="28"/>
+      <c r="S54" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="35">
-        <v>0.60370000000000001</v>
-      </c>
-      <c r="D32" s="35">
-        <v>0.32269999999999999</v>
-      </c>
-      <c r="E32" s="35">
-        <v>0.65849999999999997</v>
-      </c>
-      <c r="F32" s="35">
-        <v>0.62890000000000001</v>
-      </c>
-      <c r="G32" s="35">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="H32" s="35">
-        <v>0.70650000000000002</v>
-      </c>
-      <c r="I32" s="35">
-        <v>0.82089999999999974</v>
-      </c>
-      <c r="J32" s="36">
-        <v>0.60509999999999997</v>
-      </c>
-      <c r="K32" s="36">
-        <v>0.26550000000000001</v>
-      </c>
-      <c r="L32" s="36">
-        <v>0.66539999999999999</v>
-      </c>
-      <c r="M32" s="36">
-        <v>0.60760000000000014</v>
-      </c>
-      <c r="N32" s="36">
-        <v>0.77280000000000004</v>
-      </c>
-      <c r="O32" s="36">
-        <v>0.69389999999999996</v>
-      </c>
-      <c r="P32" s="36">
-        <v>0.80289999999999984</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="12" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-    </row>
-    <row r="34" spans="1:16" ht="12" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31" t="s">
+      <c r="T54" s="52"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="45"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="45"/>
+    </row>
+    <row r="55" spans="1:33" ht="12" customHeight="1">
+      <c r="R55" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S55" s="56"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="34"/>
+    </row>
+    <row r="56" spans="1:33" ht="12" customHeight="1">
+      <c r="R56" s="28"/>
+      <c r="S56" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="35">
-        <v>0.66849999999999998</v>
-      </c>
-      <c r="D34" s="35">
-        <v>0.39129999999999998</v>
-      </c>
-      <c r="E34" s="35">
-        <v>0.7772</v>
-      </c>
-      <c r="F34" s="35">
-        <v>0.68479999999999996</v>
-      </c>
-      <c r="G34" s="35">
-        <v>0.8207000000000001</v>
-      </c>
-      <c r="H34" s="35">
-        <v>0.77170000000000005</v>
-      </c>
-      <c r="I34" s="35">
-        <v>0.8207000000000001</v>
-      </c>
-      <c r="J34" s="36">
-        <v>0.64670000000000016</v>
-      </c>
-      <c r="K34" s="36">
-        <v>0.36680000000000001</v>
-      </c>
-      <c r="L34" s="36">
-        <v>0.75539999999999985</v>
-      </c>
-      <c r="M34" s="36">
-        <v>0.67930000000000001</v>
-      </c>
-      <c r="N34" s="36">
-        <v>0.82340000000000002</v>
-      </c>
-      <c r="O34" s="36">
-        <v>0.76359999999999983</v>
-      </c>
-      <c r="P34" s="36">
-        <v>0.81789999999999985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="12" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31" t="s">
+      <c r="T56" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB56" s="45"/>
+      <c r="AC56" s="45"/>
+      <c r="AD56" s="45"/>
+      <c r="AE56" s="45"/>
+      <c r="AF56" s="45"/>
+      <c r="AG56" s="45"/>
+    </row>
+    <row r="57" spans="1:33" ht="12" customHeight="1">
+      <c r="R57" s="28"/>
+      <c r="S57" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="35">
-        <v>0.66110000000000013</v>
-      </c>
-      <c r="D35" s="35">
-        <v>0.41289999999999993</v>
-      </c>
-      <c r="E35" s="35">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="F35" s="35">
-        <v>0.68020000000000003</v>
-      </c>
-      <c r="G35" s="35">
-        <v>0.81349999999999978</v>
-      </c>
-      <c r="H35" s="35">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="I35" s="35">
-        <v>0.81289999999999973</v>
-      </c>
-      <c r="J35" s="36">
-        <v>0.64159999999999995</v>
-      </c>
-      <c r="K35" s="36">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L35" s="36">
-        <v>0.74939999999999984</v>
-      </c>
-      <c r="M35" s="36">
-        <v>0.67430000000000001</v>
-      </c>
-      <c r="N35" s="36">
-        <v>0.81899999999999973</v>
-      </c>
-      <c r="O35" s="36">
-        <v>0.755</v>
-      </c>
-      <c r="P35" s="36">
-        <v>0.81259999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="12" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31" t="s">
+      <c r="T57" s="49"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="45"/>
+      <c r="AC57" s="45"/>
+      <c r="AD57" s="45"/>
+      <c r="AE57" s="45"/>
+      <c r="AF57" s="45"/>
+      <c r="AG57" s="45"/>
+    </row>
+    <row r="58" spans="1:33" ht="12" customHeight="1">
+      <c r="R58" s="28"/>
+      <c r="S58" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="35">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="D36" s="35">
-        <v>0.39369999999999999</v>
-      </c>
-      <c r="E36" s="35">
-        <v>0.76929999999999987</v>
-      </c>
-      <c r="F36" s="35">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="G36" s="35">
-        <v>0.81379999999999986</v>
-      </c>
-      <c r="H36" s="35">
-        <v>0.76149999999999984</v>
-      </c>
-      <c r="I36" s="35">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="J36" s="36">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="K36" s="36">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="L36" s="36">
-        <v>0.75080000000000002</v>
-      </c>
-      <c r="M36" s="36">
-        <v>0.67710000000000004</v>
-      </c>
-      <c r="N36" s="36">
-        <v>0.81989999999999985</v>
-      </c>
-      <c r="O36" s="36">
-        <v>0.75829999999999986</v>
-      </c>
-      <c r="P36" s="36">
-        <v>0.81430000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="12" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31" t="s">
+      <c r="T58" s="49"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="45"/>
+      <c r="AB58" s="45"/>
+      <c r="AC58" s="45"/>
+      <c r="AD58" s="45"/>
+      <c r="AE58" s="45"/>
+      <c r="AF58" s="45"/>
+      <c r="AG58" s="45"/>
+    </row>
+    <row r="59" spans="1:33" ht="12" customHeight="1">
+      <c r="R59" s="28"/>
+      <c r="S59" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="35">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="D37" s="35">
-        <v>0.37330000000000002</v>
-      </c>
-      <c r="E37" s="35">
-        <v>0.77029999999999987</v>
-      </c>
-      <c r="F37" s="35">
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="G37" s="35">
-        <v>0.81349999999999978</v>
-      </c>
-      <c r="H37" s="35">
-        <v>0.76119999999999999</v>
-      </c>
-      <c r="I37" s="35">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="J37" s="36">
-        <v>0.64170000000000005</v>
-      </c>
-      <c r="K37" s="36">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="L37" s="36">
-        <v>0.74929999999999986</v>
-      </c>
-      <c r="M37" s="36">
-        <v>0.6744</v>
-      </c>
-      <c r="N37" s="36">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="O37" s="36">
-        <v>0.75509999999999999</v>
-      </c>
-      <c r="P37" s="36">
-        <v>0.81279999999999986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="12" customHeight="1">
-      <c r="A38" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-    </row>
-    <row r="39" spans="1:16" ht="12" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="35">
-        <v>0.7228</v>
-      </c>
-      <c r="D39" s="35">
-        <v>0.39129999999999998</v>
-      </c>
-      <c r="E39" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="F39" s="35">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="G39" s="35">
-        <v>0.79890000000000005</v>
-      </c>
-      <c r="H39" s="35">
-        <v>0.76090000000000002</v>
-      </c>
-      <c r="I39" s="35">
-        <v>0.80430000000000001</v>
-      </c>
-      <c r="J39" s="36">
-        <v>0.69020000000000004</v>
-      </c>
-      <c r="K39" s="36">
-        <v>0.36409999999999998</v>
-      </c>
-      <c r="L39" s="36">
-        <v>0.77449999999999997</v>
-      </c>
-      <c r="M39" s="36">
-        <v>0.69020000000000004</v>
-      </c>
-      <c r="N39" s="36">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="O39" s="36">
-        <v>0.77170000000000005</v>
-      </c>
-      <c r="P39" s="36">
-        <v>0.81789999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="12" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="35">
-        <v>0.72009999999999996</v>
-      </c>
-      <c r="D40" s="35">
-        <v>0.41439999999999999</v>
-      </c>
-      <c r="E40" s="35">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="F40" s="35">
-        <v>0.71350000000000002</v>
-      </c>
-      <c r="G40" s="35">
-        <v>0.79879999999999995</v>
-      </c>
-      <c r="H40" s="35">
-        <v>0.77390000000000003</v>
-      </c>
-      <c r="I40" s="35">
-        <v>0.80320000000000003</v>
-      </c>
-      <c r="J40" s="36">
-        <v>0.68489999999999995</v>
-      </c>
-      <c r="K40" s="36">
-        <v>0.38229999999999997</v>
-      </c>
-      <c r="L40" s="36">
-        <v>0.78910000000000002</v>
-      </c>
-      <c r="M40" s="36">
-        <v>0.68330000000000002</v>
-      </c>
-      <c r="N40" s="36">
-        <v>0.81889999999999996</v>
-      </c>
-      <c r="O40" s="36">
-        <v>0.78049999999999997</v>
-      </c>
-      <c r="P40" s="36">
-        <v>0.81489999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="12" customHeight="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="35">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="D41" s="35">
-        <v>0.3947</v>
-      </c>
-      <c r="E41" s="35">
-        <v>0.74470000000000003</v>
-      </c>
-      <c r="F41" s="35">
-        <v>0.7117</v>
-      </c>
-      <c r="G41" s="35">
-        <v>0.79330000000000001</v>
-      </c>
-      <c r="H41" s="35">
-        <v>0.75529999999999997</v>
-      </c>
-      <c r="I41" s="35">
-        <v>0.80010000000000003</v>
-      </c>
-      <c r="J41" s="36">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="K41" s="36">
-        <v>0.36449999999999999</v>
-      </c>
-      <c r="L41" s="36">
-        <v>0.77149999999999996</v>
-      </c>
-      <c r="M41" s="36">
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="N41" s="36">
-        <v>0.81820000000000004</v>
-      </c>
-      <c r="O41" s="36">
-        <v>0.76870000000000005</v>
-      </c>
-      <c r="P41" s="36">
-        <v>0.81520000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="12" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="35">
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="D42" s="35">
-        <v>0.37480000000000002</v>
-      </c>
-      <c r="E42" s="35">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="F42" s="35">
-        <v>0.71160000000000001</v>
-      </c>
-      <c r="G42" s="35">
-        <v>0.79479999999999995</v>
-      </c>
-      <c r="H42" s="35">
-        <v>0.75870000000000004</v>
-      </c>
-      <c r="I42" s="35">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="J42" s="36">
-        <v>0.68389999999999995</v>
-      </c>
-      <c r="K42" s="36">
-        <v>0.35120000000000001</v>
-      </c>
-      <c r="L42" s="36">
-        <v>0.77490000000000003</v>
-      </c>
-      <c r="M42" s="36">
-        <v>0.68240000000000001</v>
-      </c>
-      <c r="N42" s="36">
-        <v>0.81850000000000001</v>
-      </c>
-      <c r="O42" s="36">
-        <v>0.77149999999999996</v>
-      </c>
-      <c r="P42" s="36">
-        <v>0.81499999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="12" customHeight="1">
-      <c r="A43" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-    </row>
-    <row r="44" spans="1:16" ht="12" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="35">
-        <v>0.68479999999999996</v>
-      </c>
-      <c r="D44" s="35">
-        <v>0.4239</v>
-      </c>
-      <c r="E44" s="35">
-        <v>0.80430000000000001</v>
-      </c>
-      <c r="F44" s="35">
-        <v>0.72829999999999995</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0.81520000000000004</v>
-      </c>
-      <c r="H44" s="35">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="I44" s="35">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="J44" s="36">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="K44" s="36">
-        <v>0.4158</v>
-      </c>
-      <c r="L44" s="36">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="M44" s="36">
-        <v>0.67930000000000001</v>
-      </c>
-      <c r="N44" s="36">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="O44" s="36">
-        <v>0.77990000000000004</v>
-      </c>
-      <c r="P44" s="36">
-        <v>0.80430000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="12" customHeight="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="35">
-        <v>0.68020000000000003</v>
-      </c>
-      <c r="D45" s="35">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="E45" s="35">
-        <v>0.80579999999999996</v>
-      </c>
-      <c r="F45" s="35">
-        <v>0.73040000000000005</v>
-      </c>
-      <c r="G45" s="35">
-        <v>0.80920000000000003</v>
-      </c>
-      <c r="H45" s="35">
-        <v>0.78720000000000001</v>
-      </c>
-      <c r="I45" s="35">
-        <v>0.8276</v>
-      </c>
-      <c r="J45" s="36">
-        <v>0.64959999999999996</v>
-      </c>
-      <c r="K45" s="36">
-        <v>0.47589999999999999</v>
-      </c>
-      <c r="L45" s="36">
-        <v>0.7893</v>
-      </c>
-      <c r="M45" s="36">
-        <v>0.67030000000000001</v>
-      </c>
-      <c r="N45" s="36">
-        <v>0.78210000000000002</v>
-      </c>
-      <c r="O45" s="36">
-        <v>0.78159999999999996</v>
-      </c>
-      <c r="P45" s="36">
-        <v>0.80110000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="12" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="35">
-        <v>0.66830000000000001</v>
-      </c>
-      <c r="D46" s="35">
-        <v>0.42770000000000002</v>
-      </c>
-      <c r="E46" s="35">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="F46" s="35">
-        <v>0.71419999999999995</v>
-      </c>
-      <c r="G46" s="35">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="H46" s="35">
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="I46" s="35">
-        <v>0.82240000000000002</v>
-      </c>
-      <c r="J46" s="36">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="K46" s="36">
-        <v>0.41689999999999999</v>
-      </c>
-      <c r="L46" s="36">
-        <v>0.78310000000000002</v>
-      </c>
-      <c r="M46" s="36">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="N46" s="36">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="O46" s="36">
-        <v>0.77459999999999996</v>
-      </c>
-      <c r="P46" s="36">
-        <v>0.8014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="12" customHeight="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="35">
-        <v>0.6321</v>
-      </c>
-      <c r="D47" s="35">
-        <v>0.36840000000000001</v>
-      </c>
-      <c r="E47" s="35">
-        <v>0.79630000000000001</v>
-      </c>
-      <c r="F47" s="35">
-        <v>0.7006</v>
-      </c>
-      <c r="G47" s="35">
-        <v>0.80689999999999995</v>
-      </c>
-      <c r="H47" s="35">
-        <v>0.77829999999999999</v>
-      </c>
-      <c r="I47" s="35">
-        <v>0.82320000000000004</v>
-      </c>
-      <c r="J47" s="36">
-        <v>0.62309999999999999</v>
-      </c>
-      <c r="K47" s="36">
-        <v>0.36880000000000002</v>
-      </c>
-      <c r="L47" s="36">
-        <v>0.78290000000000004</v>
-      </c>
-      <c r="M47" s="36">
-        <v>0.65539999999999998</v>
-      </c>
-      <c r="N47" s="36">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="O47" s="36">
-        <v>0.7742</v>
-      </c>
-      <c r="P47" s="36">
-        <v>0.79990000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="11.1" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-    </row>
-    <row r="49" spans="1:33" ht="11.1" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-    </row>
-    <row r="50" spans="1:33" ht="15" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53"/>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
-      <c r="AF50" s="53"/>
-      <c r="AG50" s="53"/>
-    </row>
-    <row r="51" spans="1:33" ht="12" customHeight="1">
-      <c r="A51" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="R51" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41"/>
-    </row>
-    <row r="52" spans="1:33" ht="12" customHeight="1">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="29">
-        <v>1</v>
-      </c>
-      <c r="D52" s="29">
-        <v>2</v>
-      </c>
-      <c r="E52" s="29">
-        <v>3</v>
-      </c>
-      <c r="F52" s="29">
-        <v>4</v>
-      </c>
-      <c r="G52" s="29">
-        <v>5</v>
-      </c>
-      <c r="H52" s="29">
-        <v>6</v>
-      </c>
-      <c r="I52" s="29">
-        <v>7</v>
-      </c>
-      <c r="J52" s="29">
-        <v>1</v>
-      </c>
-      <c r="K52" s="29">
-        <v>2</v>
-      </c>
-      <c r="L52" s="29">
-        <v>3</v>
-      </c>
-      <c r="M52" s="29">
-        <v>4</v>
-      </c>
-      <c r="N52" s="29">
-        <v>5</v>
-      </c>
-      <c r="O52" s="29">
-        <v>6</v>
-      </c>
-      <c r="P52" s="29">
-        <v>7</v>
-      </c>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="29">
-        <v>1</v>
-      </c>
-      <c r="U52" s="29">
-        <v>2</v>
-      </c>
-      <c r="V52" s="29">
-        <v>3</v>
-      </c>
-      <c r="W52" s="29">
-        <v>4</v>
-      </c>
-      <c r="X52" s="29">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="29">
-        <v>6</v>
-      </c>
-      <c r="Z52" s="29">
-        <v>7</v>
-      </c>
-      <c r="AA52" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="29">
-        <v>2</v>
-      </c>
-      <c r="AC52" s="29">
-        <v>3</v>
-      </c>
-      <c r="AD52" s="29">
-        <v>4</v>
-      </c>
-      <c r="AE52" s="29">
-        <v>5</v>
-      </c>
-      <c r="AF52" s="29">
-        <v>6</v>
-      </c>
-      <c r="AG52" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" ht="12" customHeight="1">
-      <c r="A53" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="R53" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="S53" s="54"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-    </row>
-    <row r="54" spans="1:33" ht="12" customHeight="1">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="35">
-        <v>0.76629999999999998</v>
-      </c>
-      <c r="U54" s="35">
-        <v>0.61409999999999998</v>
-      </c>
-      <c r="V54" s="35">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="W54" s="35">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="X54" s="35">
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="Y54" s="35">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="Z54" s="35">
-        <v>0.875</v>
-      </c>
-      <c r="AA54" s="36">
-        <v>0.75270000000000004</v>
-      </c>
-      <c r="AB54" s="36">
-        <v>0.50819999999999999</v>
-      </c>
-      <c r="AC54" s="36">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="AD54" s="36">
-        <v>0.77990000000000004</v>
-      </c>
-      <c r="AE54" s="36">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="AF54" s="36">
-        <v>0.80710000000000004</v>
-      </c>
-      <c r="AG54" s="36">
-        <v>0.87770000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" ht="12" customHeight="1">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="T55" s="35">
-        <v>0.76839999999999997</v>
-      </c>
-      <c r="U55" s="35">
-        <v>0.60440000000000005</v>
-      </c>
-      <c r="V55" s="35">
-        <v>0.82569999999999999</v>
-      </c>
-      <c r="W55" s="35">
-        <v>0.78290000000000004</v>
-      </c>
-      <c r="X55" s="35">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="Y55" s="35">
-        <v>0.82809999999999995</v>
-      </c>
-      <c r="Z55" s="35">
-        <v>0.87</v>
-      </c>
-      <c r="AA55" s="36">
-        <v>0.75180000000000002</v>
-      </c>
-      <c r="AB55" s="36">
-        <v>0.50149999999999995</v>
-      </c>
-      <c r="AC55" s="36">
-        <v>0.75919999999999999</v>
-      </c>
-      <c r="AD55" s="36">
-        <v>0.78</v>
-      </c>
-      <c r="AE55" s="36">
-        <v>0.87760000000000005</v>
-      </c>
-      <c r="AF55" s="36">
-        <v>0.79959999999999998</v>
-      </c>
-      <c r="AG55" s="36">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" ht="12" customHeight="1">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T56" s="35">
-        <v>0.75670000000000004</v>
-      </c>
-      <c r="U56" s="35">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="V56" s="35">
-        <v>0.82420000000000004</v>
-      </c>
-      <c r="W56" s="35">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="X56" s="35">
-        <v>0.88109999999999999</v>
-      </c>
-      <c r="Y56" s="35">
-        <v>0.82809999999999995</v>
-      </c>
-      <c r="Z56" s="35">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="AA56" s="36">
-        <v>0.74919999999999998</v>
-      </c>
-      <c r="AB56" s="36">
-        <v>0.50460000000000005</v>
-      </c>
-      <c r="AC56" s="36">
-        <v>0.7641</v>
-      </c>
-      <c r="AD56" s="36">
-        <v>0.77729999999999999</v>
-      </c>
-      <c r="AE56" s="36">
-        <v>0.87790000000000001</v>
-      </c>
-      <c r="AF56" s="36">
-        <v>0.80249999999999999</v>
-      </c>
-      <c r="AG56" s="36">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" ht="12" customHeight="1">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="35">
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="U57" s="35">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="V57" s="35">
-        <v>0.82469999999999999</v>
-      </c>
-      <c r="W57" s="35">
-        <v>0.77690000000000003</v>
-      </c>
-      <c r="X57" s="35">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="Y57" s="35">
-        <v>0.82809999999999995</v>
-      </c>
-      <c r="Z57" s="35">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="AA57" s="36">
-        <v>0.74819999999999998</v>
-      </c>
-      <c r="AB57" s="36">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="AC57" s="36">
-        <v>0.75939999999999996</v>
-      </c>
-      <c r="AD57" s="36">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="AE57" s="36">
-        <v>0.87749999999999995</v>
-      </c>
-      <c r="AF57" s="36">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="AG57" s="36">
-        <v>0.87490000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" ht="12" customHeight="1">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="R58" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="S58" s="40"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
-      <c r="AA58" s="37"/>
-      <c r="AB58" s="37"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="37"/>
-      <c r="AE58" s="37"/>
-      <c r="AF58" s="37"/>
-      <c r="AG58" s="37"/>
-    </row>
-    <row r="59" spans="1:33" ht="12" customHeight="1">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="35">
-        <v>0.77170000000000005</v>
-      </c>
-      <c r="U59" s="35">
-        <v>0.58150000000000002</v>
-      </c>
-      <c r="V59" s="35">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="W59" s="35">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="X59" s="35">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="Y59" s="35">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="Z59" s="35">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="AA59" s="36">
-        <v>0.73370000000000002</v>
-      </c>
-      <c r="AB59" s="36">
-        <v>0.51629999999999998</v>
-      </c>
-      <c r="AC59" s="36">
-        <v>0.79349999999999998</v>
-      </c>
-      <c r="AD59" s="36">
-        <v>0.79079999999999995</v>
-      </c>
-      <c r="AE59" s="36">
-        <v>0.88319999999999999</v>
-      </c>
-      <c r="AF59" s="36">
-        <v>0.80710000000000004</v>
-      </c>
-      <c r="AG59" s="36">
-        <v>0.88039999999999996</v>
-      </c>
+      <c r="T59" s="52"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="45"/>
+      <c r="AD59" s="45"/>
+      <c r="AE59" s="45"/>
+      <c r="AF59" s="45"/>
+      <c r="AG59" s="45"/>
     </row>
     <row r="60" spans="1:33" ht="12" customHeight="1">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="T60" s="35">
-        <v>0.76939999999999997</v>
-      </c>
-      <c r="U60" s="35">
-        <v>0.56630000000000003</v>
-      </c>
-      <c r="V60" s="35">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="W60" s="35">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="X60" s="35">
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="Y60" s="35">
-        <v>0.83</v>
-      </c>
-      <c r="Z60" s="35">
-        <v>0.87509999999999999</v>
-      </c>
-      <c r="AA60" s="36">
-        <v>0.73309999999999997</v>
-      </c>
-      <c r="AB60" s="36">
-        <v>0.5101</v>
-      </c>
-      <c r="AC60" s="36">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="AD60" s="36">
-        <v>0.78910000000000002</v>
-      </c>
-      <c r="AE60" s="36">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="AF60" s="36">
-        <v>0.80110000000000003</v>
-      </c>
-      <c r="AG60" s="36">
-        <v>0.87809999999999999</v>
-      </c>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="38"/>
     </row>
     <row r="61" spans="1:33" ht="12" customHeight="1">
-      <c r="A61" s="22"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T61" s="35">
-        <v>0.76239999999999997</v>
-      </c>
-      <c r="U61" s="35">
-        <v>0.57010000000000005</v>
-      </c>
-      <c r="V61" s="35">
-        <v>0.80120000000000002</v>
-      </c>
-      <c r="W61" s="35">
-        <v>0.79920000000000002</v>
-      </c>
-      <c r="X61" s="35">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="Y61" s="35">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="Z61" s="35">
-        <v>0.87560000000000004</v>
-      </c>
-      <c r="AA61" s="36">
-        <v>0.73060000000000003</v>
-      </c>
-      <c r="AB61" s="36">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="AC61" s="36">
-        <v>0.78920000000000001</v>
-      </c>
-      <c r="AD61" s="36">
-        <v>0.78820000000000001</v>
-      </c>
-      <c r="AE61" s="36">
-        <v>0.88060000000000005</v>
-      </c>
-      <c r="AF61" s="36">
-        <v>0.80349999999999999</v>
-      </c>
-      <c r="AG61" s="36">
-        <v>0.878</v>
-      </c>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
     </row>
     <row r="62" spans="1:33" ht="12" customHeight="1">
-      <c r="A62" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="35">
-        <v>0.76339999999999997</v>
-      </c>
-      <c r="U62" s="35">
-        <v>0.5544</v>
-      </c>
-      <c r="V62" s="35">
-        <v>0.80089999999999995</v>
-      </c>
-      <c r="W62" s="35">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="X62" s="35">
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="Y62" s="35">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="Z62" s="35">
-        <v>0.87519999999999998</v>
-      </c>
-      <c r="AA62" s="36">
-        <v>0.73</v>
-      </c>
-      <c r="AB62" s="36">
-        <v>0.50829999999999997</v>
-      </c>
-      <c r="AC62" s="36">
-        <v>0.78680000000000005</v>
-      </c>
-      <c r="AD62" s="36">
-        <v>0.78779999999999994</v>
-      </c>
-      <c r="AE62" s="36">
-        <v>0.88049999999999995</v>
-      </c>
-      <c r="AF62" s="36">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="AG62" s="36">
-        <v>0.878</v>
-      </c>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
     </row>
     <row r="63" spans="1:33" ht="12" customHeight="1">
-      <c r="A63" s="22"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
-      <c r="W63" s="51"/>
-      <c r="X63" s="51"/>
-      <c r="Y63" s="51"/>
-      <c r="Z63" s="51"/>
-      <c r="AA63" s="51"/>
-      <c r="AB63" s="51"/>
-      <c r="AC63" s="51"/>
-      <c r="AD63" s="51"/>
-      <c r="AE63" s="51"/>
-      <c r="AF63" s="51"/>
-      <c r="AG63" s="51"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="38"/>
+      <c r="AE63" s="38"/>
+      <c r="AF63" s="38"/>
+      <c r="AG63" s="38"/>
     </row>
     <row r="64" spans="1:33" ht="12" customHeight="1">
-      <c r="A64" s="22"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="51"/>
-      <c r="V64" s="51"/>
-      <c r="W64" s="51"/>
-      <c r="X64" s="51"/>
-      <c r="Y64" s="51"/>
-      <c r="Z64" s="51"/>
-      <c r="AA64" s="51"/>
-      <c r="AB64" s="51"/>
-      <c r="AC64" s="51"/>
-      <c r="AD64" s="51"/>
-      <c r="AE64" s="51"/>
-      <c r="AF64" s="51"/>
-      <c r="AG64" s="51"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="38"/>
     </row>
     <row r="65" spans="1:33" ht="12" customHeight="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="51"/>
-      <c r="U65" s="51"/>
-      <c r="V65" s="51"/>
-      <c r="W65" s="51"/>
-      <c r="X65" s="51"/>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="51"/>
-      <c r="AA65" s="51"/>
-      <c r="AB65" s="51"/>
-      <c r="AC65" s="51"/>
-      <c r="AD65" s="51"/>
-      <c r="AE65" s="51"/>
-      <c r="AF65" s="51"/>
-      <c r="AG65" s="51"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+      <c r="AF65" s="29"/>
+      <c r="AG65" s="29"/>
     </row>
     <row r="66" spans="1:33" ht="12" customHeight="1">
-      <c r="A66" s="22"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="51"/>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
-      <c r="Y66" s="51"/>
-      <c r="Z66" s="51"/>
-      <c r="AA66" s="51"/>
-      <c r="AB66" s="51"/>
-      <c r="AC66" s="51"/>
-      <c r="AD66" s="51"/>
-      <c r="AE66" s="51"/>
-      <c r="AF66" s="51"/>
-      <c r="AG66" s="51"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="29"/>
     </row>
     <row r="67" spans="1:33" ht="12" customHeight="1">
-      <c r="A67" s="22"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="51"/>
-      <c r="V67" s="51"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="51"/>
-      <c r="Y67" s="51"/>
-      <c r="Z67" s="51"/>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="51"/>
-      <c r="AC67" s="51"/>
-      <c r="AD67" s="51"/>
-      <c r="AE67" s="51"/>
-      <c r="AF67" s="51"/>
-      <c r="AG67" s="51"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="29"/>
+      <c r="AF67" s="29"/>
+      <c r="AG67" s="29"/>
     </row>
     <row r="68" spans="1:33" ht="12" customHeight="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="R68" s="51"/>
-      <c r="S68" s="51"/>
-      <c r="T68" s="51"/>
-      <c r="U68" s="51"/>
-      <c r="V68" s="51"/>
-      <c r="W68" s="51"/>
-      <c r="X68" s="51"/>
-      <c r="Y68" s="51"/>
-      <c r="Z68" s="51"/>
-      <c r="AA68" s="51"/>
-      <c r="AB68" s="51"/>
-      <c r="AC68" s="51"/>
-      <c r="AD68" s="51"/>
-      <c r="AE68" s="51"/>
-      <c r="AF68" s="51"/>
-      <c r="AG68" s="51"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
+      <c r="AE68" s="29"/>
+      <c r="AF68" s="29"/>
+      <c r="AG68" s="29"/>
     </row>
     <row r="69" spans="1:33" ht="12" customHeight="1">
-      <c r="A69" s="22"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="51"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="51"/>
-      <c r="V69" s="51"/>
-      <c r="W69" s="51"/>
-      <c r="X69" s="51"/>
-      <c r="Y69" s="51"/>
-      <c r="Z69" s="51"/>
-      <c r="AA69" s="51"/>
-      <c r="AB69" s="51"/>
-      <c r="AC69" s="51"/>
-      <c r="AD69" s="51"/>
-      <c r="AE69" s="51"/>
-      <c r="AF69" s="51"/>
-      <c r="AG69" s="51"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="29"/>
+      <c r="AF69" s="29"/>
+      <c r="AG69" s="29"/>
     </row>
     <row r="70" spans="1:33" ht="12" customHeight="1">
-      <c r="A70" s="22"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="R70" s="51"/>
-      <c r="S70" s="51"/>
-      <c r="T70" s="51"/>
-      <c r="U70" s="51"/>
-      <c r="V70" s="51"/>
-      <c r="W70" s="51"/>
-      <c r="X70" s="51"/>
-      <c r="Y70" s="51"/>
-      <c r="Z70" s="51"/>
-      <c r="AA70" s="51"/>
-      <c r="AB70" s="51"/>
-      <c r="AC70" s="51"/>
-      <c r="AD70" s="51"/>
-      <c r="AE70" s="51"/>
-      <c r="AF70" s="51"/>
-      <c r="AG70" s="51"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="29"/>
+      <c r="AG70" s="29"/>
     </row>
     <row r="71" spans="1:33" ht="12" customHeight="1">
-      <c r="R71" s="51"/>
-      <c r="S71" s="51"/>
-      <c r="T71" s="51"/>
-      <c r="U71" s="51"/>
-      <c r="V71" s="51"/>
-      <c r="W71" s="51"/>
-      <c r="X71" s="51"/>
-      <c r="Y71" s="51"/>
-      <c r="Z71" s="51"/>
-      <c r="AA71" s="51"/>
-      <c r="AB71" s="51"/>
-      <c r="AC71" s="51"/>
-      <c r="AD71" s="51"/>
-      <c r="AE71" s="51"/>
-      <c r="AF71" s="51"/>
-      <c r="AG71" s="51"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29"/>
+      <c r="AC71" s="29"/>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="29"/>
+      <c r="AF71" s="29"/>
+      <c r="AG71" s="29"/>
+    </row>
+    <row r="72" spans="1:33" ht="12" customHeight="1">
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="29"/>
+      <c r="AF72" s="29"/>
+      <c r="AG72" s="29"/>
+    </row>
+    <row r="102" spans="25:25">
+      <c r="Y102" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="T50:AG50"/>
-    <mergeCell ref="T51:Z51"/>
-    <mergeCell ref="AA51:AG51"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R51:S52"/>
+  <mergeCells count="40">
     <mergeCell ref="C1:I2"/>
     <mergeCell ref="J1:P2"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="J6:P6"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:I51"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="AK1:AQ2"/>
+    <mergeCell ref="AR1:AX2"/>
+    <mergeCell ref="R23:S24"/>
+    <mergeCell ref="T23:Z23"/>
+    <mergeCell ref="AA23:AG23"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="R20:AG20"/>
+    <mergeCell ref="R21:AG21"/>
+    <mergeCell ref="T1:Z2"/>
+    <mergeCell ref="AA1:AG2"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="T26:Z29"/>
+    <mergeCell ref="AA26:AG29"/>
+    <mergeCell ref="T56:Z59"/>
+    <mergeCell ref="AA56:AG59"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T51:Z54"/>
+    <mergeCell ref="AA51:AG54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R4:AG4"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="R25:S25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
@@ -5195,7 +6360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -5208,15 +6373,15 @@
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
       <c r="K1" s="2"/>
       <c r="L1" s="6" t="s">
         <v>14</v>
@@ -5520,48 +6685,48 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48" t="s">
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
@@ -5583,9 +6748,9 @@
       <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="48"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="90">
       <c r="A5" s="15">

--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\sklearn-kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FC35F5-2D0A-4998-9ED9-AC62F8B81E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6DE726-F1FB-46F5-AC00-32CD64EA411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10996,8 +10996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA62" sqref="AA62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\sklearn-kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6DE726-F1FB-46F5-AC00-32CD64EA411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7232AC3-05D5-4851-A621-4F097EF95643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,34 +975,31 @@
     <xf numFmtId="2" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,13 +1014,40 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,10 +1059,10 @@
     <xf numFmtId="2" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,38 +1071,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11020,42 +11020,42 @@
   <sheetData>
     <row r="1" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="T1" s="76" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="T1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
       <c r="AI1" s="37"/>
       <c r="AJ1" s="37"/>
       <c r="AK1" s="37"/>
@@ -11076,34 +11076,34 @@
     <row r="2" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
       <c r="AK2" s="37"/>
@@ -11122,42 +11122,42 @@
       <c r="AX2" s="37"/>
     </row>
     <row r="3" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="R3" s="53" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="R3" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
       <c r="AI3" s="37"/>
       <c r="AJ3" s="37"/>
       <c r="AK3" s="37"/>
@@ -11176,24 +11176,24 @@
       <c r="AX3" s="37"/>
     </row>
     <row r="4" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
       <c r="AI4" s="37"/>
       <c r="AJ4" s="37"/>
       <c r="AK4" s="37"/>
@@ -11246,50 +11246,50 @@
       <c r="AX5" s="37"/>
     </row>
     <row r="6" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="R6" s="56" t="s">
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="R6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="57"/>
-      <c r="T6" s="60" t="s">
+      <c r="S6" s="56"/>
+      <c r="T6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="60" t="s">
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="62"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="53"/>
       <c r="AI6" s="37"/>
       <c r="AJ6" s="37"/>
       <c r="AK6" s="37"/>
@@ -11308,8 +11308,8 @@
       <c r="AX6" s="37"/>
     </row>
     <row r="7" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="20">
         <v>1</v>
       </c>
@@ -11352,8 +11352,8 @@
       <c r="P7" s="20">
         <v>7</v>
       </c>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
       <c r="T7" s="20">
         <v>1</v>
       </c>
@@ -11414,10 +11414,10 @@
       <c r="AX7" s="37"/>
     </row>
     <row r="8" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -11432,10 +11432,10 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="R8" s="77" t="s">
+      <c r="R8" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="78"/>
+      <c r="S8" s="62"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -11468,10 +11468,10 @@
       <c r="AX8" s="37"/>
     </row>
     <row r="9" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="31">
         <v>0.71740000000000004</v>
       </c>
@@ -11514,10 +11514,10 @@
       <c r="P9" s="32">
         <v>0.83699999999999997</v>
       </c>
-      <c r="R9" s="48" t="s">
+      <c r="R9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="49"/>
+      <c r="S9" s="47"/>
       <c r="T9" s="31">
         <v>0.75</v>
       </c>
@@ -11578,10 +11578,10 @@
       <c r="AX9" s="37"/>
     </row>
     <row r="10" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="31">
         <v>0.71009999999999995</v>
       </c>
@@ -11624,10 +11624,10 @@
       <c r="P10" s="32">
         <v>0.83689999999999998</v>
       </c>
-      <c r="R10" s="48" t="s">
+      <c r="R10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="49"/>
+      <c r="S10" s="47"/>
       <c r="T10" s="31">
         <v>0.74199999999999999</v>
       </c>
@@ -11688,10 +11688,10 @@
       <c r="AX10" s="37"/>
     </row>
     <row r="11" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="31">
         <v>0.70660000000000001</v>
       </c>
@@ -11734,10 +11734,10 @@
       <c r="P11" s="32">
         <v>0.83399999999999996</v>
       </c>
-      <c r="R11" s="48" t="s">
+      <c r="R11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="49"/>
+      <c r="S11" s="47"/>
       <c r="T11" s="31">
         <v>0.73850000000000005</v>
       </c>
@@ -11798,10 +11798,10 @@
       <c r="AX11" s="37"/>
     </row>
     <row r="12" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="31">
         <v>0.70569999999999999</v>
       </c>
@@ -11844,10 +11844,10 @@
       <c r="P12" s="32">
         <v>0.83460000000000001</v>
       </c>
-      <c r="R12" s="48" t="s">
+      <c r="R12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="49"/>
+      <c r="S12" s="47"/>
       <c r="T12" s="31">
         <v>0.73699999999999999</v>
       </c>
@@ -11908,10 +11908,10 @@
       <c r="AX12" s="37"/>
     </row>
     <row r="13" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -11926,10 +11926,10 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
-      <c r="R13" s="74" t="s">
+      <c r="R13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="75"/>
+      <c r="S13" s="60"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
@@ -11962,10 +11962,10 @@
       <c r="AX13" s="37"/>
     </row>
     <row r="14" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="31">
         <v>0.70109999999999995</v>
       </c>
@@ -12008,10 +12008,10 @@
       <c r="P14" s="32">
         <v>0.84240000000000004</v>
       </c>
-      <c r="R14" s="48" t="s">
+      <c r="R14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="49"/>
+      <c r="S14" s="47"/>
       <c r="T14" s="31">
         <v>0.69569999999999999</v>
       </c>
@@ -12072,10 +12072,10 @@
       <c r="AX14" s="37"/>
     </row>
     <row r="15" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="31">
         <v>0.69579999999999997</v>
       </c>
@@ -12118,10 +12118,10 @@
       <c r="P15" s="32">
         <v>0.83840000000000003</v>
       </c>
-      <c r="R15" s="48" t="s">
+      <c r="R15" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="49"/>
+      <c r="S15" s="47"/>
       <c r="T15" s="31">
         <v>0.69099999999999995</v>
       </c>
@@ -12182,10 +12182,10 @@
       <c r="AX15" s="37"/>
     </row>
     <row r="16" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="31">
         <v>0.69340000000000002</v>
       </c>
@@ -12228,10 +12228,10 @@
       <c r="P16" s="32">
         <v>0.83889999999999998</v>
       </c>
-      <c r="R16" s="48" t="s">
+      <c r="R16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="49"/>
+      <c r="S16" s="47"/>
       <c r="T16" s="31">
         <v>0.68959999999999999</v>
       </c>
@@ -12292,10 +12292,10 @@
       <c r="AX16" s="37"/>
     </row>
     <row r="17" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="31">
         <v>0.6925</v>
       </c>
@@ -12338,10 +12338,10 @@
       <c r="P17" s="32">
         <v>0.83819999999999995</v>
       </c>
-      <c r="R17" s="48" t="s">
+      <c r="R17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="49"/>
+      <c r="S17" s="47"/>
       <c r="T17" s="31">
         <v>0.68889999999999996</v>
       </c>
@@ -12402,10 +12402,10 @@
       <c r="AX17" s="37"/>
     </row>
     <row r="18" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -12420,10 +12420,10 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="R18" s="74" t="s">
+      <c r="R18" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="S18" s="75"/>
+      <c r="S18" s="60"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
       <c r="V18" s="34"/>
@@ -12456,10 +12456,10 @@
       <c r="AX18" s="37"/>
     </row>
     <row r="19" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="31">
         <v>0.75</v>
       </c>
@@ -12502,10 +12502,10 @@
       <c r="P19" s="32">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R19" s="48" t="s">
+      <c r="R19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="49"/>
+      <c r="S19" s="47"/>
       <c r="T19" s="31">
         <v>0.76629999999999998</v>
       </c>
@@ -12566,10 +12566,10 @@
       <c r="AX19" s="37"/>
     </row>
     <row r="20" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="31">
         <v>0.74780000000000002</v>
       </c>
@@ -12612,10 +12612,10 @@
       <c r="P20" s="32">
         <v>0.80189999999999995</v>
       </c>
-      <c r="R20" s="48" t="s">
+      <c r="R20" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="49"/>
+      <c r="S20" s="47"/>
       <c r="T20" s="31">
         <v>0.76759999999999995</v>
       </c>
@@ -12676,10 +12676,10 @@
       <c r="AX20" s="37"/>
     </row>
     <row r="21" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="31">
         <v>0.74329999999999996</v>
       </c>
@@ -12722,10 +12722,10 @@
       <c r="P21" s="32">
         <v>0.80120000000000002</v>
       </c>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="49"/>
+      <c r="S21" s="47"/>
       <c r="T21" s="31">
         <v>0.7591</v>
       </c>
@@ -12786,10 +12786,10 @@
       <c r="AX21" s="37"/>
     </row>
     <row r="22" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="31">
         <v>0.74450000000000005</v>
       </c>
@@ -12832,10 +12832,10 @@
       <c r="P22" s="32">
         <v>0.8014</v>
       </c>
-      <c r="R22" s="48" t="s">
+      <c r="R22" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="49"/>
+      <c r="S22" s="47"/>
       <c r="T22" s="31">
         <v>0.75960000000000005</v>
       </c>
@@ -12896,10 +12896,10 @@
       <c r="AX22" s="37"/>
     </row>
     <row r="23" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -12914,10 +12914,10 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
-      <c r="R23" s="74" t="s">
+      <c r="R23" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="S23" s="75"/>
+      <c r="S23" s="60"/>
       <c r="T23" s="34"/>
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
@@ -12950,10 +12950,10 @@
       <c r="AX23" s="37"/>
     </row>
     <row r="24" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="31">
         <v>0.6522</v>
       </c>
@@ -12996,10 +12996,10 @@
       <c r="P24" s="32">
         <v>0.77170000000000005</v>
       </c>
-      <c r="R24" s="72" t="s">
+      <c r="R24" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="72"/>
+      <c r="S24" s="63"/>
       <c r="T24" s="31">
         <v>0.65759999999999996</v>
       </c>
@@ -13060,10 +13060,10 @@
       <c r="AX24" s="37"/>
     </row>
     <row r="25" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="31">
         <v>0.65329999999999999</v>
       </c>
@@ -13106,10 +13106,10 @@
       <c r="P25" s="32">
         <v>0.77149999999999996</v>
       </c>
-      <c r="R25" s="72" t="s">
+      <c r="R25" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="72"/>
+      <c r="S25" s="63"/>
       <c r="T25" s="31">
         <v>0.66120000000000001</v>
       </c>
@@ -13170,10 +13170,10 @@
       <c r="AX25" s="37"/>
     </row>
     <row r="26" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="31">
         <v>0.64300000000000002</v>
       </c>
@@ -13216,10 +13216,10 @@
       <c r="P26" s="32">
         <v>0.76759999999999995</v>
       </c>
-      <c r="R26" s="72" t="s">
+      <c r="R26" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="72"/>
+      <c r="S26" s="63"/>
       <c r="T26" s="31">
         <v>0.64870000000000005</v>
       </c>
@@ -13280,10 +13280,10 @@
       <c r="AX26" s="37"/>
     </row>
     <row r="27" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="31">
         <v>0.64229999999999998</v>
       </c>
@@ -13326,10 +13326,10 @@
       <c r="P27" s="32">
         <v>0.76790000000000003</v>
       </c>
-      <c r="R27" s="72" t="s">
+      <c r="R27" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="72"/>
+      <c r="S27" s="63"/>
       <c r="T27" s="31">
         <v>0.64949999999999997</v>
       </c>
@@ -13390,10 +13390,10 @@
       <c r="AX27" s="37"/>
     </row>
     <row r="28" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="75"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -13408,10 +13408,10 @@
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
-      <c r="R28" s="70" t="s">
+      <c r="R28" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="70"/>
+      <c r="S28" s="64"/>
       <c r="T28" s="34"/>
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
@@ -13444,10 +13444,10 @@
       <c r="AX28" s="37"/>
     </row>
     <row r="29" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="31">
         <v>0.66849999999999998</v>
       </c>
@@ -13490,10 +13490,10 @@
       <c r="P29" s="32">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R29" s="72" t="s">
+      <c r="R29" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="72"/>
+      <c r="S29" s="63"/>
       <c r="T29" s="31">
         <v>0.66300000000000003</v>
       </c>
@@ -13554,10 +13554,10 @@
       <c r="AX29" s="37"/>
     </row>
     <row r="30" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="31">
         <v>0.66110000000000002</v>
       </c>
@@ -13600,10 +13600,10 @@
       <c r="P30" s="32">
         <v>0.81259999999999999</v>
       </c>
-      <c r="R30" s="72" t="s">
+      <c r="R30" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="72"/>
+      <c r="S30" s="63"/>
       <c r="T30" s="31">
         <v>0.65510000000000002</v>
       </c>
@@ -13664,10 +13664,10 @@
       <c r="AX30" s="37"/>
     </row>
     <row r="31" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="31">
         <v>0.66259999999999997</v>
       </c>
@@ -13710,10 +13710,10 @@
       <c r="P31" s="32">
         <v>0.81430000000000002</v>
       </c>
-      <c r="R31" s="72" t="s">
+      <c r="R31" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="72"/>
+      <c r="S31" s="63"/>
       <c r="T31" s="31">
         <v>0.65680000000000005</v>
       </c>
@@ -13774,10 +13774,10 @@
       <c r="AX31" s="37"/>
     </row>
     <row r="32" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="31">
         <v>0.66049999999999998</v>
       </c>
@@ -13820,10 +13820,10 @@
       <c r="P32" s="32">
         <v>0.81279999999999997</v>
       </c>
-      <c r="R32" s="72" t="s">
+      <c r="R32" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="72"/>
+      <c r="S32" s="63"/>
       <c r="T32" s="31">
         <v>0.65429999999999999</v>
       </c>
@@ -13884,10 +13884,10 @@
       <c r="AX32" s="37"/>
     </row>
     <row r="33" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="75"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -13902,10 +13902,10 @@
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
-      <c r="R33" s="70" t="s">
+      <c r="R33" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="S33" s="70"/>
+      <c r="S33" s="64"/>
       <c r="T33" s="34"/>
       <c r="U33" s="34"/>
       <c r="V33" s="34"/>
@@ -13938,10 +13938,10 @@
       <c r="AX33" s="37"/>
     </row>
     <row r="34" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="31">
         <v>0.7228</v>
       </c>
@@ -13984,10 +13984,10 @@
       <c r="P34" s="32">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R34" s="72" t="s">
+      <c r="R34" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="72"/>
+      <c r="S34" s="63"/>
       <c r="T34" s="31">
         <v>0.7228</v>
       </c>
@@ -14048,10 +14048,10 @@
       <c r="AX34" s="37"/>
     </row>
     <row r="35" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="31">
         <v>0.72009999999999996</v>
       </c>
@@ -14094,10 +14094,10 @@
       <c r="P35" s="32">
         <v>0.81489999999999996</v>
       </c>
-      <c r="R35" s="72" t="s">
+      <c r="R35" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S35" s="72"/>
+      <c r="S35" s="63"/>
       <c r="T35" s="31">
         <v>0.72009999999999996</v>
       </c>
@@ -14158,10 +14158,10 @@
       <c r="AX35" s="37"/>
     </row>
     <row r="36" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="49"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="31">
         <v>0.71740000000000004</v>
       </c>
@@ -14204,10 +14204,10 @@
       <c r="P36" s="32">
         <v>0.81520000000000004</v>
       </c>
-      <c r="R36" s="72" t="s">
+      <c r="R36" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="72"/>
+      <c r="S36" s="63"/>
       <c r="T36" s="31">
         <v>0.71740000000000004</v>
       </c>
@@ -14268,10 +14268,10 @@
       <c r="AX36" s="37"/>
     </row>
     <row r="37" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="31">
         <v>0.71819999999999995</v>
       </c>
@@ -14314,10 +14314,10 @@
       <c r="P37" s="32">
         <v>0.81499999999999995</v>
       </c>
-      <c r="R37" s="72" t="s">
+      <c r="R37" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="72"/>
+      <c r="S37" s="63"/>
       <c r="T37" s="31">
         <v>0.71819999999999995</v>
       </c>
@@ -14378,10 +14378,10 @@
       <c r="AX37" s="37"/>
     </row>
     <row r="38" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="75"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -14396,10 +14396,10 @@
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
-      <c r="R38" s="70" t="s">
+      <c r="R38" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="S38" s="70"/>
+      <c r="S38" s="64"/>
       <c r="T38" s="34"/>
       <c r="U38" s="34"/>
       <c r="V38" s="34"/>
@@ -14432,10 +14432,10 @@
       <c r="AX38" s="37"/>
     </row>
     <row r="39" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="31">
         <v>0.68479999999999996</v>
       </c>
@@ -14478,10 +14478,10 @@
       <c r="P39" s="32">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R39" s="72" t="s">
+      <c r="R39" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S39" s="72"/>
+      <c r="S39" s="63"/>
       <c r="T39" s="31">
         <v>0.68479999999999996</v>
       </c>
@@ -14542,10 +14542,10 @@
       <c r="AX39" s="37"/>
     </row>
     <row r="40" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="49"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="31">
         <v>0.68020000000000003</v>
       </c>
@@ -14588,10 +14588,10 @@
       <c r="P40" s="32">
         <v>0.80110000000000003</v>
       </c>
-      <c r="R40" s="72" t="s">
+      <c r="R40" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S40" s="72"/>
+      <c r="S40" s="63"/>
       <c r="T40" s="31">
         <v>0.68020000000000003</v>
       </c>
@@ -14652,10 +14652,10 @@
       <c r="AX40" s="37"/>
     </row>
     <row r="41" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="49"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="31">
         <v>0.66830000000000001</v>
       </c>
@@ -14698,10 +14698,10 @@
       <c r="P41" s="32">
         <v>0.8014</v>
       </c>
-      <c r="R41" s="72" t="s">
+      <c r="R41" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="72"/>
+      <c r="S41" s="63"/>
       <c r="T41" s="31">
         <v>0.66830000000000001</v>
       </c>
@@ -14762,10 +14762,10 @@
       <c r="AX41" s="37"/>
     </row>
     <row r="42" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="31">
         <v>0.6321</v>
       </c>
@@ -14808,10 +14808,10 @@
       <c r="P42" s="32">
         <v>0.79990000000000006</v>
       </c>
-      <c r="R42" s="72" t="s">
+      <c r="R42" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="72"/>
+      <c r="S42" s="63"/>
       <c r="T42" s="31">
         <v>0.6321</v>
       </c>
@@ -14922,8 +14922,8 @@
       <c r="AX43" s="37"/>
     </row>
     <row r="44" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -14972,42 +14972,42 @@
       <c r="AX44" s="37"/>
     </row>
     <row r="45" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="R45" s="53" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="R45" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="53"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="49"/>
+      <c r="Z45" s="49"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="49"/>
+      <c r="AD45" s="49"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="49"/>
+      <c r="AG45" s="49"/>
       <c r="AI45" s="37"/>
       <c r="AJ45" s="37"/>
       <c r="AK45" s="37"/>
@@ -15026,42 +15026,42 @@
       <c r="AX45" s="37"/>
     </row>
     <row r="46" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="R46" s="53" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="R46" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="49"/>
+      <c r="AG46" s="49"/>
       <c r="AI46" s="37"/>
       <c r="AJ46" s="37"/>
       <c r="AK46" s="37"/>
@@ -15130,50 +15130,50 @@
       <c r="AX47" s="37"/>
     </row>
     <row r="48" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="67"/>
+      <c r="C48" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55" t="s">
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="R48" s="55" t="s">
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="R48" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55" t="s">
+      <c r="S48" s="65"/>
+      <c r="T48" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55" t="s">
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AB48" s="55"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="55"/>
-      <c r="AE48" s="55"/>
-      <c r="AF48" s="55"/>
-      <c r="AG48" s="55"/>
+      <c r="AB48" s="65"/>
+      <c r="AC48" s="65"/>
+      <c r="AD48" s="65"/>
+      <c r="AE48" s="65"/>
+      <c r="AF48" s="65"/>
+      <c r="AG48" s="65"/>
       <c r="AI48" s="37"/>
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
@@ -15192,8 +15192,8 @@
       <c r="AX48" s="37"/>
     </row>
     <row r="49" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="20">
         <v>1</v>
       </c>
@@ -15236,8 +15236,8 @@
       <c r="P49" s="20">
         <v>7</v>
       </c>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="T49" s="20">
         <v>1</v>
       </c>
@@ -15298,10 +15298,10 @@
       <c r="AX49" s="37"/>
     </row>
     <row r="50" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="66"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="31">
         <f>MIN(C9,C14,C19,C24,C34,C39)</f>
         <v>0.6522</v>
@@ -15358,10 +15358,10 @@
         <f t="shared" si="0"/>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R50" s="73" t="s">
+      <c r="R50" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="73"/>
+      <c r="S50" s="66"/>
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
@@ -15394,10 +15394,10 @@
       <c r="AX50" s="37"/>
     </row>
     <row r="51" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="67"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="41">
         <f>MAX(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.75</v>
@@ -15454,10 +15454,10 @@
         <f t="shared" si="1"/>
         <v>0.84240000000000004</v>
       </c>
-      <c r="R51" s="72" t="s">
+      <c r="R51" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="72"/>
+      <c r="S51" s="63"/>
       <c r="T51" s="43"/>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
@@ -15490,10 +15490,10 @@
       <c r="AX51" s="37"/>
     </row>
     <row r="52" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="67"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="41">
         <f t="shared" ref="C52:P52" si="2">AVERAGE(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.69954285714285713</v>
@@ -15550,10 +15550,10 @@
         <f t="shared" si="2"/>
         <v>0.813642857142857</v>
       </c>
-      <c r="R52" s="72" t="s">
+      <c r="R52" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S52" s="72"/>
+      <c r="S52" s="63"/>
       <c r="T52" s="43"/>
       <c r="U52" s="43"/>
       <c r="V52" s="43"/>
@@ -15586,10 +15586,10 @@
       <c r="AX52" s="37"/>
     </row>
     <row r="53" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R53" s="72" t="s">
+      <c r="R53" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S53" s="72"/>
+      <c r="S53" s="63"/>
       <c r="T53" s="43"/>
       <c r="U53" s="43"/>
       <c r="V53" s="43"/>
@@ -15622,10 +15622,10 @@
       <c r="AX53" s="37"/>
     </row>
     <row r="54" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R54" s="72" t="s">
+      <c r="R54" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="72"/>
+      <c r="S54" s="63"/>
       <c r="T54" s="20">
         <v>1</v>
       </c>
@@ -15686,28 +15686,28 @@
       <c r="AX54" s="37"/>
     </row>
     <row r="55" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="R55" s="70" t="s">
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="R55" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="S55" s="70"/>
+      <c r="S55" s="64"/>
       <c r="T55" s="34"/>
       <c r="U55" s="34"/>
       <c r="V55" s="34"/>
@@ -15756,10 +15756,10 @@
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
       <c r="P56" s="35"/>
-      <c r="R56" s="72" t="s">
+      <c r="R56" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S56" s="72"/>
+      <c r="S56" s="63"/>
       <c r="T56" s="31">
         <v>0.55979999999999996</v>
       </c>
@@ -15820,32 +15820,32 @@
       <c r="AX56" s="37"/>
     </row>
     <row r="57" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55" t="s">
+      <c r="B57" s="67"/>
+      <c r="C57" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55" t="s">
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="R57" s="72" t="s">
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="R57" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S57" s="72"/>
+      <c r="S57" s="63"/>
       <c r="T57" s="31">
         <v>0.55189999999999995</v>
       </c>
@@ -15906,8 +15906,8 @@
       <c r="AX57" s="37"/>
     </row>
     <row r="58" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="20">
         <v>1</v>
       </c>
@@ -15950,10 +15950,10 @@
       <c r="P58" s="20">
         <v>7</v>
       </c>
-      <c r="R58" s="72" t="s">
+      <c r="R58" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S58" s="72"/>
+      <c r="S58" s="63"/>
       <c r="T58" s="31">
         <v>0.55700000000000005</v>
       </c>
@@ -16014,10 +16014,10 @@
       <c r="AX58" s="37"/>
     </row>
     <row r="59" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="66"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="31">
         <f>MIN(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.65759999999999996</v>
@@ -16074,10 +16074,10 @@
         <f t="shared" ref="P59" si="15">MIN(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R59" s="72" t="s">
+      <c r="R59" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="72"/>
+      <c r="S59" s="63"/>
       <c r="T59" s="31">
         <v>0.53879999999999995</v>
       </c>
@@ -16138,10 +16138,10 @@
       <c r="AX59" s="37"/>
     </row>
     <row r="60" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="67"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="41">
         <f>MAX(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.76629999999999998</v>
@@ -16198,10 +16198,10 @@
         <f t="shared" ref="P60" si="23">MAX(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="R60" s="70" t="s">
+      <c r="R60" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="S60" s="70"/>
+      <c r="S60" s="64"/>
       <c r="T60" s="34"/>
       <c r="U60" s="34"/>
       <c r="V60" s="34"/>
@@ -16234,10 +16234,10 @@
       <c r="AX60" s="37"/>
     </row>
     <row r="61" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="67"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="41">
         <f>AVERAGE(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.70574285714285712</v>
@@ -16294,10 +16294,10 @@
         <f t="shared" ref="P61" si="30">AVERAGE(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.82257142857142873</v>
       </c>
-      <c r="R61" s="72" t="s">
+      <c r="R61" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S61" s="72"/>
+      <c r="S61" s="63"/>
       <c r="T61" s="31">
         <v>0.76090000000000002</v>
       </c>
@@ -16358,10 +16358,10 @@
       <c r="AX61" s="37"/>
     </row>
     <row r="62" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R62" s="72" t="s">
+      <c r="R62" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S62" s="72"/>
+      <c r="S62" s="63"/>
       <c r="T62" s="31">
         <v>0.7581</v>
       </c>
@@ -16422,10 +16422,10 @@
       <c r="AX62" s="37"/>
     </row>
     <row r="63" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R63" s="72" t="s">
+      <c r="R63" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S63" s="72"/>
+      <c r="S63" s="63"/>
       <c r="T63" s="31">
         <v>0.75390000000000001</v>
       </c>
@@ -16486,28 +16486,28 @@
       <c r="AX63" s="37"/>
     </row>
     <row r="64" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="R64" s="72" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="R64" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S64" s="72"/>
+      <c r="S64" s="63"/>
       <c r="T64" s="31">
         <v>0.75490000000000002</v>
       </c>
@@ -16584,10 +16584,10 @@
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
       <c r="P65" s="35"/>
-      <c r="R65" s="70" t="s">
+      <c r="R65" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="S65" s="70"/>
+      <c r="S65" s="64"/>
       <c r="T65" s="34"/>
       <c r="U65" s="34"/>
       <c r="V65" s="34"/>
@@ -16620,32 +16620,32 @@
       <c r="AX65" s="37"/>
     </row>
     <row r="66" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55" t="s">
+      <c r="B66" s="67"/>
+      <c r="C66" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55" t="s">
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="R66" s="72" t="s">
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="65"/>
+      <c r="R66" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="72"/>
+      <c r="S66" s="63"/>
       <c r="T66" s="31">
         <v>0.44569999999999999</v>
       </c>
@@ -16706,8 +16706,8 @@
       <c r="AX66" s="37"/>
     </row>
     <row r="67" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="20">
         <v>1</v>
       </c>
@@ -16750,10 +16750,10 @@
       <c r="P67" s="20">
         <v>7</v>
       </c>
-      <c r="R67" s="72" t="s">
+      <c r="R67" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S67" s="72"/>
+      <c r="S67" s="63"/>
       <c r="T67" s="31">
         <v>0.48749999999999999</v>
       </c>
@@ -16814,10 +16814,10 @@
       <c r="AX67" s="37"/>
     </row>
     <row r="68" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="66"/>
+      <c r="B68" s="68"/>
       <c r="C68" s="31">
         <f t="shared" ref="C68:J68" si="31">MIN(T56,T61,T66,T71)</f>
         <v>0.44569999999999999</v>
@@ -16874,10 +16874,10 @@
         <f t="shared" si="32"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="R68" s="72" t="s">
+      <c r="R68" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S68" s="72"/>
+      <c r="S68" s="63"/>
       <c r="T68" s="31">
         <v>0.43519999999999998</v>
       </c>
@@ -16938,10 +16938,10 @@
       <c r="AX68" s="37"/>
     </row>
     <row r="69" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="67"/>
+      <c r="B69" s="69"/>
       <c r="C69" s="41">
         <f>MAX(T56,T61,T66,T71)</f>
         <v>0.76090000000000002</v>
@@ -16998,10 +16998,10 @@
         <f t="shared" si="34"/>
         <v>0.77990000000000004</v>
       </c>
-      <c r="R69" s="72" t="s">
+      <c r="R69" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S69" s="72"/>
+      <c r="S69" s="63"/>
       <c r="T69" s="31">
         <v>0.4325</v>
       </c>
@@ -17062,10 +17062,10 @@
       <c r="AX69" s="37"/>
     </row>
     <row r="70" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="67"/>
+      <c r="B70" s="69"/>
       <c r="C70" s="41">
         <f>AVERAGE(T56,T61,T66,T71)</f>
         <v>0.60192500000000004</v>
@@ -17122,10 +17122,10 @@
         <f t="shared" si="36"/>
         <v>0.72894999999999999</v>
       </c>
-      <c r="R70" s="70" t="s">
+      <c r="R70" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S70" s="70"/>
+      <c r="S70" s="64"/>
       <c r="T70" s="34"/>
       <c r="U70" s="34"/>
       <c r="V70" s="34"/>
@@ -17174,10 +17174,10 @@
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
       <c r="P71" s="23"/>
-      <c r="R71" s="72" t="s">
+      <c r="R71" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S71" s="72"/>
+      <c r="S71" s="63"/>
       <c r="T71" s="31">
         <v>0.64129999999999998</v>
       </c>
@@ -17238,10 +17238,10 @@
       <c r="AX71" s="37"/>
     </row>
     <row r="72" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R72" s="72" t="s">
+      <c r="R72" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S72" s="72"/>
+      <c r="S72" s="63"/>
       <c r="T72" s="31">
         <v>0.64639999999999997</v>
       </c>
@@ -17302,28 +17302,28 @@
       <c r="AX72" s="37"/>
     </row>
     <row r="73" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="R73" s="72" t="s">
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="R73" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="72"/>
+      <c r="S73" s="63"/>
       <c r="T73" s="31">
         <v>0.6371</v>
       </c>
@@ -17400,10 +17400,10 @@
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
       <c r="P74" s="35"/>
-      <c r="R74" s="72" t="s">
+      <c r="R74" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S74" s="72"/>
+      <c r="S74" s="63"/>
       <c r="T74" s="31">
         <v>0.64019999999999999</v>
       </c>
@@ -17464,32 +17464,32 @@
       <c r="AX74" s="37"/>
     </row>
     <row r="75" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="71"/>
-      <c r="C75" s="55" t="s">
+      <c r="B75" s="70"/>
+      <c r="C75" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55" t="s">
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
-      <c r="R75" s="70" t="s">
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65"/>
+      <c r="R75" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="S75" s="70"/>
+      <c r="S75" s="64"/>
       <c r="T75" s="34"/>
       <c r="U75" s="34"/>
       <c r="V75" s="34"/>
@@ -17522,30 +17522,30 @@
       <c r="AX75" s="37"/>
     </row>
     <row r="76" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="55">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="65">
         <v>1</v>
       </c>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55">
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65">
         <v>1</v>
       </c>
-      <c r="K76" s="55"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="R76" s="72" t="s">
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="R76" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="72"/>
+      <c r="S76" s="63"/>
       <c r="T76" s="43"/>
       <c r="U76" s="43"/>
       <c r="V76" s="43"/>
@@ -17578,28 +17578,28 @@
       <c r="AX76" s="37"/>
     </row>
     <row r="77" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="64"/>
-      <c r="L77" s="64"/>
-      <c r="M77" s="64"/>
-      <c r="N77" s="64"/>
-      <c r="O77" s="64"/>
-      <c r="P77" s="65"/>
-      <c r="R77" s="72" t="s">
+      <c r="B77" s="64"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="73"/>
+      <c r="R77" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S77" s="72"/>
+      <c r="S77" s="63"/>
       <c r="T77" s="43"/>
       <c r="U77" s="43"/>
       <c r="V77" s="43"/>
@@ -17632,34 +17632,34 @@
       <c r="AX77" s="37"/>
     </row>
     <row r="78" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="66" t="s">
+      <c r="A78" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="66"/>
-      <c r="C78" s="68">
+      <c r="B78" s="68"/>
+      <c r="C78" s="76">
         <f>MIN(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.56520000000000004</v>
       </c>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="51">
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="74">
         <f>MIN(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.4864</v>
       </c>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="R78" s="72" t="s">
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="74"/>
+      <c r="R78" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S78" s="72"/>
+      <c r="S78" s="63"/>
       <c r="T78" s="43"/>
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
@@ -17692,34 +17692,34 @@
       <c r="AX78" s="37"/>
     </row>
     <row r="79" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="67" t="s">
+      <c r="A79" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="68">
+      <c r="B79" s="69"/>
+      <c r="C79" s="76">
         <f>MAX(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.88039999999999996</v>
       </c>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="51">
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="74">
         <f>MAX(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.86140000000000005</v>
       </c>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="51"/>
-      <c r="R79" s="72" t="s">
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="R79" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S79" s="72"/>
+      <c r="S79" s="63"/>
       <c r="T79" s="43"/>
       <c r="U79" s="43"/>
       <c r="V79" s="43"/>
@@ -17752,34 +17752,34 @@
       <c r="AX79" s="37"/>
     </row>
     <row r="80" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="68">
+      <c r="B80" s="69"/>
+      <c r="C80" s="76">
         <f>AVERAGE(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.77329999999999999</v>
       </c>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="51">
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="74">
         <f>AVERAGE(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.75155714285714281</v>
       </c>
-      <c r="K80" s="51"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="51"/>
-      <c r="N80" s="51"/>
-      <c r="O80" s="51"/>
-      <c r="P80" s="51"/>
-      <c r="R80" s="70" t="s">
+      <c r="K80" s="74"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="74"/>
+      <c r="P80" s="74"/>
+      <c r="R80" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="S80" s="70"/>
+      <c r="S80" s="64"/>
       <c r="T80" s="34"/>
       <c r="U80" s="34"/>
       <c r="V80" s="34"/>
@@ -17812,28 +17812,28 @@
       <c r="AX80" s="37"/>
     </row>
     <row r="81" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="70"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="64"/>
-      <c r="M81" s="64"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="64"/>
-      <c r="P81" s="65"/>
-      <c r="R81" s="72" t="s">
+      <c r="B81" s="64"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="72"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="72"/>
+      <c r="O81" s="72"/>
+      <c r="P81" s="73"/>
+      <c r="R81" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="72"/>
+      <c r="S81" s="63"/>
       <c r="T81" s="43"/>
       <c r="U81" s="43"/>
       <c r="V81" s="43"/>
@@ -17866,34 +17866,34 @@
       <c r="AX81" s="37"/>
     </row>
     <row r="82" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="66" t="s">
+      <c r="A82" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="66"/>
-      <c r="C82" s="68">
+      <c r="B82" s="68"/>
+      <c r="C82" s="76">
         <f>MIN(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.60329999999999995</v>
       </c>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="51">
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="74">
         <f>MIN(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="52"/>
-      <c r="P82" s="52"/>
-      <c r="R82" s="72" t="s">
+      <c r="K82" s="75"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="75"/>
+      <c r="N82" s="75"/>
+      <c r="O82" s="75"/>
+      <c r="P82" s="75"/>
+      <c r="R82" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S82" s="72"/>
+      <c r="S82" s="63"/>
       <c r="T82" s="43"/>
       <c r="U82" s="43"/>
       <c r="V82" s="43"/>
@@ -17926,34 +17926,34 @@
       <c r="AX82" s="37"/>
     </row>
     <row r="83" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="67" t="s">
+      <c r="A83" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="68">
+      <c r="B83" s="69"/>
+      <c r="C83" s="76">
         <f>MAX(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.86409999999999998</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="69"/>
-      <c r="J83" s="51">
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="74">
         <f>MAX(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="52"/>
-      <c r="R83" s="72" t="s">
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="75"/>
+      <c r="O83" s="75"/>
+      <c r="P83" s="75"/>
+      <c r="R83" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="S83" s="72"/>
+      <c r="S83" s="63"/>
       <c r="T83" s="43"/>
       <c r="U83" s="43"/>
       <c r="V83" s="43"/>
@@ -17986,34 +17986,34 @@
       <c r="AX83" s="37"/>
     </row>
     <row r="84" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="67"/>
-      <c r="C84" s="68">
+      <c r="B84" s="69"/>
+      <c r="C84" s="76">
         <f>AVERAGE(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.77872857142857133</v>
       </c>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="51">
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="74">
         <f>AVERAGE(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.74030000000000007</v>
       </c>
-      <c r="K84" s="52"/>
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="52"/>
-      <c r="R84" s="72" t="s">
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="R84" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S84" s="72"/>
+      <c r="S84" s="63"/>
       <c r="T84" s="43"/>
       <c r="U84" s="43"/>
       <c r="V84" s="43"/>
@@ -18080,24 +18080,24 @@
       <c r="AX85" s="37"/>
     </row>
     <row r="86" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
       <c r="AI86" s="37"/>
       <c r="AJ86" s="37"/>
       <c r="AK86" s="37"/>
@@ -18116,24 +18116,24 @@
       <c r="AX86" s="37"/>
     </row>
     <row r="87" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R87" s="53" t="s">
+      <c r="R87" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="S87" s="53"/>
-      <c r="T87" s="53"/>
-      <c r="U87" s="53"/>
-      <c r="V87" s="53"/>
-      <c r="W87" s="53"/>
-      <c r="X87" s="53"/>
-      <c r="Y87" s="53"/>
-      <c r="Z87" s="53"/>
-      <c r="AA87" s="53"/>
-      <c r="AB87" s="53"/>
-      <c r="AC87" s="53"/>
-      <c r="AD87" s="53"/>
-      <c r="AE87" s="53"/>
-      <c r="AF87" s="53"/>
-      <c r="AG87" s="53"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="49"/>
+      <c r="V87" s="49"/>
+      <c r="W87" s="49"/>
+      <c r="X87" s="49"/>
+      <c r="Y87" s="49"/>
+      <c r="Z87" s="49"/>
+      <c r="AA87" s="49"/>
+      <c r="AB87" s="49"/>
+      <c r="AC87" s="49"/>
+      <c r="AD87" s="49"/>
+      <c r="AE87" s="49"/>
+      <c r="AF87" s="49"/>
+      <c r="AG87" s="49"/>
       <c r="AI87" s="37"/>
       <c r="AJ87" s="37"/>
       <c r="AK87" s="37"/>
@@ -18152,46 +18152,46 @@
       <c r="AX87" s="37"/>
     </row>
     <row r="88" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="55" t="s">
+      <c r="B88" s="67"/>
+      <c r="C88" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55" t="s">
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="55"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="55"/>
-      <c r="R88" s="53" t="s">
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="65"/>
+      <c r="O88" s="65"/>
+      <c r="P88" s="65"/>
+      <c r="R88" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="S88" s="53"/>
-      <c r="T88" s="53"/>
-      <c r="U88" s="53"/>
-      <c r="V88" s="53"/>
-      <c r="W88" s="53"/>
-      <c r="X88" s="53"/>
-      <c r="Y88" s="53"/>
-      <c r="Z88" s="53"/>
-      <c r="AA88" s="53"/>
-      <c r="AB88" s="53"/>
-      <c r="AC88" s="53"/>
-      <c r="AD88" s="53"/>
-      <c r="AE88" s="53"/>
-      <c r="AF88" s="53"/>
-      <c r="AG88" s="53"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="49"/>
+      <c r="U88" s="49"/>
+      <c r="V88" s="49"/>
+      <c r="W88" s="49"/>
+      <c r="X88" s="49"/>
+      <c r="Y88" s="49"/>
+      <c r="Z88" s="49"/>
+      <c r="AA88" s="49"/>
+      <c r="AB88" s="49"/>
+      <c r="AC88" s="49"/>
+      <c r="AD88" s="49"/>
+      <c r="AE88" s="49"/>
+      <c r="AF88" s="49"/>
+      <c r="AG88" s="49"/>
       <c r="AI88" s="37"/>
       <c r="AJ88" s="37"/>
       <c r="AK88" s="37"/>
@@ -18210,8 +18210,8 @@
       <c r="AX88" s="37"/>
     </row>
     <row r="89" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="67"/>
       <c r="C89" s="20">
         <v>1</v>
       </c>
@@ -18272,10 +18272,10 @@
       <c r="AX89" s="37"/>
     </row>
     <row r="90" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="50" t="s">
+      <c r="A90" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="50"/>
+      <c r="B90" s="80"/>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22"/>
@@ -18290,28 +18290,28 @@
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
-      <c r="R90" s="56" t="s">
+      <c r="R90" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="S90" s="57"/>
-      <c r="T90" s="60" t="s">
+      <c r="S90" s="56"/>
+      <c r="T90" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="U90" s="61"/>
-      <c r="V90" s="61"/>
-      <c r="W90" s="61"/>
-      <c r="X90" s="61"/>
-      <c r="Y90" s="61"/>
-      <c r="Z90" s="62"/>
-      <c r="AA90" s="60" t="s">
+      <c r="U90" s="52"/>
+      <c r="V90" s="52"/>
+      <c r="W90" s="52"/>
+      <c r="X90" s="52"/>
+      <c r="Y90" s="52"/>
+      <c r="Z90" s="53"/>
+      <c r="AA90" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AB90" s="61"/>
-      <c r="AC90" s="61"/>
-      <c r="AD90" s="61"/>
-      <c r="AE90" s="61"/>
-      <c r="AF90" s="61"/>
-      <c r="AG90" s="62"/>
+      <c r="AB90" s="52"/>
+      <c r="AC90" s="52"/>
+      <c r="AD90" s="52"/>
+      <c r="AE90" s="52"/>
+      <c r="AF90" s="52"/>
+      <c r="AG90" s="53"/>
       <c r="AI90" s="37"/>
       <c r="AJ90" s="37"/>
       <c r="AK90" s="37"/>
@@ -18390,8 +18390,8 @@
         <f t="shared" si="38"/>
         <v>0.54000000000000714</v>
       </c>
-      <c r="R91" s="58"/>
-      <c r="S91" s="59"/>
+      <c r="R91" s="57"/>
+      <c r="S91" s="58"/>
       <c r="T91" s="20">
         <v>1</v>
       </c>
@@ -18512,10 +18512,10 @@
         <f t="shared" si="40"/>
         <v>-0.54000000000000714</v>
       </c>
-      <c r="R92" s="46" t="s">
+      <c r="R92" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="S92" s="47"/>
+      <c r="S92" s="79"/>
       <c r="T92" s="22"/>
       <c r="U92" s="22"/>
       <c r="V92" s="22"/>
@@ -18608,10 +18608,10 @@
         <f t="shared" si="42"/>
         <v>6.25</v>
       </c>
-      <c r="R93" s="48" t="s">
+      <c r="R93" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S93" s="49"/>
+      <c r="S93" s="47"/>
       <c r="T93" s="31">
         <v>0.76090000000000002</v>
       </c>
@@ -18732,10 +18732,10 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="R94" s="48" t="s">
+      <c r="R94" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="S94" s="49"/>
+      <c r="S94" s="47"/>
       <c r="T94" s="31">
         <v>0.75080000000000002</v>
       </c>
@@ -18856,10 +18856,10 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="R95" s="48" t="s">
+      <c r="R95" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S95" s="49"/>
+      <c r="S95" s="47"/>
       <c r="T95" s="31">
         <v>0.75219999999999998</v>
       </c>
@@ -18980,10 +18980,10 @@
         <f t="shared" si="48"/>
         <v>-0.26999999999999247</v>
       </c>
-      <c r="R96" s="48" t="s">
+      <c r="R96" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="S96" s="49"/>
+      <c r="S96" s="47"/>
       <c r="T96" s="31">
         <v>0.75039999999999996</v>
       </c>
@@ -19104,10 +19104,10 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R97" s="46" t="s">
+      <c r="R97" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="S97" s="47"/>
+      <c r="S97" s="79"/>
       <c r="T97" s="19"/>
       <c r="U97" s="19"/>
       <c r="V97" s="19"/>
@@ -19140,10 +19140,10 @@
       <c r="AX97" s="37"/>
     </row>
     <row r="98" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="50" t="s">
+      <c r="A98" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="50"/>
+      <c r="B98" s="80"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
       <c r="E98" s="30"/>
@@ -19158,10 +19158,10 @@
       <c r="N98" s="30"/>
       <c r="O98" s="30"/>
       <c r="P98" s="30"/>
-      <c r="R98" s="48" t="s">
+      <c r="R98" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S98" s="49"/>
+      <c r="S98" s="47"/>
       <c r="T98" s="31">
         <v>0.73909999999999998</v>
       </c>
@@ -19282,10 +19282,10 @@
         <f t="shared" si="52"/>
         <v>-7.3400000000000016</v>
       </c>
-      <c r="R99" s="48" t="s">
+      <c r="R99" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="S99" s="49"/>
+      <c r="S99" s="47"/>
       <c r="T99" s="31">
         <v>0.74119999999999997</v>
       </c>
@@ -19406,10 +19406,10 @@
         <f t="shared" si="54"/>
         <v>-2.4399999999999977</v>
       </c>
-      <c r="R100" s="48" t="s">
+      <c r="R100" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S100" s="49"/>
+      <c r="S100" s="47"/>
       <c r="T100" s="31">
         <v>0.72870000000000001</v>
       </c>
@@ -19530,10 +19530,10 @@
         <f t="shared" si="56"/>
         <v>-16.570000000000007</v>
       </c>
-      <c r="R101" s="48" t="s">
+      <c r="R101" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="49"/>
+      <c r="S101" s="47"/>
       <c r="T101" s="31">
         <v>0.72989999999999999</v>
       </c>
@@ -19672,10 +19672,10 @@
       <c r="AX102" s="37"/>
     </row>
     <row r="103" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="50"/>
+      <c r="B103" s="80"/>
       <c r="C103" s="30"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
@@ -19786,10 +19786,10 @@
       <c r="AX104" s="37"/>
     </row>
     <row r="105" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="50" t="s">
+      <c r="A105" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="50"/>
+      <c r="B105" s="80"/>
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="30"/>
@@ -20249,38 +20249,149 @@
     </row>
   </sheetData>
   <mergeCells count="199">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="T1:Z2"/>
-    <mergeCell ref="AA1:AG2"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="J84:P84"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A88:B89"/>
+    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="J88:P88"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="R87:AG87"/>
+    <mergeCell ref="R88:AG88"/>
+    <mergeCell ref="R90:S91"/>
+    <mergeCell ref="T90:Z90"/>
+    <mergeCell ref="AA90:AG90"/>
+    <mergeCell ref="J81:P81"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="J83:P83"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="J78:P78"/>
+    <mergeCell ref="J79:P79"/>
+    <mergeCell ref="J80:P80"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="J75:P75"/>
+    <mergeCell ref="C76:I76"/>
+    <mergeCell ref="J76:P76"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="J77:P77"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="J66:P66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="T48:Z48"/>
+    <mergeCell ref="AA48:AG48"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="R48:S49"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R45:AG45"/>
+    <mergeCell ref="R46:AG46"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
     <mergeCell ref="C1:I2"/>
     <mergeCell ref="J1:P2"/>
     <mergeCell ref="R25:S25"/>
@@ -20305,149 +20416,38 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="R48:S49"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R45:AG45"/>
-    <mergeCell ref="R46:AG46"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="J66:P66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="T48:Z48"/>
-    <mergeCell ref="AA48:AG48"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:I75"/>
-    <mergeCell ref="J75:P75"/>
-    <mergeCell ref="C76:I76"/>
-    <mergeCell ref="J76:P76"/>
-    <mergeCell ref="C77:I77"/>
-    <mergeCell ref="J77:P77"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="J81:P81"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="J82:P82"/>
-    <mergeCell ref="C82:I82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="J83:P83"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="J78:P78"/>
-    <mergeCell ref="J79:P79"/>
-    <mergeCell ref="J80:P80"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="J84:P84"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A88:B89"/>
-    <mergeCell ref="C88:I88"/>
-    <mergeCell ref="J88:P88"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="R87:AG87"/>
-    <mergeCell ref="R88:AG88"/>
-    <mergeCell ref="R90:S91"/>
-    <mergeCell ref="T90:Z90"/>
-    <mergeCell ref="AA90:AG90"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="T1:Z2"/>
+    <mergeCell ref="AA1:AG2"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A45:P45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -21221,16 +21221,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>

--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\sklearn-kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7232AC3-05D5-4851-A621-4F097EF95643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C7132-286B-4981-8B44-9A308DAA7404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,31 +975,34 @@
     <xf numFmtId="2" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,40 +1017,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,10 +1035,10 @@
     <xf numFmtId="2" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,14 +1047,38 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10996,8 +10996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11020,42 +11020,42 @@
   <sheetData>
     <row r="1" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="T1" s="54" t="s">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="T1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54" t="s">
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
       <c r="AI1" s="37"/>
       <c r="AJ1" s="37"/>
       <c r="AK1" s="37"/>
@@ -11076,34 +11076,34 @@
     <row r="2" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
       <c r="AK2" s="37"/>
@@ -11122,42 +11122,42 @@
       <c r="AX2" s="37"/>
     </row>
     <row r="3" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="R3" s="49" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="R3" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
       <c r="AI3" s="37"/>
       <c r="AJ3" s="37"/>
       <c r="AK3" s="37"/>
@@ -11176,24 +11176,24 @@
       <c r="AX3" s="37"/>
     </row>
     <row r="4" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
       <c r="AI4" s="37"/>
       <c r="AJ4" s="37"/>
       <c r="AK4" s="37"/>
@@ -11246,50 +11246,50 @@
       <c r="AX5" s="37"/>
     </row>
     <row r="6" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="R6" s="55" t="s">
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="R6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="56"/>
-      <c r="T6" s="51" t="s">
+      <c r="S6" s="57"/>
+      <c r="T6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="51" t="s">
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="53"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="62"/>
       <c r="AI6" s="37"/>
       <c r="AJ6" s="37"/>
       <c r="AK6" s="37"/>
@@ -11308,8 +11308,8 @@
       <c r="AX6" s="37"/>
     </row>
     <row r="7" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="20">
         <v>1</v>
       </c>
@@ -11352,8 +11352,8 @@
       <c r="P7" s="20">
         <v>7</v>
       </c>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="59"/>
       <c r="T7" s="20">
         <v>1</v>
       </c>
@@ -11414,10 +11414,10 @@
       <c r="AX7" s="37"/>
     </row>
     <row r="8" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -11432,10 +11432,10 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="R8" s="61" t="s">
+      <c r="R8" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="62"/>
+      <c r="S8" s="78"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -11468,10 +11468,10 @@
       <c r="AX8" s="37"/>
     </row>
     <row r="9" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="31">
         <v>0.71740000000000004</v>
       </c>
@@ -11514,10 +11514,10 @@
       <c r="P9" s="32">
         <v>0.83699999999999997</v>
       </c>
-      <c r="R9" s="46" t="s">
+      <c r="R9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="47"/>
+      <c r="S9" s="49"/>
       <c r="T9" s="31">
         <v>0.75</v>
       </c>
@@ -11578,10 +11578,10 @@
       <c r="AX9" s="37"/>
     </row>
     <row r="10" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="31">
         <v>0.71009999999999995</v>
       </c>
@@ -11624,10 +11624,10 @@
       <c r="P10" s="32">
         <v>0.83689999999999998</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="47"/>
+      <c r="S10" s="49"/>
       <c r="T10" s="31">
         <v>0.74199999999999999</v>
       </c>
@@ -11688,10 +11688,10 @@
       <c r="AX10" s="37"/>
     </row>
     <row r="11" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31">
         <v>0.70660000000000001</v>
       </c>
@@ -11734,10 +11734,10 @@
       <c r="P11" s="32">
         <v>0.83399999999999996</v>
       </c>
-      <c r="R11" s="46" t="s">
+      <c r="R11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="47"/>
+      <c r="S11" s="49"/>
       <c r="T11" s="31">
         <v>0.73850000000000005</v>
       </c>
@@ -11798,10 +11798,10 @@
       <c r="AX11" s="37"/>
     </row>
     <row r="12" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="31">
         <v>0.70569999999999999</v>
       </c>
@@ -11844,10 +11844,10 @@
       <c r="P12" s="32">
         <v>0.83460000000000001</v>
       </c>
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="47"/>
+      <c r="S12" s="49"/>
       <c r="T12" s="31">
         <v>0.73699999999999999</v>
       </c>
@@ -11908,10 +11908,10 @@
       <c r="AX12" s="37"/>
     </row>
     <row r="13" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -11926,10 +11926,10 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
-      <c r="R13" s="59" t="s">
+      <c r="R13" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="60"/>
+      <c r="S13" s="75"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
@@ -11962,10 +11962,10 @@
       <c r="AX13" s="37"/>
     </row>
     <row r="14" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="31">
         <v>0.70109999999999995</v>
       </c>
@@ -12008,10 +12008,10 @@
       <c r="P14" s="32">
         <v>0.84240000000000004</v>
       </c>
-      <c r="R14" s="46" t="s">
+      <c r="R14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="47"/>
+      <c r="S14" s="49"/>
       <c r="T14" s="31">
         <v>0.69569999999999999</v>
       </c>
@@ -12072,10 +12072,10 @@
       <c r="AX14" s="37"/>
     </row>
     <row r="15" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="31">
         <v>0.69579999999999997</v>
       </c>
@@ -12118,10 +12118,10 @@
       <c r="P15" s="32">
         <v>0.83840000000000003</v>
       </c>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="47"/>
+      <c r="S15" s="49"/>
       <c r="T15" s="31">
         <v>0.69099999999999995</v>
       </c>
@@ -12182,10 +12182,10 @@
       <c r="AX15" s="37"/>
     </row>
     <row r="16" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="31">
         <v>0.69340000000000002</v>
       </c>
@@ -12228,10 +12228,10 @@
       <c r="P16" s="32">
         <v>0.83889999999999998</v>
       </c>
-      <c r="R16" s="46" t="s">
+      <c r="R16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="47"/>
+      <c r="S16" s="49"/>
       <c r="T16" s="31">
         <v>0.68959999999999999</v>
       </c>
@@ -12292,10 +12292,10 @@
       <c r="AX16" s="37"/>
     </row>
     <row r="17" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="31">
         <v>0.6925</v>
       </c>
@@ -12338,10 +12338,10 @@
       <c r="P17" s="32">
         <v>0.83819999999999995</v>
       </c>
-      <c r="R17" s="46" t="s">
+      <c r="R17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="47"/>
+      <c r="S17" s="49"/>
       <c r="T17" s="31">
         <v>0.68889999999999996</v>
       </c>
@@ -12402,10 +12402,10 @@
       <c r="AX17" s="37"/>
     </row>
     <row r="18" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -12420,10 +12420,10 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="R18" s="59" t="s">
+      <c r="R18" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="S18" s="60"/>
+      <c r="S18" s="75"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
       <c r="V18" s="34"/>
@@ -12456,10 +12456,10 @@
       <c r="AX18" s="37"/>
     </row>
     <row r="19" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="31">
         <v>0.75</v>
       </c>
@@ -12502,10 +12502,10 @@
       <c r="P19" s="32">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R19" s="46" t="s">
+      <c r="R19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="47"/>
+      <c r="S19" s="49"/>
       <c r="T19" s="31">
         <v>0.76629999999999998</v>
       </c>
@@ -12566,10 +12566,10 @@
       <c r="AX19" s="37"/>
     </row>
     <row r="20" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="31">
         <v>0.74780000000000002</v>
       </c>
@@ -12612,10 +12612,10 @@
       <c r="P20" s="32">
         <v>0.80189999999999995</v>
       </c>
-      <c r="R20" s="46" t="s">
+      <c r="R20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="47"/>
+      <c r="S20" s="49"/>
       <c r="T20" s="31">
         <v>0.76759999999999995</v>
       </c>
@@ -12676,10 +12676,10 @@
       <c r="AX20" s="37"/>
     </row>
     <row r="21" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="31">
         <v>0.74329999999999996</v>
       </c>
@@ -12722,10 +12722,10 @@
       <c r="P21" s="32">
         <v>0.80120000000000002</v>
       </c>
-      <c r="R21" s="46" t="s">
+      <c r="R21" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="47"/>
+      <c r="S21" s="49"/>
       <c r="T21" s="31">
         <v>0.7591</v>
       </c>
@@ -12786,10 +12786,10 @@
       <c r="AX21" s="37"/>
     </row>
     <row r="22" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="31">
         <v>0.74450000000000005</v>
       </c>
@@ -12832,10 +12832,10 @@
       <c r="P22" s="32">
         <v>0.8014</v>
       </c>
-      <c r="R22" s="46" t="s">
+      <c r="R22" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="47"/>
+      <c r="S22" s="49"/>
       <c r="T22" s="31">
         <v>0.75960000000000005</v>
       </c>
@@ -12896,10 +12896,10 @@
       <c r="AX22" s="37"/>
     </row>
     <row r="23" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -12914,10 +12914,10 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
-      <c r="R23" s="59" t="s">
+      <c r="R23" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="S23" s="60"/>
+      <c r="S23" s="75"/>
       <c r="T23" s="34"/>
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
@@ -12950,10 +12950,10 @@
       <c r="AX23" s="37"/>
     </row>
     <row r="24" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="31">
         <v>0.6522</v>
       </c>
@@ -12996,10 +12996,10 @@
       <c r="P24" s="32">
         <v>0.77170000000000005</v>
       </c>
-      <c r="R24" s="63" t="s">
+      <c r="R24" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="63"/>
+      <c r="S24" s="72"/>
       <c r="T24" s="31">
         <v>0.65759999999999996</v>
       </c>
@@ -13060,10 +13060,10 @@
       <c r="AX24" s="37"/>
     </row>
     <row r="25" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="31">
         <v>0.65329999999999999</v>
       </c>
@@ -13106,10 +13106,10 @@
       <c r="P25" s="32">
         <v>0.77149999999999996</v>
       </c>
-      <c r="R25" s="63" t="s">
+      <c r="R25" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="63"/>
+      <c r="S25" s="72"/>
       <c r="T25" s="31">
         <v>0.66120000000000001</v>
       </c>
@@ -13170,10 +13170,10 @@
       <c r="AX25" s="37"/>
     </row>
     <row r="26" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="31">
         <v>0.64300000000000002</v>
       </c>
@@ -13216,10 +13216,10 @@
       <c r="P26" s="32">
         <v>0.76759999999999995</v>
       </c>
-      <c r="R26" s="63" t="s">
+      <c r="R26" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="63"/>
+      <c r="S26" s="72"/>
       <c r="T26" s="31">
         <v>0.64870000000000005</v>
       </c>
@@ -13280,10 +13280,10 @@
       <c r="AX26" s="37"/>
     </row>
     <row r="27" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="31">
         <v>0.64229999999999998</v>
       </c>
@@ -13326,10 +13326,10 @@
       <c r="P27" s="32">
         <v>0.76790000000000003</v>
       </c>
-      <c r="R27" s="63" t="s">
+      <c r="R27" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="63"/>
+      <c r="S27" s="72"/>
       <c r="T27" s="31">
         <v>0.64949999999999997</v>
       </c>
@@ -13390,10 +13390,10 @@
       <c r="AX27" s="37"/>
     </row>
     <row r="28" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -13408,10 +13408,10 @@
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
-      <c r="R28" s="64" t="s">
+      <c r="R28" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="64"/>
+      <c r="S28" s="70"/>
       <c r="T28" s="34"/>
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
@@ -13444,10 +13444,10 @@
       <c r="AX28" s="37"/>
     </row>
     <row r="29" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="31">
         <v>0.66849999999999998</v>
       </c>
@@ -13490,10 +13490,10 @@
       <c r="P29" s="32">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R29" s="63" t="s">
+      <c r="R29" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="63"/>
+      <c r="S29" s="72"/>
       <c r="T29" s="31">
         <v>0.66300000000000003</v>
       </c>
@@ -13554,10 +13554,10 @@
       <c r="AX29" s="37"/>
     </row>
     <row r="30" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="31">
         <v>0.66110000000000002</v>
       </c>
@@ -13600,10 +13600,10 @@
       <c r="P30" s="32">
         <v>0.81259999999999999</v>
       </c>
-      <c r="R30" s="63" t="s">
+      <c r="R30" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="63"/>
+      <c r="S30" s="72"/>
       <c r="T30" s="31">
         <v>0.65510000000000002</v>
       </c>
@@ -13664,10 +13664,10 @@
       <c r="AX30" s="37"/>
     </row>
     <row r="31" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="31">
         <v>0.66259999999999997</v>
       </c>
@@ -13710,10 +13710,10 @@
       <c r="P31" s="32">
         <v>0.81430000000000002</v>
       </c>
-      <c r="R31" s="63" t="s">
+      <c r="R31" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="63"/>
+      <c r="S31" s="72"/>
       <c r="T31" s="31">
         <v>0.65680000000000005</v>
       </c>
@@ -13774,10 +13774,10 @@
       <c r="AX31" s="37"/>
     </row>
     <row r="32" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="31">
         <v>0.66049999999999998</v>
       </c>
@@ -13820,10 +13820,10 @@
       <c r="P32" s="32">
         <v>0.81279999999999997</v>
       </c>
-      <c r="R32" s="63" t="s">
+      <c r="R32" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="63"/>
+      <c r="S32" s="72"/>
       <c r="T32" s="31">
         <v>0.65429999999999999</v>
       </c>
@@ -13884,10 +13884,10 @@
       <c r="AX32" s="37"/>
     </row>
     <row r="33" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="60"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -13902,10 +13902,10 @@
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
-      <c r="R33" s="64" t="s">
+      <c r="R33" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="S33" s="64"/>
+      <c r="S33" s="70"/>
       <c r="T33" s="34"/>
       <c r="U33" s="34"/>
       <c r="V33" s="34"/>
@@ -13938,10 +13938,10 @@
       <c r="AX33" s="37"/>
     </row>
     <row r="34" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="31">
         <v>0.7228</v>
       </c>
@@ -13984,10 +13984,10 @@
       <c r="P34" s="32">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R34" s="63" t="s">
+      <c r="R34" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="63"/>
+      <c r="S34" s="72"/>
       <c r="T34" s="31">
         <v>0.7228</v>
       </c>
@@ -14048,10 +14048,10 @@
       <c r="AX34" s="37"/>
     </row>
     <row r="35" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="31">
         <v>0.72009999999999996</v>
       </c>
@@ -14094,10 +14094,10 @@
       <c r="P35" s="32">
         <v>0.81489999999999996</v>
       </c>
-      <c r="R35" s="63" t="s">
+      <c r="R35" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S35" s="63"/>
+      <c r="S35" s="72"/>
       <c r="T35" s="31">
         <v>0.72009999999999996</v>
       </c>
@@ -14158,10 +14158,10 @@
       <c r="AX35" s="37"/>
     </row>
     <row r="36" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="31">
         <v>0.71740000000000004</v>
       </c>
@@ -14204,10 +14204,10 @@
       <c r="P36" s="32">
         <v>0.81520000000000004</v>
       </c>
-      <c r="R36" s="63" t="s">
+      <c r="R36" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="63"/>
+      <c r="S36" s="72"/>
       <c r="T36" s="31">
         <v>0.71740000000000004</v>
       </c>
@@ -14268,10 +14268,10 @@
       <c r="AX36" s="37"/>
     </row>
     <row r="37" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="31">
         <v>0.71819999999999995</v>
       </c>
@@ -14314,10 +14314,10 @@
       <c r="P37" s="32">
         <v>0.81499999999999995</v>
       </c>
-      <c r="R37" s="63" t="s">
+      <c r="R37" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="63"/>
+      <c r="S37" s="72"/>
       <c r="T37" s="31">
         <v>0.71819999999999995</v>
       </c>
@@ -14378,10 +14378,10 @@
       <c r="AX37" s="37"/>
     </row>
     <row r="38" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="60"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -14396,10 +14396,10 @@
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
-      <c r="R38" s="64" t="s">
+      <c r="R38" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="S38" s="64"/>
+      <c r="S38" s="70"/>
       <c r="T38" s="34"/>
       <c r="U38" s="34"/>
       <c r="V38" s="34"/>
@@ -14432,10 +14432,10 @@
       <c r="AX38" s="37"/>
     </row>
     <row r="39" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="31">
         <v>0.68479999999999996</v>
       </c>
@@ -14478,10 +14478,10 @@
       <c r="P39" s="32">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R39" s="63" t="s">
+      <c r="R39" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S39" s="63"/>
+      <c r="S39" s="72"/>
       <c r="T39" s="31">
         <v>0.68479999999999996</v>
       </c>
@@ -14542,10 +14542,10 @@
       <c r="AX39" s="37"/>
     </row>
     <row r="40" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="31">
         <v>0.68020000000000003</v>
       </c>
@@ -14588,10 +14588,10 @@
       <c r="P40" s="32">
         <v>0.80110000000000003</v>
       </c>
-      <c r="R40" s="63" t="s">
+      <c r="R40" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S40" s="63"/>
+      <c r="S40" s="72"/>
       <c r="T40" s="31">
         <v>0.68020000000000003</v>
       </c>
@@ -14652,10 +14652,10 @@
       <c r="AX40" s="37"/>
     </row>
     <row r="41" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="31">
         <v>0.66830000000000001</v>
       </c>
@@ -14698,10 +14698,10 @@
       <c r="P41" s="32">
         <v>0.8014</v>
       </c>
-      <c r="R41" s="63" t="s">
+      <c r="R41" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="63"/>
+      <c r="S41" s="72"/>
       <c r="T41" s="31">
         <v>0.66830000000000001</v>
       </c>
@@ -14762,10 +14762,10 @@
       <c r="AX41" s="37"/>
     </row>
     <row r="42" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="31">
         <v>0.6321</v>
       </c>
@@ -14808,10 +14808,10 @@
       <c r="P42" s="32">
         <v>0.79990000000000006</v>
       </c>
-      <c r="R42" s="63" t="s">
+      <c r="R42" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="63"/>
+      <c r="S42" s="72"/>
       <c r="T42" s="31">
         <v>0.6321</v>
       </c>
@@ -14922,8 +14922,8 @@
       <c r="AX43" s="37"/>
     </row>
     <row r="44" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -14972,42 +14972,42 @@
       <c r="AX44" s="37"/>
     </row>
     <row r="45" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="R45" s="49" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="R45" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="49"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="49"/>
-      <c r="AB45" s="49"/>
-      <c r="AC45" s="49"/>
-      <c r="AD45" s="49"/>
-      <c r="AE45" s="49"/>
-      <c r="AF45" s="49"/>
-      <c r="AG45" s="49"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
+      <c r="AG45" s="53"/>
       <c r="AI45" s="37"/>
       <c r="AJ45" s="37"/>
       <c r="AK45" s="37"/>
@@ -15026,42 +15026,42 @@
       <c r="AX45" s="37"/>
     </row>
     <row r="46" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="R46" s="49" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="R46" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="53"/>
       <c r="AI46" s="37"/>
       <c r="AJ46" s="37"/>
       <c r="AK46" s="37"/>
@@ -15130,50 +15130,50 @@
       <c r="AX47" s="37"/>
     </row>
     <row r="48" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="65" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65" t="s">
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="R48" s="65" t="s">
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="R48" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65" t="s">
+      <c r="S48" s="55"/>
+      <c r="T48" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65" t="s">
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="65"/>
-      <c r="AD48" s="65"/>
-      <c r="AE48" s="65"/>
-      <c r="AF48" s="65"/>
-      <c r="AG48" s="65"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="55"/>
       <c r="AI48" s="37"/>
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
@@ -15192,8 +15192,8 @@
       <c r="AX48" s="37"/>
     </row>
     <row r="49" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="20">
         <v>1</v>
       </c>
@@ -15236,8 +15236,8 @@
       <c r="P49" s="20">
         <v>7</v>
       </c>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
       <c r="T49" s="20">
         <v>1</v>
       </c>
@@ -15298,10 +15298,10 @@
       <c r="AX49" s="37"/>
     </row>
     <row r="50" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="68"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="31">
         <f>MIN(C9,C14,C19,C24,C34,C39)</f>
         <v>0.6522</v>
@@ -15358,10 +15358,10 @@
         <f t="shared" si="0"/>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R50" s="66" t="s">
+      <c r="R50" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="66"/>
+      <c r="S50" s="73"/>
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
@@ -15394,10 +15394,10 @@
       <c r="AX50" s="37"/>
     </row>
     <row r="51" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="69"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="41">
         <f>MAX(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.75</v>
@@ -15454,10 +15454,10 @@
         <f t="shared" si="1"/>
         <v>0.84240000000000004</v>
       </c>
-      <c r="R51" s="63" t="s">
+      <c r="R51" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="63"/>
+      <c r="S51" s="72"/>
       <c r="T51" s="43"/>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
@@ -15490,10 +15490,10 @@
       <c r="AX51" s="37"/>
     </row>
     <row r="52" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="69"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="41">
         <f t="shared" ref="C52:P52" si="2">AVERAGE(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.69954285714285713</v>
@@ -15550,10 +15550,10 @@
         <f t="shared" si="2"/>
         <v>0.813642857142857</v>
       </c>
-      <c r="R52" s="63" t="s">
+      <c r="R52" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S52" s="63"/>
+      <c r="S52" s="72"/>
       <c r="T52" s="43"/>
       <c r="U52" s="43"/>
       <c r="V52" s="43"/>
@@ -15586,10 +15586,10 @@
       <c r="AX52" s="37"/>
     </row>
     <row r="53" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R53" s="63" t="s">
+      <c r="R53" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S53" s="63"/>
+      <c r="S53" s="72"/>
       <c r="T53" s="43"/>
       <c r="U53" s="43"/>
       <c r="V53" s="43"/>
@@ -15622,10 +15622,10 @@
       <c r="AX53" s="37"/>
     </row>
     <row r="54" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R54" s="63" t="s">
+      <c r="R54" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="63"/>
+      <c r="S54" s="72"/>
       <c r="T54" s="20">
         <v>1</v>
       </c>
@@ -15686,28 +15686,28 @@
       <c r="AX54" s="37"/>
     </row>
     <row r="55" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="R55" s="64" t="s">
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="R55" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="S55" s="64"/>
+      <c r="S55" s="70"/>
       <c r="T55" s="34"/>
       <c r="U55" s="34"/>
       <c r="V55" s="34"/>
@@ -15756,10 +15756,10 @@
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
       <c r="P56" s="35"/>
-      <c r="R56" s="63" t="s">
+      <c r="R56" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S56" s="63"/>
+      <c r="S56" s="72"/>
       <c r="T56" s="31">
         <v>0.55979999999999996</v>
       </c>
@@ -15820,32 +15820,32 @@
       <c r="AX56" s="37"/>
     </row>
     <row r="57" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="65" t="s">
+      <c r="B57" s="54"/>
+      <c r="C57" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65" t="s">
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="R57" s="63" t="s">
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="R57" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S57" s="63"/>
+      <c r="S57" s="72"/>
       <c r="T57" s="31">
         <v>0.55189999999999995</v>
       </c>
@@ -15906,8 +15906,8 @@
       <c r="AX57" s="37"/>
     </row>
     <row r="58" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="20">
         <v>1</v>
       </c>
@@ -15950,10 +15950,10 @@
       <c r="P58" s="20">
         <v>7</v>
       </c>
-      <c r="R58" s="63" t="s">
+      <c r="R58" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S58" s="63"/>
+      <c r="S58" s="72"/>
       <c r="T58" s="31">
         <v>0.55700000000000005</v>
       </c>
@@ -16014,10 +16014,10 @@
       <c r="AX58" s="37"/>
     </row>
     <row r="59" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="68"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="31">
         <f>MIN(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.65759999999999996</v>
@@ -16074,10 +16074,10 @@
         <f t="shared" ref="P59" si="15">MIN(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R59" s="63" t="s">
+      <c r="R59" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="63"/>
+      <c r="S59" s="72"/>
       <c r="T59" s="31">
         <v>0.53879999999999995</v>
       </c>
@@ -16138,10 +16138,10 @@
       <c r="AX59" s="37"/>
     </row>
     <row r="60" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="69"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="41">
         <f>MAX(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.76629999999999998</v>
@@ -16198,10 +16198,10 @@
         <f t="shared" ref="P60" si="23">MAX(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="R60" s="64" t="s">
+      <c r="R60" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="S60" s="64"/>
+      <c r="S60" s="70"/>
       <c r="T60" s="34"/>
       <c r="U60" s="34"/>
       <c r="V60" s="34"/>
@@ -16234,10 +16234,10 @@
       <c r="AX60" s="37"/>
     </row>
     <row r="61" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="69"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="41">
         <f>AVERAGE(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.70574285714285712</v>
@@ -16294,10 +16294,10 @@
         <f t="shared" ref="P61" si="30">AVERAGE(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.82257142857142873</v>
       </c>
-      <c r="R61" s="63" t="s">
+      <c r="R61" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S61" s="63"/>
+      <c r="S61" s="72"/>
       <c r="T61" s="31">
         <v>0.76090000000000002</v>
       </c>
@@ -16358,10 +16358,10 @@
       <c r="AX61" s="37"/>
     </row>
     <row r="62" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R62" s="63" t="s">
+      <c r="R62" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S62" s="63"/>
+      <c r="S62" s="72"/>
       <c r="T62" s="31">
         <v>0.7581</v>
       </c>
@@ -16422,10 +16422,10 @@
       <c r="AX62" s="37"/>
     </row>
     <row r="63" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R63" s="63" t="s">
+      <c r="R63" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S63" s="63"/>
+      <c r="S63" s="72"/>
       <c r="T63" s="31">
         <v>0.75390000000000001</v>
       </c>
@@ -16486,28 +16486,28 @@
       <c r="AX63" s="37"/>
     </row>
     <row r="64" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="R64" s="63" t="s">
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="R64" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S64" s="63"/>
+      <c r="S64" s="72"/>
       <c r="T64" s="31">
         <v>0.75490000000000002</v>
       </c>
@@ -16584,10 +16584,10 @@
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
       <c r="P65" s="35"/>
-      <c r="R65" s="64" t="s">
+      <c r="R65" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="S65" s="64"/>
+      <c r="S65" s="70"/>
       <c r="T65" s="34"/>
       <c r="U65" s="34"/>
       <c r="V65" s="34"/>
@@ -16620,32 +16620,32 @@
       <c r="AX65" s="37"/>
     </row>
     <row r="66" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="65" t="s">
+      <c r="B66" s="54"/>
+      <c r="C66" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65" t="s">
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="65"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="65"/>
-      <c r="R66" s="63" t="s">
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="R66" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="63"/>
+      <c r="S66" s="72"/>
       <c r="T66" s="31">
         <v>0.44569999999999999</v>
       </c>
@@ -16706,8 +16706,8 @@
       <c r="AX66" s="37"/>
     </row>
     <row r="67" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="20">
         <v>1</v>
       </c>
@@ -16750,10 +16750,10 @@
       <c r="P67" s="20">
         <v>7</v>
       </c>
-      <c r="R67" s="63" t="s">
+      <c r="R67" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S67" s="63"/>
+      <c r="S67" s="72"/>
       <c r="T67" s="31">
         <v>0.48749999999999999</v>
       </c>
@@ -16814,10 +16814,10 @@
       <c r="AX67" s="37"/>
     </row>
     <row r="68" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="68" t="s">
+      <c r="A68" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="68"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="31">
         <f t="shared" ref="C68:J68" si="31">MIN(T56,T61,T66,T71)</f>
         <v>0.44569999999999999</v>
@@ -16874,10 +16874,10 @@
         <f t="shared" si="32"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="R68" s="63" t="s">
+      <c r="R68" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S68" s="63"/>
+      <c r="S68" s="72"/>
       <c r="T68" s="31">
         <v>0.43519999999999998</v>
       </c>
@@ -16938,10 +16938,10 @@
       <c r="AX68" s="37"/>
     </row>
     <row r="69" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="69"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="41">
         <f>MAX(T56,T61,T66,T71)</f>
         <v>0.76090000000000002</v>
@@ -16998,10 +16998,10 @@
         <f t="shared" si="34"/>
         <v>0.77990000000000004</v>
       </c>
-      <c r="R69" s="63" t="s">
+      <c r="R69" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S69" s="63"/>
+      <c r="S69" s="72"/>
       <c r="T69" s="31">
         <v>0.4325</v>
       </c>
@@ -17062,10 +17062,10 @@
       <c r="AX69" s="37"/>
     </row>
     <row r="70" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="69"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="41">
         <f>AVERAGE(T56,T61,T66,T71)</f>
         <v>0.60192500000000004</v>
@@ -17122,10 +17122,10 @@
         <f t="shared" si="36"/>
         <v>0.72894999999999999</v>
       </c>
-      <c r="R70" s="64" t="s">
+      <c r="R70" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="S70" s="64"/>
+      <c r="S70" s="70"/>
       <c r="T70" s="34"/>
       <c r="U70" s="34"/>
       <c r="V70" s="34"/>
@@ -17174,10 +17174,10 @@
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
       <c r="P71" s="23"/>
-      <c r="R71" s="63" t="s">
+      <c r="R71" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S71" s="63"/>
+      <c r="S71" s="72"/>
       <c r="T71" s="31">
         <v>0.64129999999999998</v>
       </c>
@@ -17238,10 +17238,10 @@
       <c r="AX71" s="37"/>
     </row>
     <row r="72" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R72" s="63" t="s">
+      <c r="R72" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S72" s="63"/>
+      <c r="S72" s="72"/>
       <c r="T72" s="31">
         <v>0.64639999999999997</v>
       </c>
@@ -17302,28 +17302,28 @@
       <c r="AX72" s="37"/>
     </row>
     <row r="73" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
-      <c r="R73" s="63" t="s">
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="R73" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="63"/>
+      <c r="S73" s="72"/>
       <c r="T73" s="31">
         <v>0.6371</v>
       </c>
@@ -17400,10 +17400,10 @@
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
       <c r="P74" s="35"/>
-      <c r="R74" s="63" t="s">
+      <c r="R74" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S74" s="63"/>
+      <c r="S74" s="72"/>
       <c r="T74" s="31">
         <v>0.64019999999999999</v>
       </c>
@@ -17464,32 +17464,32 @@
       <c r="AX74" s="37"/>
     </row>
     <row r="75" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="65" t="s">
+      <c r="B75" s="71"/>
+      <c r="C75" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65" t="s">
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
-      <c r="R75" s="64" t="s">
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+      <c r="R75" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="S75" s="64"/>
+      <c r="S75" s="70"/>
       <c r="T75" s="34"/>
       <c r="U75" s="34"/>
       <c r="V75" s="34"/>
@@ -17522,30 +17522,30 @@
       <c r="AX75" s="37"/>
     </row>
     <row r="76" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="65">
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="55">
         <v>1</v>
       </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65">
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55">
         <v>1</v>
       </c>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
-      <c r="N76" s="65"/>
-      <c r="O76" s="65"/>
-      <c r="P76" s="65"/>
-      <c r="R76" s="63" t="s">
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="R76" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="63"/>
+      <c r="S76" s="72"/>
       <c r="T76" s="43"/>
       <c r="U76" s="43"/>
       <c r="V76" s="43"/>
@@ -17578,28 +17578,28 @@
       <c r="AX76" s="37"/>
     </row>
     <row r="77" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="64"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="72"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="73"/>
-      <c r="R77" s="63" t="s">
+      <c r="B77" s="70"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="65"/>
+      <c r="R77" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S77" s="63"/>
+      <c r="S77" s="72"/>
       <c r="T77" s="43"/>
       <c r="U77" s="43"/>
       <c r="V77" s="43"/>
@@ -17632,34 +17632,34 @@
       <c r="AX77" s="37"/>
     </row>
     <row r="78" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="68" t="s">
+      <c r="A78" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="68"/>
-      <c r="C78" s="76">
+      <c r="B78" s="66"/>
+      <c r="C78" s="68">
         <f>MIN(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.56520000000000004</v>
       </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="74">
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="51">
         <f>MIN(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.4864</v>
       </c>
-      <c r="K78" s="74"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="74"/>
-      <c r="P78" s="74"/>
-      <c r="R78" s="63" t="s">
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="R78" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S78" s="63"/>
+      <c r="S78" s="72"/>
       <c r="T78" s="43"/>
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
@@ -17692,34 +17692,34 @@
       <c r="AX78" s="37"/>
     </row>
     <row r="79" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="69"/>
-      <c r="C79" s="76">
+      <c r="B79" s="67"/>
+      <c r="C79" s="68">
         <f>MAX(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.88039999999999996</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="74">
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="51">
         <f>MAX(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.86140000000000005</v>
       </c>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="74"/>
-      <c r="R79" s="63" t="s">
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="R79" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S79" s="63"/>
+      <c r="S79" s="72"/>
       <c r="T79" s="43"/>
       <c r="U79" s="43"/>
       <c r="V79" s="43"/>
@@ -17752,34 +17752,34 @@
       <c r="AX79" s="37"/>
     </row>
     <row r="80" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="69"/>
-      <c r="C80" s="76">
+      <c r="B80" s="67"/>
+      <c r="C80" s="68">
         <f>AVERAGE(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.77329999999999999</v>
       </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="74">
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="51">
         <f>AVERAGE(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.75155714285714281</v>
       </c>
-      <c r="K80" s="74"/>
-      <c r="L80" s="74"/>
-      <c r="M80" s="74"/>
-      <c r="N80" s="74"/>
-      <c r="O80" s="74"/>
-      <c r="P80" s="74"/>
-      <c r="R80" s="64" t="s">
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="R80" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="S80" s="64"/>
+      <c r="S80" s="70"/>
       <c r="T80" s="34"/>
       <c r="U80" s="34"/>
       <c r="V80" s="34"/>
@@ -17812,28 +17812,28 @@
       <c r="AX80" s="37"/>
     </row>
     <row r="81" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="64"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="72"/>
-      <c r="L81" s="72"/>
-      <c r="M81" s="72"/>
-      <c r="N81" s="72"/>
-      <c r="O81" s="72"/>
-      <c r="P81" s="73"/>
-      <c r="R81" s="63" t="s">
+      <c r="B81" s="70"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="64"/>
+      <c r="N81" s="64"/>
+      <c r="O81" s="64"/>
+      <c r="P81" s="65"/>
+      <c r="R81" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="63"/>
+      <c r="S81" s="72"/>
       <c r="T81" s="43"/>
       <c r="U81" s="43"/>
       <c r="V81" s="43"/>
@@ -17866,34 +17866,34 @@
       <c r="AX81" s="37"/>
     </row>
     <row r="82" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="68" t="s">
+      <c r="A82" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="68"/>
-      <c r="C82" s="76">
+      <c r="B82" s="66"/>
+      <c r="C82" s="68">
         <f>MIN(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.60329999999999995</v>
       </c>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="74">
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="51">
         <f>MIN(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="R82" s="63" t="s">
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="52"/>
+      <c r="O82" s="52"/>
+      <c r="P82" s="52"/>
+      <c r="R82" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="S82" s="63"/>
+      <c r="S82" s="72"/>
       <c r="T82" s="43"/>
       <c r="U82" s="43"/>
       <c r="V82" s="43"/>
@@ -17926,34 +17926,34 @@
       <c r="AX82" s="37"/>
     </row>
     <row r="83" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="69" t="s">
+      <c r="A83" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="69"/>
-      <c r="C83" s="76">
+      <c r="B83" s="67"/>
+      <c r="C83" s="68">
         <f>MAX(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.86409999999999998</v>
       </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="74">
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="51">
         <f>MAX(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="R83" s="63" t="s">
+      <c r="K83" s="52"/>
+      <c r="L83" s="52"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="52"/>
+      <c r="O83" s="52"/>
+      <c r="P83" s="52"/>
+      <c r="R83" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S83" s="63"/>
+      <c r="S83" s="72"/>
       <c r="T83" s="43"/>
       <c r="U83" s="43"/>
       <c r="V83" s="43"/>
@@ -17986,34 +17986,34 @@
       <c r="AX83" s="37"/>
     </row>
     <row r="84" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="76">
+      <c r="B84" s="67"/>
+      <c r="C84" s="68">
         <f>AVERAGE(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.77872857142857133</v>
       </c>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="74">
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="51">
         <f>AVERAGE(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.74030000000000007</v>
       </c>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="R84" s="63" t="s">
+      <c r="K84" s="52"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="52"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="52"/>
+      <c r="R84" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S84" s="63"/>
+      <c r="S84" s="72"/>
       <c r="T84" s="43"/>
       <c r="U84" s="43"/>
       <c r="V84" s="43"/>
@@ -18080,24 +18080,24 @@
       <c r="AX85" s="37"/>
     </row>
     <row r="86" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="49"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="53"/>
+      <c r="L86" s="53"/>
+      <c r="M86" s="53"/>
+      <c r="N86" s="53"/>
+      <c r="O86" s="53"/>
+      <c r="P86" s="53"/>
       <c r="AI86" s="37"/>
       <c r="AJ86" s="37"/>
       <c r="AK86" s="37"/>
@@ -18116,24 +18116,24 @@
       <c r="AX86" s="37"/>
     </row>
     <row r="87" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R87" s="49" t="s">
+      <c r="R87" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="S87" s="49"/>
-      <c r="T87" s="49"/>
-      <c r="U87" s="49"/>
-      <c r="V87" s="49"/>
-      <c r="W87" s="49"/>
-      <c r="X87" s="49"/>
-      <c r="Y87" s="49"/>
-      <c r="Z87" s="49"/>
-      <c r="AA87" s="49"/>
-      <c r="AB87" s="49"/>
-      <c r="AC87" s="49"/>
-      <c r="AD87" s="49"/>
-      <c r="AE87" s="49"/>
-      <c r="AF87" s="49"/>
-      <c r="AG87" s="49"/>
+      <c r="S87" s="53"/>
+      <c r="T87" s="53"/>
+      <c r="U87" s="53"/>
+      <c r="V87" s="53"/>
+      <c r="W87" s="53"/>
+      <c r="X87" s="53"/>
+      <c r="Y87" s="53"/>
+      <c r="Z87" s="53"/>
+      <c r="AA87" s="53"/>
+      <c r="AB87" s="53"/>
+      <c r="AC87" s="53"/>
+      <c r="AD87" s="53"/>
+      <c r="AE87" s="53"/>
+      <c r="AF87" s="53"/>
+      <c r="AG87" s="53"/>
       <c r="AI87" s="37"/>
       <c r="AJ87" s="37"/>
       <c r="AK87" s="37"/>
@@ -18152,46 +18152,46 @@
       <c r="AX87" s="37"/>
     </row>
     <row r="88" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="67"/>
-      <c r="C88" s="65" t="s">
+      <c r="B88" s="54"/>
+      <c r="C88" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65" t="s">
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
-      <c r="N88" s="65"/>
-      <c r="O88" s="65"/>
-      <c r="P88" s="65"/>
-      <c r="R88" s="49" t="s">
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+      <c r="R88" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="S88" s="49"/>
-      <c r="T88" s="49"/>
-      <c r="U88" s="49"/>
-      <c r="V88" s="49"/>
-      <c r="W88" s="49"/>
-      <c r="X88" s="49"/>
-      <c r="Y88" s="49"/>
-      <c r="Z88" s="49"/>
-      <c r="AA88" s="49"/>
-      <c r="AB88" s="49"/>
-      <c r="AC88" s="49"/>
-      <c r="AD88" s="49"/>
-      <c r="AE88" s="49"/>
-      <c r="AF88" s="49"/>
-      <c r="AG88" s="49"/>
+      <c r="S88" s="53"/>
+      <c r="T88" s="53"/>
+      <c r="U88" s="53"/>
+      <c r="V88" s="53"/>
+      <c r="W88" s="53"/>
+      <c r="X88" s="53"/>
+      <c r="Y88" s="53"/>
+      <c r="Z88" s="53"/>
+      <c r="AA88" s="53"/>
+      <c r="AB88" s="53"/>
+      <c r="AC88" s="53"/>
+      <c r="AD88" s="53"/>
+      <c r="AE88" s="53"/>
+      <c r="AF88" s="53"/>
+      <c r="AG88" s="53"/>
       <c r="AI88" s="37"/>
       <c r="AJ88" s="37"/>
       <c r="AK88" s="37"/>
@@ -18210,8 +18210,8 @@
       <c r="AX88" s="37"/>
     </row>
     <row r="89" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
-      <c r="B89" s="67"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="20">
         <v>1</v>
       </c>
@@ -18272,10 +18272,10 @@
       <c r="AX89" s="37"/>
     </row>
     <row r="90" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="80" t="s">
+      <c r="A90" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="80"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22"/>
@@ -18290,28 +18290,28 @@
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
-      <c r="R90" s="55" t="s">
+      <c r="R90" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="S90" s="56"/>
-      <c r="T90" s="51" t="s">
+      <c r="S90" s="57"/>
+      <c r="T90" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="U90" s="52"/>
-      <c r="V90" s="52"/>
-      <c r="W90" s="52"/>
-      <c r="X90" s="52"/>
-      <c r="Y90" s="52"/>
-      <c r="Z90" s="53"/>
-      <c r="AA90" s="51" t="s">
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="61"/>
+      <c r="X90" s="61"/>
+      <c r="Y90" s="61"/>
+      <c r="Z90" s="62"/>
+      <c r="AA90" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AB90" s="52"/>
-      <c r="AC90" s="52"/>
-      <c r="AD90" s="52"/>
-      <c r="AE90" s="52"/>
-      <c r="AF90" s="52"/>
-      <c r="AG90" s="53"/>
+      <c r="AB90" s="61"/>
+      <c r="AC90" s="61"/>
+      <c r="AD90" s="61"/>
+      <c r="AE90" s="61"/>
+      <c r="AF90" s="61"/>
+      <c r="AG90" s="62"/>
       <c r="AI90" s="37"/>
       <c r="AJ90" s="37"/>
       <c r="AK90" s="37"/>
@@ -18390,8 +18390,8 @@
         <f t="shared" si="38"/>
         <v>0.54000000000000714</v>
       </c>
-      <c r="R91" s="57"/>
-      <c r="S91" s="58"/>
+      <c r="R91" s="58"/>
+      <c r="S91" s="59"/>
       <c r="T91" s="20">
         <v>1</v>
       </c>
@@ -18512,10 +18512,10 @@
         <f t="shared" si="40"/>
         <v>-0.54000000000000714</v>
       </c>
-      <c r="R92" s="78" t="s">
+      <c r="R92" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="S92" s="79"/>
+      <c r="S92" s="47"/>
       <c r="T92" s="22"/>
       <c r="U92" s="22"/>
       <c r="V92" s="22"/>
@@ -18608,10 +18608,10 @@
         <f t="shared" si="42"/>
         <v>6.25</v>
       </c>
-      <c r="R93" s="46" t="s">
+      <c r="R93" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S93" s="47"/>
+      <c r="S93" s="49"/>
       <c r="T93" s="31">
         <v>0.76090000000000002</v>
       </c>
@@ -18732,10 +18732,10 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="R94" s="46" t="s">
+      <c r="R94" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S94" s="47"/>
+      <c r="S94" s="49"/>
       <c r="T94" s="31">
         <v>0.75080000000000002</v>
       </c>
@@ -18856,10 +18856,10 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="R95" s="46" t="s">
+      <c r="R95" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S95" s="47"/>
+      <c r="S95" s="49"/>
       <c r="T95" s="31">
         <v>0.75219999999999998</v>
       </c>
@@ -18980,10 +18980,10 @@
         <f t="shared" si="48"/>
         <v>-0.26999999999999247</v>
       </c>
-      <c r="R96" s="46" t="s">
+      <c r="R96" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S96" s="47"/>
+      <c r="S96" s="49"/>
       <c r="T96" s="31">
         <v>0.75039999999999996</v>
       </c>
@@ -19104,10 +19104,10 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R97" s="78" t="s">
+      <c r="R97" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="S97" s="79"/>
+      <c r="S97" s="47"/>
       <c r="T97" s="19"/>
       <c r="U97" s="19"/>
       <c r="V97" s="19"/>
@@ -19140,10 +19140,10 @@
       <c r="AX97" s="37"/>
     </row>
     <row r="98" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="80" t="s">
+      <c r="A98" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="80"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
       <c r="E98" s="30"/>
@@ -19158,10 +19158,10 @@
       <c r="N98" s="30"/>
       <c r="O98" s="30"/>
       <c r="P98" s="30"/>
-      <c r="R98" s="46" t="s">
+      <c r="R98" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S98" s="47"/>
+      <c r="S98" s="49"/>
       <c r="T98" s="31">
         <v>0.73909999999999998</v>
       </c>
@@ -19282,10 +19282,10 @@
         <f t="shared" si="52"/>
         <v>-7.3400000000000016</v>
       </c>
-      <c r="R99" s="46" t="s">
+      <c r="R99" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S99" s="47"/>
+      <c r="S99" s="49"/>
       <c r="T99" s="31">
         <v>0.74119999999999997</v>
       </c>
@@ -19406,10 +19406,10 @@
         <f t="shared" si="54"/>
         <v>-2.4399999999999977</v>
       </c>
-      <c r="R100" s="46" t="s">
+      <c r="R100" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S100" s="47"/>
+      <c r="S100" s="49"/>
       <c r="T100" s="31">
         <v>0.72870000000000001</v>
       </c>
@@ -19530,10 +19530,10 @@
         <f t="shared" si="56"/>
         <v>-16.570000000000007</v>
       </c>
-      <c r="R101" s="46" t="s">
+      <c r="R101" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="47"/>
+      <c r="S101" s="49"/>
       <c r="T101" s="31">
         <v>0.72989999999999999</v>
       </c>
@@ -19672,10 +19672,10 @@
       <c r="AX102" s="37"/>
     </row>
     <row r="103" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="80" t="s">
+      <c r="A103" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="80"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="30"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
@@ -19786,10 +19786,10 @@
       <c r="AX104" s="37"/>
     </row>
     <row r="105" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="80"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="30"/>
@@ -20249,6 +20249,181 @@
     </row>
   </sheetData>
   <mergeCells count="199">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="T1:Z2"/>
+    <mergeCell ref="AA1:AG2"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C1:I2"/>
+    <mergeCell ref="J1:P2"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="R48:S49"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R45:AG45"/>
+    <mergeCell ref="R46:AG46"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="J66:P66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="T48:Z48"/>
+    <mergeCell ref="AA48:AG48"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="J75:P75"/>
+    <mergeCell ref="C76:I76"/>
+    <mergeCell ref="J76:P76"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="J77:P77"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="J81:P81"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="J83:P83"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="J78:P78"/>
+    <mergeCell ref="J79:P79"/>
+    <mergeCell ref="J80:P80"/>
+    <mergeCell ref="C81:I81"/>
     <mergeCell ref="R92:S92"/>
     <mergeCell ref="R93:S93"/>
     <mergeCell ref="A103:B103"/>
@@ -20273,181 +20448,6 @@
     <mergeCell ref="R90:S91"/>
     <mergeCell ref="T90:Z90"/>
     <mergeCell ref="AA90:AG90"/>
-    <mergeCell ref="J81:P81"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="J82:P82"/>
-    <mergeCell ref="C82:I82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="J83:P83"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="J78:P78"/>
-    <mergeCell ref="J79:P79"/>
-    <mergeCell ref="J80:P80"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:I75"/>
-    <mergeCell ref="J75:P75"/>
-    <mergeCell ref="C76:I76"/>
-    <mergeCell ref="J76:P76"/>
-    <mergeCell ref="C77:I77"/>
-    <mergeCell ref="J77:P77"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="J66:P66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="T48:Z48"/>
-    <mergeCell ref="AA48:AG48"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="R48:S49"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R45:AG45"/>
-    <mergeCell ref="R46:AG46"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C1:I2"/>
-    <mergeCell ref="J1:P2"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="T1:Z2"/>
-    <mergeCell ref="AA1:AG2"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A45:P45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -20519,8 +20519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21221,16 +21221,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>

--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\sklearn-kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9610DB-8AD0-472E-84BC-4AD3615A86F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AC4A53-7F53-40A5-9B7B-1A85FDBD9516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil percobaan Split Validasi" sheetId="1" r:id="rId1"/>
-    <sheet name="Visualisasi Line Chart" sheetId="6" r:id="rId2"/>
-    <sheet name="Literasi - Related Work" sheetId="3" r:id="rId3"/>
-    <sheet name="Literasi - Result &amp; Discus" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Visualisasi Line Chart" sheetId="6" r:id="rId3"/>
+    <sheet name="Literasi - Related Work" sheetId="3" r:id="rId4"/>
+    <sheet name="Literasi - Result &amp; Discus" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="145">
   <si>
     <t>Train 80% dan Test 20%</t>
   </si>
@@ -532,6 +533,33 @@
   <si>
     <t>Analisa Ensemble AdaBoost</t>
   </si>
+  <si>
+    <t>Experiments</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Confusion Matrix</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>determination</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +569,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -607,6 +635,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="12">
@@ -813,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -966,6 +1007,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1071,11 +1128,44 @@
     <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5090,979 +5180,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>SVM</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hasil percobaan Split Validasi'!$T$56:$Z$56</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.55979999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50539999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69020000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60870000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75539999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6522</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73909999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-58D7-4380-BBAD-CE22A8AC5E8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>C45</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hasil percobaan Split Validasi'!$T$61:$Z$61</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.76090000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54890000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74460000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82609999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83150000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-58D7-4380-BBAD-CE22A8AC5E8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>GNB</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hasil percobaan Split Validasi'!$T$66:$Z$66</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.44569999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52170000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33150000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7228</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.59240000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69569999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-58D7-4380-BBAD-CE22A8AC5E8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>LR</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hasil percobaan Split Validasi'!$T$71:$Z$71</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.64129999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70109999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6522</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74460000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70109999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7772</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-58D7-4380-BBAD-CE22A8AC5E8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1542034208"/>
-        <c:axId val="1724828688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1542034208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1724828688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1724828688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1542034208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hasil percobaan Split Validasi'!$AA$56:$AG$56</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.48370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47549999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61140000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62229999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75270000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64670000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76900000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B167-4E54-9BED-905FF5879935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hasil percobaan Split Validasi'!$AA$61:$AG$61</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.72009999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74729999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73640000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80710000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.77990000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B167-4E54-9BED-905FF5879935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hasil percobaan Split Validasi'!$AA$66:$AG$66</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.4022</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39129999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54349999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61960000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B167-4E54-9BED-905FF5879935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hasil percobaan Split Validasi'!$AA$71:$AG$71</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.61409999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3261</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68210000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61140000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73909999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68479999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76090000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B167-4E54-9BED-905FF5879935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1829373664"/>
-        <c:axId val="1827389216"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1829373664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1827389216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1827389216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1829373664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6264,86 +5381,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9401,1025 +8438,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10645,82 +8663,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>237438</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161746</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>138098</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76415</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F519A896-6457-4E89-946C-A8F8AFBB9E76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>17972</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>511698</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>130330</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C9143C-84A2-41AE-BFF6-14B1B7C488A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10987,8 +8929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX120"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11011,42 +8953,42 @@
   <sheetData>
     <row r="1" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="T1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62" t="s">
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
       <c r="AI1" s="27"/>
       <c r="AJ1" s="27"/>
       <c r="AK1" s="27"/>
@@ -11067,34 +9009,34 @@
     <row r="2" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
       <c r="AI2" s="27"/>
       <c r="AJ2" s="27"/>
       <c r="AK2" s="27"/>
@@ -11113,42 +9055,42 @@
       <c r="AX2" s="27"/>
     </row>
     <row r="3" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="R3" s="57" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="R3" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
       <c r="AI3" s="27"/>
       <c r="AJ3" s="27"/>
       <c r="AK3" s="27"/>
@@ -11167,24 +9109,24 @@
       <c r="AX3" s="27"/>
     </row>
     <row r="4" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
       <c r="AI4" s="27"/>
       <c r="AJ4" s="27"/>
       <c r="AK4" s="27"/>
@@ -11237,50 +9179,50 @@
       <c r="AX5" s="27"/>
     </row>
     <row r="6" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73" t="s">
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="R6" s="63" t="s">
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="R6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="64"/>
-      <c r="T6" s="59" t="s">
+      <c r="S6" s="70"/>
+      <c r="T6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="59" t="s">
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="61"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="67"/>
       <c r="AI6" s="27"/>
       <c r="AJ6" s="27"/>
       <c r="AK6" s="27"/>
@@ -11299,8 +9241,8 @@
       <c r="AX6" s="27"/>
     </row>
     <row r="7" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
@@ -11343,8 +9285,8 @@
       <c r="P7" s="11">
         <v>7</v>
       </c>
-      <c r="R7" s="65"/>
-      <c r="S7" s="66"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="11">
         <v>1</v>
       </c>
@@ -11405,10 +9347,10 @@
       <c r="AX7" s="27"/>
     </row>
     <row r="8" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -11423,10 +9365,10 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="R8" s="69" t="s">
+      <c r="R8" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="70"/>
+      <c r="S8" s="76"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -11459,10 +9401,10 @@
       <c r="AX8" s="27"/>
     </row>
     <row r="9" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="50">
         <v>0.71740000000000004</v>
       </c>
@@ -11505,10 +9447,10 @@
       <c r="P9" s="51">
         <v>0.83699999999999997</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="R9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="55"/>
+      <c r="S9" s="61"/>
       <c r="T9" s="22">
         <v>0.75</v>
       </c>
@@ -11569,10 +9511,10 @@
       <c r="AX9" s="27"/>
     </row>
     <row r="10" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="50">
         <v>0.71009999999999995</v>
       </c>
@@ -11615,10 +9557,10 @@
       <c r="P10" s="51">
         <v>0.83689999999999998</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="R10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="55"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="22">
         <v>0.74199999999999999</v>
       </c>
@@ -11679,10 +9621,10 @@
       <c r="AX10" s="27"/>
     </row>
     <row r="11" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="50">
         <v>0.70660000000000001</v>
       </c>
@@ -11725,10 +9667,10 @@
       <c r="P11" s="51">
         <v>0.83399999999999996</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="55"/>
+      <c r="S11" s="61"/>
       <c r="T11" s="22">
         <v>0.73850000000000005</v>
       </c>
@@ -11789,10 +9731,10 @@
       <c r="AX11" s="27"/>
     </row>
     <row r="12" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="50">
         <v>0.70569999999999999</v>
       </c>
@@ -11835,10 +9777,10 @@
       <c r="P12" s="51">
         <v>0.83460000000000001</v>
       </c>
-      <c r="R12" s="54" t="s">
+      <c r="R12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="55"/>
+      <c r="S12" s="61"/>
       <c r="T12" s="22">
         <v>0.73699999999999999</v>
       </c>
@@ -11899,10 +9841,10 @@
       <c r="AX12" s="27"/>
     </row>
     <row r="13" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
@@ -11917,10 +9859,10 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52"/>
-      <c r="R13" s="67" t="s">
+      <c r="R13" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="68"/>
+      <c r="S13" s="74"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
@@ -11953,10 +9895,10 @@
       <c r="AX13" s="27"/>
     </row>
     <row r="14" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="50">
         <v>0.70109999999999995</v>
       </c>
@@ -11999,10 +9941,10 @@
       <c r="P14" s="51">
         <v>0.84240000000000004</v>
       </c>
-      <c r="R14" s="54" t="s">
+      <c r="R14" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="55"/>
+      <c r="S14" s="61"/>
       <c r="T14" s="22">
         <v>0.69569999999999999</v>
       </c>
@@ -12063,10 +10005,10 @@
       <c r="AX14" s="27"/>
     </row>
     <row r="15" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="50">
         <v>0.69579999999999997</v>
       </c>
@@ -12109,10 +10051,10 @@
       <c r="P15" s="51">
         <v>0.83840000000000003</v>
       </c>
-      <c r="R15" s="54" t="s">
+      <c r="R15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="55"/>
+      <c r="S15" s="61"/>
       <c r="T15" s="22">
         <v>0.69099999999999995</v>
       </c>
@@ -12173,10 +10115,10 @@
       <c r="AX15" s="27"/>
     </row>
     <row r="16" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="50">
         <v>0.69340000000000002</v>
       </c>
@@ -12219,10 +10161,10 @@
       <c r="P16" s="51">
         <v>0.83889999999999998</v>
       </c>
-      <c r="R16" s="54" t="s">
+      <c r="R16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="55"/>
+      <c r="S16" s="61"/>
       <c r="T16" s="22">
         <v>0.68959999999999999</v>
       </c>
@@ -12283,10 +10225,10 @@
       <c r="AX16" s="27"/>
     </row>
     <row r="17" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="50">
         <v>0.6925</v>
       </c>
@@ -12329,10 +10271,10 @@
       <c r="P17" s="51">
         <v>0.83819999999999995</v>
       </c>
-      <c r="R17" s="54" t="s">
+      <c r="R17" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="55"/>
+      <c r="S17" s="61"/>
       <c r="T17" s="22">
         <v>0.68889999999999996</v>
       </c>
@@ -12393,10 +10335,10 @@
       <c r="AX17" s="27"/>
     </row>
     <row r="18" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
@@ -12411,10 +10353,10 @@
       <c r="N18" s="52"/>
       <c r="O18" s="52"/>
       <c r="P18" s="52"/>
-      <c r="R18" s="67" t="s">
+      <c r="R18" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="S18" s="68"/>
+      <c r="S18" s="74"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
       <c r="V18" s="24"/>
@@ -12447,10 +10389,10 @@
       <c r="AX18" s="27"/>
     </row>
     <row r="19" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="50">
         <v>0.75</v>
       </c>
@@ -12493,10 +10435,10 @@
       <c r="P19" s="51">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R19" s="54" t="s">
+      <c r="R19" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="55"/>
+      <c r="S19" s="61"/>
       <c r="T19" s="22">
         <v>0.76629999999999998</v>
       </c>
@@ -12557,10 +10499,10 @@
       <c r="AX19" s="27"/>
     </row>
     <row r="20" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="50">
         <v>0.74780000000000002</v>
       </c>
@@ -12603,10 +10545,10 @@
       <c r="P20" s="51">
         <v>0.80189999999999995</v>
       </c>
-      <c r="R20" s="54" t="s">
+      <c r="R20" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="55"/>
+      <c r="S20" s="61"/>
       <c r="T20" s="22">
         <v>0.76759999999999995</v>
       </c>
@@ -12667,10 +10609,10 @@
       <c r="AX20" s="27"/>
     </row>
     <row r="21" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="50">
         <v>0.74329999999999996</v>
       </c>
@@ -12713,10 +10655,10 @@
       <c r="P21" s="51">
         <v>0.80120000000000002</v>
       </c>
-      <c r="R21" s="54" t="s">
+      <c r="R21" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="55"/>
+      <c r="S21" s="61"/>
       <c r="T21" s="22">
         <v>0.7591</v>
       </c>
@@ -12777,10 +10719,10 @@
       <c r="AX21" s="27"/>
     </row>
     <row r="22" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="50">
         <v>0.74450000000000005</v>
       </c>
@@ -12823,10 +10765,10 @@
       <c r="P22" s="51">
         <v>0.8014</v>
       </c>
-      <c r="R22" s="54" t="s">
+      <c r="R22" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="55"/>
+      <c r="S22" s="61"/>
       <c r="T22" s="22">
         <v>0.75960000000000005</v>
       </c>
@@ -12887,10 +10829,10 @@
       <c r="AX22" s="27"/>
     </row>
     <row r="23" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -12905,10 +10847,10 @@
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
-      <c r="R23" s="67" t="s">
+      <c r="R23" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="S23" s="68"/>
+      <c r="S23" s="74"/>
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
@@ -12941,10 +10883,10 @@
       <c r="AX23" s="27"/>
     </row>
     <row r="24" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="50">
         <v>0.6522</v>
       </c>
@@ -12987,10 +10929,10 @@
       <c r="P24" s="51">
         <v>0.77170000000000005</v>
       </c>
-      <c r="R24" s="71" t="s">
+      <c r="R24" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="71"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="22">
         <v>0.65759999999999996</v>
       </c>
@@ -13051,10 +10993,10 @@
       <c r="AX24" s="27"/>
     </row>
     <row r="25" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="50">
         <v>0.65329999999999999</v>
       </c>
@@ -13097,10 +11039,10 @@
       <c r="P25" s="51">
         <v>0.77149999999999996</v>
       </c>
-      <c r="R25" s="71" t="s">
+      <c r="R25" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="71"/>
+      <c r="S25" s="77"/>
       <c r="T25" s="22">
         <v>0.66120000000000001</v>
       </c>
@@ -13161,10 +11103,10 @@
       <c r="AX25" s="27"/>
     </row>
     <row r="26" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="50">
         <v>0.64300000000000002</v>
       </c>
@@ -13207,10 +11149,10 @@
       <c r="P26" s="51">
         <v>0.76759999999999995</v>
       </c>
-      <c r="R26" s="71" t="s">
+      <c r="R26" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="71"/>
+      <c r="S26" s="77"/>
       <c r="T26" s="22">
         <v>0.64870000000000005</v>
       </c>
@@ -13271,10 +11213,10 @@
       <c r="AX26" s="27"/>
     </row>
     <row r="27" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="50">
         <v>0.64229999999999998</v>
       </c>
@@ -13317,10 +11259,10 @@
       <c r="P27" s="51">
         <v>0.76790000000000003</v>
       </c>
-      <c r="R27" s="71" t="s">
+      <c r="R27" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="71"/>
+      <c r="S27" s="77"/>
       <c r="T27" s="22">
         <v>0.64949999999999997</v>
       </c>
@@ -13381,10 +11323,10 @@
       <c r="AX27" s="27"/>
     </row>
     <row r="28" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
       <c r="E28" s="52"/>
@@ -13399,10 +11341,10 @@
       <c r="N28" s="52"/>
       <c r="O28" s="52"/>
       <c r="P28" s="52"/>
-      <c r="R28" s="72" t="s">
+      <c r="R28" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="72"/>
+      <c r="S28" s="78"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
       <c r="V28" s="24"/>
@@ -13435,10 +11377,10 @@
       <c r="AX28" s="27"/>
     </row>
     <row r="29" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="50">
         <v>0.66849999999999998</v>
       </c>
@@ -13481,10 +11423,10 @@
       <c r="P29" s="51">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R29" s="71" t="s">
+      <c r="R29" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="71"/>
+      <c r="S29" s="77"/>
       <c r="T29" s="22">
         <v>0.66300000000000003</v>
       </c>
@@ -13545,10 +11487,10 @@
       <c r="AX29" s="27"/>
     </row>
     <row r="30" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="50">
         <v>0.66110000000000002</v>
       </c>
@@ -13591,10 +11533,10 @@
       <c r="P30" s="51">
         <v>0.81259999999999999</v>
       </c>
-      <c r="R30" s="71" t="s">
+      <c r="R30" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="71"/>
+      <c r="S30" s="77"/>
       <c r="T30" s="22">
         <v>0.65510000000000002</v>
       </c>
@@ -13655,10 +11597,10 @@
       <c r="AX30" s="27"/>
     </row>
     <row r="31" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="50">
         <v>0.66259999999999997</v>
       </c>
@@ -13701,10 +11643,10 @@
       <c r="P31" s="51">
         <v>0.81430000000000002</v>
       </c>
-      <c r="R31" s="71" t="s">
+      <c r="R31" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="71"/>
+      <c r="S31" s="77"/>
       <c r="T31" s="22">
         <v>0.65680000000000005</v>
       </c>
@@ -13765,10 +11707,10 @@
       <c r="AX31" s="27"/>
     </row>
     <row r="32" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="50">
         <v>0.66049999999999998</v>
       </c>
@@ -13811,10 +11753,10 @@
       <c r="P32" s="51">
         <v>0.81279999999999997</v>
       </c>
-      <c r="R32" s="71" t="s">
+      <c r="R32" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="71"/>
+      <c r="S32" s="77"/>
       <c r="T32" s="22">
         <v>0.65429999999999999</v>
       </c>
@@ -13875,10 +11817,10 @@
       <c r="AX32" s="27"/>
     </row>
     <row r="33" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
@@ -13893,10 +11835,10 @@
       <c r="N33" s="52"/>
       <c r="O33" s="52"/>
       <c r="P33" s="52"/>
-      <c r="R33" s="72" t="s">
+      <c r="R33" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="S33" s="72"/>
+      <c r="S33" s="78"/>
       <c r="T33" s="24"/>
       <c r="U33" s="24"/>
       <c r="V33" s="24"/>
@@ -13929,10 +11871,10 @@
       <c r="AX33" s="27"/>
     </row>
     <row r="34" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="55"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="50">
         <v>0.7228</v>
       </c>
@@ -13975,10 +11917,10 @@
       <c r="P34" s="51">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R34" s="71" t="s">
+      <c r="R34" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="71"/>
+      <c r="S34" s="77"/>
       <c r="T34" s="22">
         <v>0.7228</v>
       </c>
@@ -14039,10 +11981,10 @@
       <c r="AX34" s="27"/>
     </row>
     <row r="35" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="55"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="50">
         <v>0.72009999999999996</v>
       </c>
@@ -14085,10 +12027,10 @@
       <c r="P35" s="51">
         <v>0.81489999999999996</v>
       </c>
-      <c r="R35" s="71" t="s">
+      <c r="R35" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S35" s="71"/>
+      <c r="S35" s="77"/>
       <c r="T35" s="22">
         <v>0.72009999999999996</v>
       </c>
@@ -14149,10 +12091,10 @@
       <c r="AX35" s="27"/>
     </row>
     <row r="36" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="55"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="50">
         <v>0.71740000000000004</v>
       </c>
@@ -14195,10 +12137,10 @@
       <c r="P36" s="51">
         <v>0.81520000000000004</v>
       </c>
-      <c r="R36" s="71" t="s">
+      <c r="R36" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="71"/>
+      <c r="S36" s="77"/>
       <c r="T36" s="22">
         <v>0.71740000000000004</v>
       </c>
@@ -14259,10 +12201,10 @@
       <c r="AX36" s="27"/>
     </row>
     <row r="37" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="55"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="50">
         <v>0.71819999999999995</v>
       </c>
@@ -14305,10 +12247,10 @@
       <c r="P37" s="51">
         <v>0.81499999999999995</v>
       </c>
-      <c r="R37" s="71" t="s">
+      <c r="R37" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="71"/>
+      <c r="S37" s="77"/>
       <c r="T37" s="22">
         <v>0.71819999999999995</v>
       </c>
@@ -14369,10 +12311,10 @@
       <c r="AX37" s="27"/>
     </row>
     <row r="38" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
@@ -14387,10 +12329,10 @@
       <c r="N38" s="52"/>
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
-      <c r="R38" s="72" t="s">
+      <c r="R38" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="S38" s="72"/>
+      <c r="S38" s="78"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="24"/>
@@ -14423,10 +12365,10 @@
       <c r="AX38" s="27"/>
     </row>
     <row r="39" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="50">
         <v>0.68479999999999996</v>
       </c>
@@ -14469,10 +12411,10 @@
       <c r="P39" s="51">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R39" s="71" t="s">
+      <c r="R39" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S39" s="71"/>
+      <c r="S39" s="77"/>
       <c r="T39" s="22">
         <v>0.68479999999999996</v>
       </c>
@@ -14533,10 +12475,10 @@
       <c r="AX39" s="27"/>
     </row>
     <row r="40" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="50">
         <v>0.68020000000000003</v>
       </c>
@@ -14579,10 +12521,10 @@
       <c r="P40" s="51">
         <v>0.80110000000000003</v>
       </c>
-      <c r="R40" s="71" t="s">
+      <c r="R40" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S40" s="71"/>
+      <c r="S40" s="77"/>
       <c r="T40" s="22">
         <v>0.68020000000000003</v>
       </c>
@@ -14643,10 +12585,10 @@
       <c r="AX40" s="27"/>
     </row>
     <row r="41" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="55"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="50">
         <v>0.66830000000000001</v>
       </c>
@@ -14689,10 +12631,10 @@
       <c r="P41" s="51">
         <v>0.8014</v>
       </c>
-      <c r="R41" s="71" t="s">
+      <c r="R41" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="71"/>
+      <c r="S41" s="77"/>
       <c r="T41" s="22">
         <v>0.66830000000000001</v>
       </c>
@@ -14753,10 +12695,10 @@
       <c r="AX41" s="27"/>
     </row>
     <row r="42" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="50">
         <v>0.6321</v>
       </c>
@@ -14799,10 +12741,10 @@
       <c r="P42" s="51">
         <v>0.79990000000000006</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="71"/>
+      <c r="S42" s="77"/>
       <c r="T42" s="22">
         <v>0.6321</v>
       </c>
@@ -14913,8 +12855,8 @@
       <c r="AX43" s="27"/>
     </row>
     <row r="44" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -14963,42 +12905,42 @@
       <c r="AX44" s="27"/>
     </row>
     <row r="45" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="R45" s="57" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="R45" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="S45" s="57"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="57"/>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="57"/>
-      <c r="AB45" s="57"/>
-      <c r="AC45" s="57"/>
-      <c r="AD45" s="57"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="57"/>
-      <c r="AG45" s="57"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
       <c r="AI45" s="27"/>
       <c r="AJ45" s="27"/>
       <c r="AK45" s="27"/>
@@ -15017,42 +12959,42 @@
       <c r="AX45" s="27"/>
     </row>
     <row r="46" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="R46" s="57" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="R46" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="57"/>
-      <c r="AC46" s="57"/>
-      <c r="AD46" s="57"/>
-      <c r="AE46" s="57"/>
-      <c r="AF46" s="57"/>
-      <c r="AG46" s="57"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="63"/>
+      <c r="AB46" s="63"/>
+      <c r="AC46" s="63"/>
+      <c r="AD46" s="63"/>
+      <c r="AE46" s="63"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
       <c r="AI46" s="27"/>
       <c r="AJ46" s="27"/>
       <c r="AK46" s="27"/>
@@ -15121,50 +13063,50 @@
       <c r="AX47" s="27"/>
     </row>
     <row r="48" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="73" t="s">
+      <c r="B48" s="81"/>
+      <c r="C48" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73" t="s">
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="R48" s="73" t="s">
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
+      <c r="R48" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73" t="s">
+      <c r="S48" s="79"/>
+      <c r="T48" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="73"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="73"/>
-      <c r="AA48" s="73" t="s">
+      <c r="U48" s="79"/>
+      <c r="V48" s="79"/>
+      <c r="W48" s="79"/>
+      <c r="X48" s="79"/>
+      <c r="Y48" s="79"/>
+      <c r="Z48" s="79"/>
+      <c r="AA48" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AB48" s="73"/>
-      <c r="AC48" s="73"/>
-      <c r="AD48" s="73"/>
-      <c r="AE48" s="73"/>
-      <c r="AF48" s="73"/>
-      <c r="AG48" s="73"/>
+      <c r="AB48" s="79"/>
+      <c r="AC48" s="79"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="79"/>
+      <c r="AF48" s="79"/>
+      <c r="AG48" s="79"/>
       <c r="AI48" s="27"/>
       <c r="AJ48" s="27"/>
       <c r="AK48" s="27"/>
@@ -15183,8 +13125,8 @@
       <c r="AX48" s="27"/>
     </row>
     <row r="49" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="11">
         <v>1</v>
       </c>
@@ -15227,8 +13169,8 @@
       <c r="P49" s="11">
         <v>7</v>
       </c>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
       <c r="T49" s="11">
         <v>1</v>
       </c>
@@ -15289,10 +13231,10 @@
       <c r="AX49" s="27"/>
     </row>
     <row r="50" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="76"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="22">
         <f>MIN(C9,C14,C19,C24,C34,C39)</f>
         <v>0.6522</v>
@@ -15349,10 +13291,10 @@
         <f t="shared" si="0"/>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R50" s="74" t="s">
+      <c r="R50" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="74"/>
+      <c r="S50" s="80"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
@@ -15385,10 +13327,10 @@
       <c r="AX50" s="27"/>
     </row>
     <row r="51" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="77"/>
+      <c r="B51" s="83"/>
       <c r="C51" s="31">
         <f>MAX(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.75</v>
@@ -15445,10 +13387,10 @@
         <f t="shared" si="1"/>
         <v>0.84240000000000004</v>
       </c>
-      <c r="R51" s="71" t="s">
+      <c r="R51" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="71"/>
+      <c r="S51" s="77"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
       <c r="V51" s="33"/>
@@ -15481,10 +13423,10 @@
       <c r="AX51" s="27"/>
     </row>
     <row r="52" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="77"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="31">
         <f t="shared" ref="C52:P52" si="2">AVERAGE(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.69954285714285713</v>
@@ -15541,10 +13483,10 @@
         <f t="shared" si="2"/>
         <v>0.813642857142857</v>
       </c>
-      <c r="R52" s="71" t="s">
+      <c r="R52" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S52" s="71"/>
+      <c r="S52" s="77"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
       <c r="V52" s="33"/>
@@ -15577,10 +13519,10 @@
       <c r="AX52" s="27"/>
     </row>
     <row r="53" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R53" s="71" t="s">
+      <c r="R53" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S53" s="71"/>
+      <c r="S53" s="77"/>
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
       <c r="V53" s="33"/>
@@ -15613,10 +13555,10 @@
       <c r="AX53" s="27"/>
     </row>
     <row r="54" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R54" s="71" t="s">
+      <c r="R54" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="71"/>
+      <c r="S54" s="77"/>
       <c r="T54" s="11">
         <v>1</v>
       </c>
@@ -15677,28 +13619,28 @@
       <c r="AX54" s="27"/>
     </row>
     <row r="55" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="R55" s="72" t="s">
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="R55" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="S55" s="72"/>
+      <c r="S55" s="78"/>
       <c r="T55" s="24"/>
       <c r="U55" s="24"/>
       <c r="V55" s="24"/>
@@ -15747,10 +13689,10 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="25"/>
-      <c r="R56" s="71" t="s">
+      <c r="R56" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S56" s="71"/>
+      <c r="S56" s="77"/>
       <c r="T56" s="22">
         <v>0.55979999999999996</v>
       </c>
@@ -15811,32 +13753,32 @@
       <c r="AX56" s="27"/>
     </row>
     <row r="57" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="73" t="s">
+      <c r="B57" s="81"/>
+      <c r="C57" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73" t="s">
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="R57" s="71" t="s">
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="R57" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S57" s="71"/>
+      <c r="S57" s="77"/>
       <c r="T57" s="22">
         <v>0.55189999999999995</v>
       </c>
@@ -15897,8 +13839,8 @@
       <c r="AX57" s="27"/>
     </row>
     <row r="58" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="75"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="81"/>
       <c r="C58" s="11">
         <v>1</v>
       </c>
@@ -15941,10 +13883,10 @@
       <c r="P58" s="11">
         <v>7</v>
       </c>
-      <c r="R58" s="71" t="s">
+      <c r="R58" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S58" s="71"/>
+      <c r="S58" s="77"/>
       <c r="T58" s="22">
         <v>0.55700000000000005</v>
       </c>
@@ -16005,10 +13947,10 @@
       <c r="AX58" s="27"/>
     </row>
     <row r="59" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="76"/>
+      <c r="B59" s="82"/>
       <c r="C59" s="22">
         <f>MIN(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.65759999999999996</v>
@@ -16065,10 +14007,10 @@
         <f t="shared" ref="P59" si="15">MIN(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R59" s="71" t="s">
+      <c r="R59" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="71"/>
+      <c r="S59" s="77"/>
       <c r="T59" s="22">
         <v>0.53879999999999995</v>
       </c>
@@ -16129,10 +14071,10 @@
       <c r="AX59" s="27"/>
     </row>
     <row r="60" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="77"/>
+      <c r="B60" s="83"/>
       <c r="C60" s="31">
         <f>MAX(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.76629999999999998</v>
@@ -16189,10 +14131,10 @@
         <f t="shared" ref="P60" si="23">MAX(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="R60" s="72" t="s">
+      <c r="R60" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="S60" s="72"/>
+      <c r="S60" s="78"/>
       <c r="T60" s="24"/>
       <c r="U60" s="24"/>
       <c r="V60" s="24"/>
@@ -16225,10 +14167,10 @@
       <c r="AX60" s="27"/>
     </row>
     <row r="61" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77" t="s">
+      <c r="A61" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="77"/>
+      <c r="B61" s="83"/>
       <c r="C61" s="31">
         <f>AVERAGE(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.70574285714285712</v>
@@ -16285,10 +14227,10 @@
         <f t="shared" ref="P61" si="30">AVERAGE(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.82257142857142873</v>
       </c>
-      <c r="R61" s="71" t="s">
+      <c r="R61" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S61" s="71"/>
+      <c r="S61" s="77"/>
       <c r="T61" s="22">
         <v>0.76090000000000002</v>
       </c>
@@ -16349,10 +14291,10 @@
       <c r="AX61" s="27"/>
     </row>
     <row r="62" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R62" s="71" t="s">
+      <c r="R62" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S62" s="71"/>
+      <c r="S62" s="77"/>
       <c r="T62" s="22">
         <v>0.7581</v>
       </c>
@@ -16413,10 +14355,10 @@
       <c r="AX62" s="27"/>
     </row>
     <row r="63" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R63" s="71" t="s">
+      <c r="R63" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S63" s="71"/>
+      <c r="S63" s="77"/>
       <c r="T63" s="22">
         <v>0.75390000000000001</v>
       </c>
@@ -16477,28 +14419,28 @@
       <c r="AX63" s="27"/>
     </row>
     <row r="64" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="R64" s="71" t="s">
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="R64" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S64" s="71"/>
+      <c r="S64" s="77"/>
       <c r="T64" s="22">
         <v>0.75490000000000002</v>
       </c>
@@ -16575,10 +14517,10 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
       <c r="P65" s="25"/>
-      <c r="R65" s="72" t="s">
+      <c r="R65" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="S65" s="72"/>
+      <c r="S65" s="78"/>
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
       <c r="V65" s="24"/>
@@ -16611,32 +14553,32 @@
       <c r="AX65" s="27"/>
     </row>
     <row r="66" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="73" t="s">
+      <c r="B66" s="81"/>
+      <c r="C66" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73" t="s">
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="73"/>
-      <c r="L66" s="73"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="73"/>
-      <c r="O66" s="73"/>
-      <c r="P66" s="73"/>
-      <c r="R66" s="71" t="s">
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="R66" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="71"/>
+      <c r="S66" s="77"/>
       <c r="T66" s="22">
         <v>0.44569999999999999</v>
       </c>
@@ -16697,8 +14639,8 @@
       <c r="AX66" s="27"/>
     </row>
     <row r="67" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="81"/>
       <c r="C67" s="11">
         <v>1</v>
       </c>
@@ -16741,10 +14683,10 @@
       <c r="P67" s="11">
         <v>7</v>
       </c>
-      <c r="R67" s="71" t="s">
+      <c r="R67" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S67" s="71"/>
+      <c r="S67" s="77"/>
       <c r="T67" s="22">
         <v>0.48749999999999999</v>
       </c>
@@ -16805,10 +14747,10 @@
       <c r="AX67" s="27"/>
     </row>
     <row r="68" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="76"/>
+      <c r="B68" s="82"/>
       <c r="C68" s="22">
         <f t="shared" ref="C68:J68" si="31">MIN(T56,T61,T66,T71)</f>
         <v>0.44569999999999999</v>
@@ -16865,10 +14807,10 @@
         <f t="shared" si="32"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="R68" s="71" t="s">
+      <c r="R68" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S68" s="71"/>
+      <c r="S68" s="77"/>
       <c r="T68" s="22">
         <v>0.43519999999999998</v>
       </c>
@@ -16929,10 +14871,10 @@
       <c r="AX68" s="27"/>
     </row>
     <row r="69" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="77"/>
+      <c r="B69" s="83"/>
       <c r="C69" s="31">
         <f>MAX(T56,T61,T66,T71)</f>
         <v>0.76090000000000002</v>
@@ -16989,10 +14931,10 @@
         <f t="shared" si="34"/>
         <v>0.77990000000000004</v>
       </c>
-      <c r="R69" s="71" t="s">
+      <c r="R69" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S69" s="71"/>
+      <c r="S69" s="77"/>
       <c r="T69" s="22">
         <v>0.4325</v>
       </c>
@@ -17053,10 +14995,10 @@
       <c r="AX69" s="27"/>
     </row>
     <row r="70" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77" t="s">
+      <c r="A70" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="77"/>
+      <c r="B70" s="83"/>
       <c r="C70" s="31">
         <f>AVERAGE(T56,T61,T66,T71)</f>
         <v>0.60192500000000004</v>
@@ -17113,10 +15055,10 @@
         <f t="shared" si="36"/>
         <v>0.72894999999999999</v>
       </c>
-      <c r="R70" s="72" t="s">
+      <c r="R70" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="S70" s="72"/>
+      <c r="S70" s="78"/>
       <c r="T70" s="24"/>
       <c r="U70" s="24"/>
       <c r="V70" s="24"/>
@@ -17165,10 +15107,10 @@
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
-      <c r="R71" s="71" t="s">
+      <c r="R71" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S71" s="71"/>
+      <c r="S71" s="77"/>
       <c r="T71" s="22">
         <v>0.64129999999999998</v>
       </c>
@@ -17229,10 +15171,10 @@
       <c r="AX71" s="27"/>
     </row>
     <row r="72" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R72" s="71" t="s">
+      <c r="R72" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S72" s="71"/>
+      <c r="S72" s="77"/>
       <c r="T72" s="22">
         <v>0.64639999999999997</v>
       </c>
@@ -17293,28 +15235,28 @@
       <c r="AX72" s="27"/>
     </row>
     <row r="73" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
-      <c r="R73" s="71" t="s">
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="R73" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="71"/>
+      <c r="S73" s="77"/>
       <c r="T73" s="22">
         <v>0.6371</v>
       </c>
@@ -17391,10 +15333,10 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
-      <c r="R74" s="71" t="s">
+      <c r="R74" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S74" s="71"/>
+      <c r="S74" s="77"/>
       <c r="T74" s="22">
         <v>0.64019999999999999</v>
       </c>
@@ -17455,32 +15397,32 @@
       <c r="AX74" s="27"/>
     </row>
     <row r="75" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="78"/>
-      <c r="C75" s="73" t="s">
+      <c r="B75" s="84"/>
+      <c r="C75" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73" t="s">
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="73"/>
-      <c r="N75" s="73"/>
-      <c r="O75" s="73"/>
-      <c r="P75" s="73"/>
-      <c r="R75" s="72" t="s">
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="R75" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="S75" s="72"/>
+      <c r="S75" s="78"/>
       <c r="T75" s="24"/>
       <c r="U75" s="24"/>
       <c r="V75" s="24"/>
@@ -17513,30 +15455,30 @@
       <c r="AX75" s="27"/>
     </row>
     <row r="76" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="73">
+      <c r="A76" s="84"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="79">
         <v>1</v>
       </c>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73">
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79">
         <v>1</v>
       </c>
-      <c r="K76" s="73"/>
-      <c r="L76" s="73"/>
-      <c r="M76" s="73"/>
-      <c r="N76" s="73"/>
-      <c r="O76" s="73"/>
-      <c r="P76" s="73"/>
-      <c r="R76" s="71" t="s">
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
+      <c r="R76" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="71"/>
+      <c r="S76" s="77"/>
       <c r="T76" s="33"/>
       <c r="U76" s="33"/>
       <c r="V76" s="33"/>
@@ -17569,28 +15511,28 @@
       <c r="AX76" s="27"/>
     </row>
     <row r="77" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="80"/>
-      <c r="L77" s="80"/>
-      <c r="M77" s="80"/>
-      <c r="N77" s="80"/>
-      <c r="O77" s="80"/>
-      <c r="P77" s="81"/>
-      <c r="R77" s="71" t="s">
+      <c r="B77" s="78"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="86"/>
+      <c r="L77" s="86"/>
+      <c r="M77" s="86"/>
+      <c r="N77" s="86"/>
+      <c r="O77" s="86"/>
+      <c r="P77" s="87"/>
+      <c r="R77" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S77" s="71"/>
+      <c r="S77" s="77"/>
       <c r="T77" s="33"/>
       <c r="U77" s="33"/>
       <c r="V77" s="33"/>
@@ -17623,34 +15565,34 @@
       <c r="AX77" s="27"/>
     </row>
     <row r="78" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="76"/>
-      <c r="C78" s="84">
+      <c r="B78" s="82"/>
+      <c r="C78" s="90">
         <f>MIN(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.56520000000000004</v>
       </c>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="82">
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="88">
         <f>MIN(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.4864</v>
       </c>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="82"/>
-      <c r="O78" s="82"/>
-      <c r="P78" s="82"/>
-      <c r="R78" s="71" t="s">
+      <c r="K78" s="88"/>
+      <c r="L78" s="88"/>
+      <c r="M78" s="88"/>
+      <c r="N78" s="88"/>
+      <c r="O78" s="88"/>
+      <c r="P78" s="88"/>
+      <c r="R78" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S78" s="71"/>
+      <c r="S78" s="77"/>
       <c r="T78" s="33"/>
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
@@ -17683,34 +15625,34 @@
       <c r="AX78" s="27"/>
     </row>
     <row r="79" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="77"/>
-      <c r="C79" s="84">
+      <c r="B79" s="83"/>
+      <c r="C79" s="90">
         <f>MAX(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.88039999999999996</v>
       </c>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="82">
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="88">
         <f>MAX(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.86140000000000005</v>
       </c>
-      <c r="K79" s="82"/>
-      <c r="L79" s="82"/>
-      <c r="M79" s="82"/>
-      <c r="N79" s="82"/>
-      <c r="O79" s="82"/>
-      <c r="P79" s="82"/>
-      <c r="R79" s="71" t="s">
+      <c r="K79" s="88"/>
+      <c r="L79" s="88"/>
+      <c r="M79" s="88"/>
+      <c r="N79" s="88"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="88"/>
+      <c r="R79" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S79" s="71"/>
+      <c r="S79" s="77"/>
       <c r="T79" s="33"/>
       <c r="U79" s="33"/>
       <c r="V79" s="33"/>
@@ -17743,34 +15685,34 @@
       <c r="AX79" s="27"/>
     </row>
     <row r="80" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="84">
+      <c r="B80" s="83"/>
+      <c r="C80" s="90">
         <f>AVERAGE(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.77329999999999999</v>
       </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="82">
+      <c r="D80" s="90"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="90"/>
+      <c r="I80" s="90"/>
+      <c r="J80" s="88">
         <f>AVERAGE(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.75155714285714281</v>
       </c>
-      <c r="K80" s="82"/>
-      <c r="L80" s="82"/>
-      <c r="M80" s="82"/>
-      <c r="N80" s="82"/>
-      <c r="O80" s="82"/>
-      <c r="P80" s="82"/>
-      <c r="R80" s="72" t="s">
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="88"/>
+      <c r="O80" s="88"/>
+      <c r="P80" s="88"/>
+      <c r="R80" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="S80" s="72"/>
+      <c r="S80" s="78"/>
       <c r="T80" s="24"/>
       <c r="U80" s="24"/>
       <c r="V80" s="24"/>
@@ -17803,28 +15745,28 @@
       <c r="AX80" s="27"/>
     </row>
     <row r="81" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="72" t="s">
+      <c r="A81" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="80"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="80"/>
-      <c r="L81" s="80"/>
-      <c r="M81" s="80"/>
-      <c r="N81" s="80"/>
-      <c r="O81" s="80"/>
-      <c r="P81" s="81"/>
-      <c r="R81" s="71" t="s">
+      <c r="B81" s="78"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="86"/>
+      <c r="L81" s="86"/>
+      <c r="M81" s="86"/>
+      <c r="N81" s="86"/>
+      <c r="O81" s="86"/>
+      <c r="P81" s="87"/>
+      <c r="R81" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="71"/>
+      <c r="S81" s="77"/>
       <c r="T81" s="33"/>
       <c r="U81" s="33"/>
       <c r="V81" s="33"/>
@@ -17857,34 +15799,34 @@
       <c r="AX81" s="27"/>
     </row>
     <row r="82" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="76" t="s">
+      <c r="A82" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="76"/>
-      <c r="C82" s="84">
+      <c r="B82" s="82"/>
+      <c r="C82" s="90">
         <f>MIN(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.60329999999999995</v>
       </c>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="82">
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="88">
         <f>MIN(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="83"/>
-      <c r="N82" s="83"/>
-      <c r="O82" s="83"/>
-      <c r="P82" s="83"/>
-      <c r="R82" s="71" t="s">
+      <c r="K82" s="89"/>
+      <c r="L82" s="89"/>
+      <c r="M82" s="89"/>
+      <c r="N82" s="89"/>
+      <c r="O82" s="89"/>
+      <c r="P82" s="89"/>
+      <c r="R82" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S82" s="71"/>
+      <c r="S82" s="77"/>
       <c r="T82" s="33"/>
       <c r="U82" s="33"/>
       <c r="V82" s="33"/>
@@ -17917,34 +15859,34 @@
       <c r="AX82" s="27"/>
     </row>
     <row r="83" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="77" t="s">
+      <c r="A83" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="77"/>
-      <c r="C83" s="84">
+      <c r="B83" s="83"/>
+      <c r="C83" s="90">
         <f>MAX(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.86409999999999998</v>
       </c>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
-      <c r="J83" s="82">
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="88">
         <f>MAX(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="K83" s="83"/>
-      <c r="L83" s="83"/>
-      <c r="M83" s="83"/>
-      <c r="N83" s="83"/>
-      <c r="O83" s="83"/>
-      <c r="P83" s="83"/>
-      <c r="R83" s="71" t="s">
+      <c r="K83" s="89"/>
+      <c r="L83" s="89"/>
+      <c r="M83" s="89"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="89"/>
+      <c r="R83" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="S83" s="71"/>
+      <c r="S83" s="77"/>
       <c r="T83" s="33"/>
       <c r="U83" s="33"/>
       <c r="V83" s="33"/>
@@ -17977,34 +15919,34 @@
       <c r="AX83" s="27"/>
     </row>
     <row r="84" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="77"/>
-      <c r="C84" s="84">
+      <c r="B84" s="83"/>
+      <c r="C84" s="90">
         <f>AVERAGE(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.77872857142857133</v>
       </c>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="85"/>
-      <c r="J84" s="82">
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="88">
         <f>AVERAGE(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.74030000000000007</v>
       </c>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-      <c r="R84" s="71" t="s">
+      <c r="K84" s="89"/>
+      <c r="L84" s="89"/>
+      <c r="M84" s="89"/>
+      <c r="N84" s="89"/>
+      <c r="O84" s="89"/>
+      <c r="P84" s="89"/>
+      <c r="R84" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S84" s="71"/>
+      <c r="S84" s="77"/>
       <c r="T84" s="33"/>
       <c r="U84" s="33"/>
       <c r="V84" s="33"/>
@@ -18071,24 +16013,24 @@
       <c r="AX85" s="27"/>
     </row>
     <row r="86" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="63"/>
+      <c r="O86" s="63"/>
+      <c r="P86" s="63"/>
       <c r="AI86" s="27"/>
       <c r="AJ86" s="27"/>
       <c r="AK86" s="27"/>
@@ -18107,24 +16049,24 @@
       <c r="AX86" s="27"/>
     </row>
     <row r="87" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R87" s="57" t="s">
+      <c r="R87" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="S87" s="57"/>
-      <c r="T87" s="57"/>
-      <c r="U87" s="57"/>
-      <c r="V87" s="57"/>
-      <c r="W87" s="57"/>
-      <c r="X87" s="57"/>
-      <c r="Y87" s="57"/>
-      <c r="Z87" s="57"/>
-      <c r="AA87" s="57"/>
-      <c r="AB87" s="57"/>
-      <c r="AC87" s="57"/>
-      <c r="AD87" s="57"/>
-      <c r="AE87" s="57"/>
-      <c r="AF87" s="57"/>
-      <c r="AG87" s="57"/>
+      <c r="S87" s="63"/>
+      <c r="T87" s="63"/>
+      <c r="U87" s="63"/>
+      <c r="V87" s="63"/>
+      <c r="W87" s="63"/>
+      <c r="X87" s="63"/>
+      <c r="Y87" s="63"/>
+      <c r="Z87" s="63"/>
+      <c r="AA87" s="63"/>
+      <c r="AB87" s="63"/>
+      <c r="AC87" s="63"/>
+      <c r="AD87" s="63"/>
+      <c r="AE87" s="63"/>
+      <c r="AF87" s="63"/>
+      <c r="AG87" s="63"/>
       <c r="AI87" s="27"/>
       <c r="AJ87" s="27"/>
       <c r="AK87" s="27"/>
@@ -18143,46 +16085,46 @@
       <c r="AX87" s="27"/>
     </row>
     <row r="88" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="75" t="s">
+      <c r="A88" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="75"/>
-      <c r="C88" s="73" t="s">
+      <c r="B88" s="81"/>
+      <c r="C88" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73" t="s">
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="73"/>
-      <c r="L88" s="73"/>
-      <c r="M88" s="73"/>
-      <c r="N88" s="73"/>
-      <c r="O88" s="73"/>
-      <c r="P88" s="73"/>
-      <c r="R88" s="57" t="s">
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="79"/>
+      <c r="O88" s="79"/>
+      <c r="P88" s="79"/>
+      <c r="R88" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="S88" s="57"/>
-      <c r="T88" s="57"/>
-      <c r="U88" s="57"/>
-      <c r="V88" s="57"/>
-      <c r="W88" s="57"/>
-      <c r="X88" s="57"/>
-      <c r="Y88" s="57"/>
-      <c r="Z88" s="57"/>
-      <c r="AA88" s="57"/>
-      <c r="AB88" s="57"/>
-      <c r="AC88" s="57"/>
-      <c r="AD88" s="57"/>
-      <c r="AE88" s="57"/>
-      <c r="AF88" s="57"/>
-      <c r="AG88" s="57"/>
+      <c r="S88" s="63"/>
+      <c r="T88" s="63"/>
+      <c r="U88" s="63"/>
+      <c r="V88" s="63"/>
+      <c r="W88" s="63"/>
+      <c r="X88" s="63"/>
+      <c r="Y88" s="63"/>
+      <c r="Z88" s="63"/>
+      <c r="AA88" s="63"/>
+      <c r="AB88" s="63"/>
+      <c r="AC88" s="63"/>
+      <c r="AD88" s="63"/>
+      <c r="AE88" s="63"/>
+      <c r="AF88" s="63"/>
+      <c r="AG88" s="63"/>
       <c r="AI88" s="27"/>
       <c r="AJ88" s="27"/>
       <c r="AK88" s="27"/>
@@ -18201,8 +16143,8 @@
       <c r="AX88" s="27"/>
     </row>
     <row r="89" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75"/>
-      <c r="B89" s="75"/>
+      <c r="A89" s="81"/>
+      <c r="B89" s="81"/>
       <c r="C89" s="11">
         <v>1</v>
       </c>
@@ -18263,10 +16205,10 @@
       <c r="AX89" s="27"/>
     </row>
     <row r="90" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="88" t="s">
+      <c r="A90" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="88"/>
+      <c r="B90" s="94"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -18281,28 +16223,28 @@
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
       <c r="P90" s="13"/>
-      <c r="R90" s="63" t="s">
+      <c r="R90" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="S90" s="64"/>
-      <c r="T90" s="59" t="s">
+      <c r="S90" s="70"/>
+      <c r="T90" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="U90" s="60"/>
-      <c r="V90" s="60"/>
-      <c r="W90" s="60"/>
-      <c r="X90" s="60"/>
-      <c r="Y90" s="60"/>
-      <c r="Z90" s="61"/>
-      <c r="AA90" s="59" t="s">
+      <c r="U90" s="66"/>
+      <c r="V90" s="66"/>
+      <c r="W90" s="66"/>
+      <c r="X90" s="66"/>
+      <c r="Y90" s="66"/>
+      <c r="Z90" s="67"/>
+      <c r="AA90" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AB90" s="60"/>
-      <c r="AC90" s="60"/>
-      <c r="AD90" s="60"/>
-      <c r="AE90" s="60"/>
-      <c r="AF90" s="60"/>
-      <c r="AG90" s="61"/>
+      <c r="AB90" s="66"/>
+      <c r="AC90" s="66"/>
+      <c r="AD90" s="66"/>
+      <c r="AE90" s="66"/>
+      <c r="AF90" s="66"/>
+      <c r="AG90" s="67"/>
       <c r="AI90" s="27"/>
       <c r="AJ90" s="27"/>
       <c r="AK90" s="27"/>
@@ -18381,8 +16323,8 @@
         <f t="shared" si="38"/>
         <v>0.54000000000000714</v>
       </c>
-      <c r="R91" s="65"/>
-      <c r="S91" s="66"/>
+      <c r="R91" s="71"/>
+      <c r="S91" s="72"/>
       <c r="T91" s="11">
         <v>1</v>
       </c>
@@ -18503,10 +16445,10 @@
         <f t="shared" si="40"/>
         <v>-0.54000000000000714</v>
       </c>
-      <c r="R92" s="86" t="s">
+      <c r="R92" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="S92" s="87"/>
+      <c r="S92" s="93"/>
       <c r="T92" s="13"/>
       <c r="U92" s="13"/>
       <c r="V92" s="13"/>
@@ -18599,10 +16541,10 @@
         <f t="shared" si="42"/>
         <v>6.25</v>
       </c>
-      <c r="R93" s="54" t="s">
+      <c r="R93" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="S93" s="55"/>
+      <c r="S93" s="61"/>
       <c r="T93" s="22">
         <v>0.76090000000000002</v>
       </c>
@@ -18723,10 +16665,10 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="R94" s="54" t="s">
+      <c r="R94" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="S94" s="55"/>
+      <c r="S94" s="61"/>
       <c r="T94" s="22">
         <v>0.75080000000000002</v>
       </c>
@@ -18847,10 +16789,10 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="R95" s="54" t="s">
+      <c r="R95" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S95" s="55"/>
+      <c r="S95" s="61"/>
       <c r="T95" s="22">
         <v>0.75219999999999998</v>
       </c>
@@ -18971,10 +16913,10 @@
         <f t="shared" si="48"/>
         <v>-0.26999999999999247</v>
       </c>
-      <c r="R96" s="54" t="s">
+      <c r="R96" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="S96" s="55"/>
+      <c r="S96" s="61"/>
       <c r="T96" s="22">
         <v>0.75039999999999996</v>
       </c>
@@ -19095,10 +17037,10 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R97" s="86" t="s">
+      <c r="R97" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="S97" s="87"/>
+      <c r="S97" s="93"/>
       <c r="T97" s="10"/>
       <c r="U97" s="10"/>
       <c r="V97" s="10"/>
@@ -19131,10 +17073,10 @@
       <c r="AX97" s="27"/>
     </row>
     <row r="98" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="88" t="s">
+      <c r="A98" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="88"/>
+      <c r="B98" s="94"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
@@ -19149,10 +17091,10 @@
       <c r="N98" s="21"/>
       <c r="O98" s="21"/>
       <c r="P98" s="21"/>
-      <c r="R98" s="54" t="s">
+      <c r="R98" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="S98" s="55"/>
+      <c r="S98" s="61"/>
       <c r="T98" s="22">
         <v>0.73909999999999998</v>
       </c>
@@ -19273,10 +17215,10 @@
         <f t="shared" si="52"/>
         <v>-7.3400000000000016</v>
       </c>
-      <c r="R99" s="54" t="s">
+      <c r="R99" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="S99" s="55"/>
+      <c r="S99" s="61"/>
       <c r="T99" s="22">
         <v>0.74119999999999997</v>
       </c>
@@ -19397,10 +17339,10 @@
         <f t="shared" si="54"/>
         <v>-2.4399999999999977</v>
       </c>
-      <c r="R100" s="54" t="s">
+      <c r="R100" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S100" s="55"/>
+      <c r="S100" s="61"/>
       <c r="T100" s="22">
         <v>0.72870000000000001</v>
       </c>
@@ -19521,10 +17463,10 @@
         <f t="shared" si="56"/>
         <v>-16.570000000000007</v>
       </c>
-      <c r="R101" s="54" t="s">
+      <c r="R101" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="55"/>
+      <c r="S101" s="61"/>
       <c r="T101" s="22">
         <v>0.72989999999999999</v>
       </c>
@@ -19663,10 +17605,10 @@
       <c r="AX102" s="27"/>
     </row>
     <row r="103" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="88"/>
+      <c r="B103" s="94"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
@@ -19777,10 +17719,10 @@
       <c r="AX104" s="27"/>
     </row>
     <row r="105" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="88" t="s">
+      <c r="A105" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="88"/>
+      <c r="B105" s="94"/>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
@@ -20454,11 +18396,731 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4182EC-7BBA-4F9A-8828-D4FF92B3F21E}">
+  <dimension ref="C2:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="11" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
+    </row>
+    <row r="3" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="95"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="54">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54">
+        <v>2</v>
+      </c>
+      <c r="G3" s="54">
+        <v>3</v>
+      </c>
+      <c r="H3" s="54">
+        <v>4</v>
+      </c>
+      <c r="I3" s="54">
+        <v>5</v>
+      </c>
+      <c r="J3" s="54">
+        <v>6</v>
+      </c>
+      <c r="K3" s="54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="57">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="F4" s="57">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="G4" s="57">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="H4" s="57">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="I4" s="57">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J4" s="57">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="K4" s="57">
+        <v>0.84240000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="57">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="F5" s="57">
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="G5" s="57">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="H5" s="57">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="I5" s="57">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="J5" s="57">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="K5" s="57">
+        <v>0.84089999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="55"/>
+      <c r="D6" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="57">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="G6" s="57">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="I6" s="57">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="J6" s="57">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K6" s="57">
+        <v>0.83650000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="55"/>
+      <c r="D7" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="57">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="F7" s="57">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="G7" s="57">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="H7" s="57">
+        <v>0.7208</v>
+      </c>
+      <c r="I7" s="57">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="J7" s="57">
+        <v>0.8014</v>
+      </c>
+      <c r="K7" s="57">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="57">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F8" s="57">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="G8" s="57">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H8" s="57">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="I8" s="57">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="J8" s="57">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="K8" s="57">
+        <v>0.84240000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="55"/>
+      <c r="D9" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="57">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="G9" s="57">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="H9" s="57">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="I9" s="57">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="J9" s="57">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="K9" s="57">
+        <v>0.83579999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="55"/>
+      <c r="D10" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="57">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="G10" s="57">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="H10" s="57">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="I10" s="57">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="J10" s="57">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="K10" s="57">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="57">
+        <v>0.6925</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G11" s="57">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="H11" s="57">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="I11" s="57">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="J11" s="57">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="K11" s="57">
+        <v>0.83589999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="57">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="G12" s="57">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="H12" s="57">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="I12" s="57">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="J12" s="57">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="K12" s="57">
+        <v>0.79890000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="55"/>
+      <c r="D13" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="57">
+        <v>0.74780000000000002</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="G13" s="57">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="H13" s="57">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="I13" s="57">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="J13" s="57">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="K13" s="57">
+        <v>0.79279999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="55"/>
+      <c r="D14" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="57">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="F14" s="57">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="G14" s="57">
+        <v>0.7742</v>
+      </c>
+      <c r="H14" s="57">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="I14" s="57">
+        <v>0.8196</v>
+      </c>
+      <c r="J14" s="57">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="K14" s="57">
+        <v>0.79359999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="55"/>
+      <c r="D15" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="57">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="F15" s="57">
+        <v>0.5514</v>
+      </c>
+      <c r="G15" s="57">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="H15" s="57">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="I15" s="57">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="J15" s="57">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="K15" s="57">
+        <v>0.79310000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="57">
+        <v>0.6522</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="G16" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="57">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="I16" s="57">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="J16" s="57">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="K16" s="57">
+        <v>0.79890000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="55"/>
+      <c r="D17" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0.4698</v>
+      </c>
+      <c r="G17" s="57">
+        <v>0.7601</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I17" s="57">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="J17" s="57">
+        <v>0.7379</v>
+      </c>
+      <c r="K17" s="57">
+        <v>0.7954</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="55"/>
+      <c r="D18" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="57">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F18" s="57">
+        <v>0.45490000000000003</v>
+      </c>
+      <c r="G18" s="57">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="H18" s="57">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="I18" s="57">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="J18" s="57">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="K18" s="57">
+        <v>0.7903</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="59"/>
+      <c r="D19" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="57">
+        <v>0.64229999999999998</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="G19" s="57">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="H19" s="57">
+        <v>0.6825</v>
+      </c>
+      <c r="I19" s="57">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="J19" s="57">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="K19" s="57">
+        <v>0.79139999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="57">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="F20" s="57">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="G20" s="57">
+        <v>0.7772</v>
+      </c>
+      <c r="H20" s="57">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="I20" s="57">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="J20" s="57">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="K20" s="57">
+        <v>0.82069999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="55"/>
+      <c r="D21" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="57">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="F21" s="57">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="G21" s="57">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="H21" s="57">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I21" s="57">
+        <v>0.8135</v>
+      </c>
+      <c r="J21" s="57">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="K21" s="57">
+        <v>0.81289999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="55"/>
+      <c r="D22" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="57">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="F22" s="57">
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="G22" s="57">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="H22" s="57">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="I22" s="57">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="J22" s="57">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="K22" s="57">
+        <v>0.81389999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="55"/>
+      <c r="D23" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="57">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="F23" s="57">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="G23" s="57">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="H23" s="57">
+        <v>0.68079999999999996</v>
+      </c>
+      <c r="I23" s="57">
+        <v>0.8135</v>
+      </c>
+      <c r="J23" s="57">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="K23" s="57">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+    </row>
+    <row r="26" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="103"/>
+      <c r="E26" s="104">
+        <v>1</v>
+      </c>
+      <c r="F26" s="105">
+        <v>2</v>
+      </c>
+      <c r="G26" s="105">
+        <v>3</v>
+      </c>
+      <c r="H26" s="105">
+        <v>4</v>
+      </c>
+      <c r="I26" s="105">
+        <v>5</v>
+      </c>
+      <c r="J26" s="105">
+        <v>6</v>
+      </c>
+      <c r="K26" s="105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="107">
+        <v>0.73</v>
+      </c>
+      <c r="F27" s="107">
+        <v>0.15</v>
+      </c>
+      <c r="G27" s="107">
+        <v>0.81</v>
+      </c>
+      <c r="H27" s="107">
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="107">
+        <v>0.85</v>
+      </c>
+      <c r="J27" s="107">
+        <v>0.81</v>
+      </c>
+      <c r="K27" s="107">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="107">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F28" s="107">
+        <v>0.02</v>
+      </c>
+      <c r="G28" s="107">
+        <v>0.65</v>
+      </c>
+      <c r="H28" s="107">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I28" s="107">
+        <v>0.73</v>
+      </c>
+      <c r="J28" s="107">
+        <v>0.65</v>
+      </c>
+      <c r="K28" s="107">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9EE9C4-8FE8-49DE-B3BB-670161C36C54}">
   <dimension ref="C20:D28"/>
   <sheetViews>
     <sheetView zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20506,12 +19168,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="81" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20538,48 +19200,48 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89" t="s">
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="100" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="40" t="s">
         <v>22</v>
       </c>
@@ -20601,9 +19263,9 @@
       <c r="L4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="89"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="100"/>
     </row>
     <row r="5" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
@@ -21232,18 +19894,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A10"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.39374999999999999" footer="0.39374999999999999"/>
-  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1698052472" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0" noPrint="1">

--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\sklearn-kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AC4A53-7F53-40A5-9B7B-1A85FDBD9516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78E446-B9F1-49C9-B0E5-B9443B710C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil percobaan Split Validasi" sheetId="1" r:id="rId1"/>
@@ -1023,31 +1023,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1062,40 +1080,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,10 +1098,10 @@
     <xf numFmtId="2" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,14 +1110,38 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,29 +1158,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8953,42 +8953,42 @@
   <sheetData>
     <row r="1" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="T1" s="68" t="s">
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="T1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68" t="s">
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
       <c r="AI1" s="27"/>
       <c r="AJ1" s="27"/>
       <c r="AK1" s="27"/>
@@ -9009,34 +9009,34 @@
     <row r="2" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
       <c r="AI2" s="27"/>
       <c r="AJ2" s="27"/>
       <c r="AK2" s="27"/>
@@ -9055,42 +9055,42 @@
       <c r="AX2" s="27"/>
     </row>
     <row r="3" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="R3" s="63" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="R3" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
       <c r="AI3" s="27"/>
       <c r="AJ3" s="27"/>
       <c r="AK3" s="27"/>
@@ -9109,24 +9109,24 @@
       <c r="AX3" s="27"/>
     </row>
     <row r="4" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
       <c r="AI4" s="27"/>
       <c r="AJ4" s="27"/>
       <c r="AK4" s="27"/>
@@ -9179,50 +9179,50 @@
       <c r="AX5" s="27"/>
     </row>
     <row r="6" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="79" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="R6" s="69" t="s">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="R6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="65" t="s">
+      <c r="S6" s="76"/>
+      <c r="T6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="65" t="s">
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="67"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
       <c r="AI6" s="27"/>
       <c r="AJ6" s="27"/>
       <c r="AK6" s="27"/>
@@ -9241,8 +9241,8 @@
       <c r="AX6" s="27"/>
     </row>
     <row r="7" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
@@ -9285,8 +9285,8 @@
       <c r="P7" s="11">
         <v>7</v>
       </c>
-      <c r="R7" s="71"/>
-      <c r="S7" s="72"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="78"/>
       <c r="T7" s="11">
         <v>1</v>
       </c>
@@ -9347,10 +9347,10 @@
       <c r="AX7" s="27"/>
     </row>
     <row r="8" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -9365,10 +9365,10 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="R8" s="75" t="s">
+      <c r="R8" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="76"/>
+      <c r="S8" s="97"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -9401,10 +9401,10 @@
       <c r="AX8" s="27"/>
     </row>
     <row r="9" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="50">
         <v>0.71740000000000004</v>
       </c>
@@ -9447,10 +9447,10 @@
       <c r="P9" s="51">
         <v>0.83699999999999997</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="61"/>
+      <c r="S9" s="68"/>
       <c r="T9" s="22">
         <v>0.75</v>
       </c>
@@ -9511,10 +9511,10 @@
       <c r="AX9" s="27"/>
     </row>
     <row r="10" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="50">
         <v>0.71009999999999995</v>
       </c>
@@ -9557,10 +9557,10 @@
       <c r="P10" s="51">
         <v>0.83689999999999998</v>
       </c>
-      <c r="R10" s="60" t="s">
+      <c r="R10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="61"/>
+      <c r="S10" s="68"/>
       <c r="T10" s="22">
         <v>0.74199999999999999</v>
       </c>
@@ -9621,10 +9621,10 @@
       <c r="AX10" s="27"/>
     </row>
     <row r="11" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="50">
         <v>0.70660000000000001</v>
       </c>
@@ -9667,10 +9667,10 @@
       <c r="P11" s="51">
         <v>0.83399999999999996</v>
       </c>
-      <c r="R11" s="60" t="s">
+      <c r="R11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="61"/>
+      <c r="S11" s="68"/>
       <c r="T11" s="22">
         <v>0.73850000000000005</v>
       </c>
@@ -9731,10 +9731,10 @@
       <c r="AX11" s="27"/>
     </row>
     <row r="12" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="50">
         <v>0.70569999999999999</v>
       </c>
@@ -9777,10 +9777,10 @@
       <c r="P12" s="51">
         <v>0.83460000000000001</v>
       </c>
-      <c r="R12" s="60" t="s">
+      <c r="R12" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="61"/>
+      <c r="S12" s="68"/>
       <c r="T12" s="22">
         <v>0.73699999999999999</v>
       </c>
@@ -9841,10 +9841,10 @@
       <c r="AX12" s="27"/>
     </row>
     <row r="13" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
@@ -9859,10 +9859,10 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52"/>
-      <c r="R13" s="73" t="s">
+      <c r="R13" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="74"/>
+      <c r="S13" s="94"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
@@ -9895,10 +9895,10 @@
       <c r="AX13" s="27"/>
     </row>
     <row r="14" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="50">
         <v>0.70109999999999995</v>
       </c>
@@ -9941,10 +9941,10 @@
       <c r="P14" s="51">
         <v>0.84240000000000004</v>
       </c>
-      <c r="R14" s="60" t="s">
+      <c r="R14" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="61"/>
+      <c r="S14" s="68"/>
       <c r="T14" s="22">
         <v>0.69569999999999999</v>
       </c>
@@ -10005,10 +10005,10 @@
       <c r="AX14" s="27"/>
     </row>
     <row r="15" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="61"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="50">
         <v>0.69579999999999997</v>
       </c>
@@ -10051,10 +10051,10 @@
       <c r="P15" s="51">
         <v>0.83840000000000003</v>
       </c>
-      <c r="R15" s="60" t="s">
+      <c r="R15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="61"/>
+      <c r="S15" s="68"/>
       <c r="T15" s="22">
         <v>0.69099999999999995</v>
       </c>
@@ -10115,10 +10115,10 @@
       <c r="AX15" s="27"/>
     </row>
     <row r="16" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="50">
         <v>0.69340000000000002</v>
       </c>
@@ -10161,10 +10161,10 @@
       <c r="P16" s="51">
         <v>0.83889999999999998</v>
       </c>
-      <c r="R16" s="60" t="s">
+      <c r="R16" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="61"/>
+      <c r="S16" s="68"/>
       <c r="T16" s="22">
         <v>0.68959999999999999</v>
       </c>
@@ -10225,10 +10225,10 @@
       <c r="AX16" s="27"/>
     </row>
     <row r="17" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="50">
         <v>0.6925</v>
       </c>
@@ -10271,10 +10271,10 @@
       <c r="P17" s="51">
         <v>0.83819999999999995</v>
       </c>
-      <c r="R17" s="60" t="s">
+      <c r="R17" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="61"/>
+      <c r="S17" s="68"/>
       <c r="T17" s="22">
         <v>0.68889999999999996</v>
       </c>
@@ -10335,10 +10335,10 @@
       <c r="AX17" s="27"/>
     </row>
     <row r="18" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
@@ -10353,10 +10353,10 @@
       <c r="N18" s="52"/>
       <c r="O18" s="52"/>
       <c r="P18" s="52"/>
-      <c r="R18" s="73" t="s">
+      <c r="R18" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="S18" s="74"/>
+      <c r="S18" s="94"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
       <c r="V18" s="24"/>
@@ -10389,10 +10389,10 @@
       <c r="AX18" s="27"/>
     </row>
     <row r="19" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="61"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="50">
         <v>0.75</v>
       </c>
@@ -10435,10 +10435,10 @@
       <c r="P19" s="51">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R19" s="60" t="s">
+      <c r="R19" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="61"/>
+      <c r="S19" s="68"/>
       <c r="T19" s="22">
         <v>0.76629999999999998</v>
       </c>
@@ -10499,10 +10499,10 @@
       <c r="AX19" s="27"/>
     </row>
     <row r="20" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="50">
         <v>0.74780000000000002</v>
       </c>
@@ -10545,10 +10545,10 @@
       <c r="P20" s="51">
         <v>0.80189999999999995</v>
       </c>
-      <c r="R20" s="60" t="s">
+      <c r="R20" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="61"/>
+      <c r="S20" s="68"/>
       <c r="T20" s="22">
         <v>0.76759999999999995</v>
       </c>
@@ -10609,10 +10609,10 @@
       <c r="AX20" s="27"/>
     </row>
     <row r="21" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="61"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="50">
         <v>0.74329999999999996</v>
       </c>
@@ -10655,10 +10655,10 @@
       <c r="P21" s="51">
         <v>0.80120000000000002</v>
       </c>
-      <c r="R21" s="60" t="s">
+      <c r="R21" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="61"/>
+      <c r="S21" s="68"/>
       <c r="T21" s="22">
         <v>0.7591</v>
       </c>
@@ -10719,10 +10719,10 @@
       <c r="AX21" s="27"/>
     </row>
     <row r="22" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="50">
         <v>0.74450000000000005</v>
       </c>
@@ -10765,10 +10765,10 @@
       <c r="P22" s="51">
         <v>0.8014</v>
       </c>
-      <c r="R22" s="60" t="s">
+      <c r="R22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="61"/>
+      <c r="S22" s="68"/>
       <c r="T22" s="22">
         <v>0.75960000000000005</v>
       </c>
@@ -10829,10 +10829,10 @@
       <c r="AX22" s="27"/>
     </row>
     <row r="23" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -10847,10 +10847,10 @@
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
-      <c r="R23" s="73" t="s">
+      <c r="R23" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="S23" s="74"/>
+      <c r="S23" s="94"/>
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
@@ -10883,10 +10883,10 @@
       <c r="AX23" s="27"/>
     </row>
     <row r="24" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="61"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="50">
         <v>0.6522</v>
       </c>
@@ -10929,10 +10929,10 @@
       <c r="P24" s="51">
         <v>0.77170000000000005</v>
       </c>
-      <c r="R24" s="77" t="s">
+      <c r="R24" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="77"/>
+      <c r="S24" s="91"/>
       <c r="T24" s="22">
         <v>0.65759999999999996</v>
       </c>
@@ -10993,10 +10993,10 @@
       <c r="AX24" s="27"/>
     </row>
     <row r="25" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="61"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="50">
         <v>0.65329999999999999</v>
       </c>
@@ -11039,10 +11039,10 @@
       <c r="P25" s="51">
         <v>0.77149999999999996</v>
       </c>
-      <c r="R25" s="77" t="s">
+      <c r="R25" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="77"/>
+      <c r="S25" s="91"/>
       <c r="T25" s="22">
         <v>0.66120000000000001</v>
       </c>
@@ -11103,10 +11103,10 @@
       <c r="AX25" s="27"/>
     </row>
     <row r="26" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="50">
         <v>0.64300000000000002</v>
       </c>
@@ -11149,10 +11149,10 @@
       <c r="P26" s="51">
         <v>0.76759999999999995</v>
       </c>
-      <c r="R26" s="77" t="s">
+      <c r="R26" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="77"/>
+      <c r="S26" s="91"/>
       <c r="T26" s="22">
         <v>0.64870000000000005</v>
       </c>
@@ -11213,10 +11213,10 @@
       <c r="AX26" s="27"/>
     </row>
     <row r="27" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="61"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="50">
         <v>0.64229999999999998</v>
       </c>
@@ -11259,10 +11259,10 @@
       <c r="P27" s="51">
         <v>0.76790000000000003</v>
       </c>
-      <c r="R27" s="77" t="s">
+      <c r="R27" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="77"/>
+      <c r="S27" s="91"/>
       <c r="T27" s="22">
         <v>0.64949999999999997</v>
       </c>
@@ -11323,10 +11323,10 @@
       <c r="AX27" s="27"/>
     </row>
     <row r="28" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="74"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
       <c r="E28" s="52"/>
@@ -11341,10 +11341,10 @@
       <c r="N28" s="52"/>
       <c r="O28" s="52"/>
       <c r="P28" s="52"/>
-      <c r="R28" s="78" t="s">
+      <c r="R28" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="78"/>
+      <c r="S28" s="89"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
       <c r="V28" s="24"/>
@@ -11377,10 +11377,10 @@
       <c r="AX28" s="27"/>
     </row>
     <row r="29" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="50">
         <v>0.66849999999999998</v>
       </c>
@@ -11423,10 +11423,10 @@
       <c r="P29" s="51">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R29" s="77" t="s">
+      <c r="R29" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="77"/>
+      <c r="S29" s="91"/>
       <c r="T29" s="22">
         <v>0.66300000000000003</v>
       </c>
@@ -11487,10 +11487,10 @@
       <c r="AX29" s="27"/>
     </row>
     <row r="30" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="61"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="50">
         <v>0.66110000000000002</v>
       </c>
@@ -11533,10 +11533,10 @@
       <c r="P30" s="51">
         <v>0.81259999999999999</v>
       </c>
-      <c r="R30" s="77" t="s">
+      <c r="R30" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="77"/>
+      <c r="S30" s="91"/>
       <c r="T30" s="22">
         <v>0.65510000000000002</v>
       </c>
@@ -11597,10 +11597,10 @@
       <c r="AX30" s="27"/>
     </row>
     <row r="31" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="61"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="50">
         <v>0.66259999999999997</v>
       </c>
@@ -11643,10 +11643,10 @@
       <c r="P31" s="51">
         <v>0.81430000000000002</v>
       </c>
-      <c r="R31" s="77" t="s">
+      <c r="R31" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="77"/>
+      <c r="S31" s="91"/>
       <c r="T31" s="22">
         <v>0.65680000000000005</v>
       </c>
@@ -11707,10 +11707,10 @@
       <c r="AX31" s="27"/>
     </row>
     <row r="32" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="61"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="50">
         <v>0.66049999999999998</v>
       </c>
@@ -11753,10 +11753,10 @@
       <c r="P32" s="51">
         <v>0.81279999999999997</v>
       </c>
-      <c r="R32" s="77" t="s">
+      <c r="R32" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="77"/>
+      <c r="S32" s="91"/>
       <c r="T32" s="22">
         <v>0.65429999999999999</v>
       </c>
@@ -11817,10 +11817,10 @@
       <c r="AX32" s="27"/>
     </row>
     <row r="33" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
@@ -11835,10 +11835,10 @@
       <c r="N33" s="52"/>
       <c r="O33" s="52"/>
       <c r="P33" s="52"/>
-      <c r="R33" s="78" t="s">
+      <c r="R33" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="S33" s="78"/>
+      <c r="S33" s="89"/>
       <c r="T33" s="24"/>
       <c r="U33" s="24"/>
       <c r="V33" s="24"/>
@@ -11871,10 +11871,10 @@
       <c r="AX33" s="27"/>
     </row>
     <row r="34" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="61"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="50">
         <v>0.7228</v>
       </c>
@@ -11917,10 +11917,10 @@
       <c r="P34" s="51">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R34" s="77" t="s">
+      <c r="R34" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="77"/>
+      <c r="S34" s="91"/>
       <c r="T34" s="22">
         <v>0.7228</v>
       </c>
@@ -11981,10 +11981,10 @@
       <c r="AX34" s="27"/>
     </row>
     <row r="35" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="61"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="50">
         <v>0.72009999999999996</v>
       </c>
@@ -12027,10 +12027,10 @@
       <c r="P35" s="51">
         <v>0.81489999999999996</v>
       </c>
-      <c r="R35" s="77" t="s">
+      <c r="R35" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S35" s="77"/>
+      <c r="S35" s="91"/>
       <c r="T35" s="22">
         <v>0.72009999999999996</v>
       </c>
@@ -12091,10 +12091,10 @@
       <c r="AX35" s="27"/>
     </row>
     <row r="36" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="61"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="50">
         <v>0.71740000000000004</v>
       </c>
@@ -12137,10 +12137,10 @@
       <c r="P36" s="51">
         <v>0.81520000000000004</v>
       </c>
-      <c r="R36" s="77" t="s">
+      <c r="R36" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="77"/>
+      <c r="S36" s="91"/>
       <c r="T36" s="22">
         <v>0.71740000000000004</v>
       </c>
@@ -12201,10 +12201,10 @@
       <c r="AX36" s="27"/>
     </row>
     <row r="37" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="61"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="50">
         <v>0.71819999999999995</v>
       </c>
@@ -12247,10 +12247,10 @@
       <c r="P37" s="51">
         <v>0.81499999999999995</v>
       </c>
-      <c r="R37" s="77" t="s">
+      <c r="R37" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="77"/>
+      <c r="S37" s="91"/>
       <c r="T37" s="22">
         <v>0.71819999999999995</v>
       </c>
@@ -12311,10 +12311,10 @@
       <c r="AX37" s="27"/>
     </row>
     <row r="38" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="74"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
@@ -12329,10 +12329,10 @@
       <c r="N38" s="52"/>
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
-      <c r="R38" s="78" t="s">
+      <c r="R38" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="S38" s="78"/>
+      <c r="S38" s="89"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="24"/>
@@ -12365,10 +12365,10 @@
       <c r="AX38" s="27"/>
     </row>
     <row r="39" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="61"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="50">
         <v>0.68479999999999996</v>
       </c>
@@ -12411,10 +12411,10 @@
       <c r="P39" s="51">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R39" s="77" t="s">
+      <c r="R39" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S39" s="77"/>
+      <c r="S39" s="91"/>
       <c r="T39" s="22">
         <v>0.68479999999999996</v>
       </c>
@@ -12475,10 +12475,10 @@
       <c r="AX39" s="27"/>
     </row>
     <row r="40" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="61"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="50">
         <v>0.68020000000000003</v>
       </c>
@@ -12521,10 +12521,10 @@
       <c r="P40" s="51">
         <v>0.80110000000000003</v>
       </c>
-      <c r="R40" s="77" t="s">
+      <c r="R40" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S40" s="77"/>
+      <c r="S40" s="91"/>
       <c r="T40" s="22">
         <v>0.68020000000000003</v>
       </c>
@@ -12585,10 +12585,10 @@
       <c r="AX40" s="27"/>
     </row>
     <row r="41" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="61"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="50">
         <v>0.66830000000000001</v>
       </c>
@@ -12631,10 +12631,10 @@
       <c r="P41" s="51">
         <v>0.8014</v>
       </c>
-      <c r="R41" s="77" t="s">
+      <c r="R41" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="77"/>
+      <c r="S41" s="91"/>
       <c r="T41" s="22">
         <v>0.66830000000000001</v>
       </c>
@@ -12695,10 +12695,10 @@
       <c r="AX41" s="27"/>
     </row>
     <row r="42" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="61"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="50">
         <v>0.6321</v>
       </c>
@@ -12741,10 +12741,10 @@
       <c r="P42" s="51">
         <v>0.79990000000000006</v>
       </c>
-      <c r="R42" s="77" t="s">
+      <c r="R42" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="77"/>
+      <c r="S42" s="91"/>
       <c r="T42" s="22">
         <v>0.6321</v>
       </c>
@@ -12855,8 +12855,8 @@
       <c r="AX43" s="27"/>
     </row>
     <row r="44" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -12905,42 +12905,42 @@
       <c r="AX44" s="27"/>
     </row>
     <row r="45" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="R45" s="63" t="s">
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="R45" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="S45" s="63"/>
-      <c r="T45" s="63"/>
-      <c r="U45" s="63"/>
-      <c r="V45" s="63"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63"/>
-      <c r="Y45" s="63"/>
-      <c r="Z45" s="63"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="63"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="72"/>
+      <c r="Y45" s="72"/>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="72"/>
+      <c r="AC45" s="72"/>
+      <c r="AD45" s="72"/>
+      <c r="AE45" s="72"/>
+      <c r="AF45" s="72"/>
+      <c r="AG45" s="72"/>
       <c r="AI45" s="27"/>
       <c r="AJ45" s="27"/>
       <c r="AK45" s="27"/>
@@ -12959,42 +12959,42 @@
       <c r="AX45" s="27"/>
     </row>
     <row r="46" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="R46" s="63" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="R46" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="S46" s="63"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="63"/>
-      <c r="V46" s="63"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63"/>
-      <c r="Y46" s="63"/>
-      <c r="Z46" s="63"/>
-      <c r="AA46" s="63"/>
-      <c r="AB46" s="63"/>
-      <c r="AC46" s="63"/>
-      <c r="AD46" s="63"/>
-      <c r="AE46" s="63"/>
-      <c r="AF46" s="63"/>
-      <c r="AG46" s="63"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
       <c r="AI46" s="27"/>
       <c r="AJ46" s="27"/>
       <c r="AK46" s="27"/>
@@ -13063,50 +13063,50 @@
       <c r="AX47" s="27"/>
     </row>
     <row r="48" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="79" t="s">
+      <c r="B48" s="73"/>
+      <c r="C48" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79" t="s">
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="R48" s="79" t="s">
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="R48" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79" t="s">
+      <c r="S48" s="74"/>
+      <c r="T48" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79"/>
-      <c r="X48" s="79"/>
-      <c r="Y48" s="79"/>
-      <c r="Z48" s="79"/>
-      <c r="AA48" s="79" t="s">
+      <c r="U48" s="74"/>
+      <c r="V48" s="74"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AB48" s="79"/>
-      <c r="AC48" s="79"/>
-      <c r="AD48" s="79"/>
-      <c r="AE48" s="79"/>
-      <c r="AF48" s="79"/>
-      <c r="AG48" s="79"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="74"/>
+      <c r="AD48" s="74"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="74"/>
+      <c r="AG48" s="74"/>
       <c r="AI48" s="27"/>
       <c r="AJ48" s="27"/>
       <c r="AK48" s="27"/>
@@ -13125,8 +13125,8 @@
       <c r="AX48" s="27"/>
     </row>
     <row r="49" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
-      <c r="B49" s="81"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="11">
         <v>1</v>
       </c>
@@ -13169,8 +13169,8 @@
       <c r="P49" s="11">
         <v>7</v>
       </c>
-      <c r="R49" s="79"/>
-      <c r="S49" s="79"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
       <c r="T49" s="11">
         <v>1</v>
       </c>
@@ -13231,10 +13231,10 @@
       <c r="AX49" s="27"/>
     </row>
     <row r="50" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="82"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="22">
         <f>MIN(C9,C14,C19,C24,C34,C39)</f>
         <v>0.6522</v>
@@ -13291,10 +13291,10 @@
         <f t="shared" si="0"/>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R50" s="80" t="s">
+      <c r="R50" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="80"/>
+      <c r="S50" s="92"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
@@ -13327,10 +13327,10 @@
       <c r="AX50" s="27"/>
     </row>
     <row r="51" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="83"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="31">
         <f>MAX(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.75</v>
@@ -13387,10 +13387,10 @@
         <f t="shared" si="1"/>
         <v>0.84240000000000004</v>
       </c>
-      <c r="R51" s="77" t="s">
+      <c r="R51" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="77"/>
+      <c r="S51" s="91"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
       <c r="V51" s="33"/>
@@ -13423,10 +13423,10 @@
       <c r="AX51" s="27"/>
     </row>
     <row r="52" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="83"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="31">
         <f t="shared" ref="C52:P52" si="2">AVERAGE(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.69954285714285713</v>
@@ -13483,10 +13483,10 @@
         <f t="shared" si="2"/>
         <v>0.813642857142857</v>
       </c>
-      <c r="R52" s="77" t="s">
+      <c r="R52" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S52" s="77"/>
+      <c r="S52" s="91"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
       <c r="V52" s="33"/>
@@ -13519,10 +13519,10 @@
       <c r="AX52" s="27"/>
     </row>
     <row r="53" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R53" s="77" t="s">
+      <c r="R53" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S53" s="77"/>
+      <c r="S53" s="91"/>
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
       <c r="V53" s="33"/>
@@ -13555,10 +13555,10 @@
       <c r="AX53" s="27"/>
     </row>
     <row r="54" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R54" s="77" t="s">
+      <c r="R54" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="77"/>
+      <c r="S54" s="91"/>
       <c r="T54" s="11">
         <v>1</v>
       </c>
@@ -13619,28 +13619,28 @@
       <c r="AX54" s="27"/>
     </row>
     <row r="55" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="R55" s="78" t="s">
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="R55" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="S55" s="78"/>
+      <c r="S55" s="89"/>
       <c r="T55" s="24"/>
       <c r="U55" s="24"/>
       <c r="V55" s="24"/>
@@ -13689,10 +13689,10 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="25"/>
-      <c r="R56" s="77" t="s">
+      <c r="R56" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S56" s="77"/>
+      <c r="S56" s="91"/>
       <c r="T56" s="22">
         <v>0.55979999999999996</v>
       </c>
@@ -13753,32 +13753,32 @@
       <c r="AX56" s="27"/>
     </row>
     <row r="57" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="79" t="s">
+      <c r="B57" s="73"/>
+      <c r="C57" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79" t="s">
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="R57" s="77" t="s">
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="R57" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S57" s="77"/>
+      <c r="S57" s="91"/>
       <c r="T57" s="22">
         <v>0.55189999999999995</v>
       </c>
@@ -13839,8 +13839,8 @@
       <c r="AX57" s="27"/>
     </row>
     <row r="58" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="81"/>
-      <c r="B58" s="81"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="11">
         <v>1</v>
       </c>
@@ -13883,10 +13883,10 @@
       <c r="P58" s="11">
         <v>7</v>
       </c>
-      <c r="R58" s="77" t="s">
+      <c r="R58" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S58" s="77"/>
+      <c r="S58" s="91"/>
       <c r="T58" s="22">
         <v>0.55700000000000005</v>
       </c>
@@ -13947,10 +13947,10 @@
       <c r="AX58" s="27"/>
     </row>
     <row r="59" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="82"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="22">
         <f>MIN(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.65759999999999996</v>
@@ -14007,10 +14007,10 @@
         <f t="shared" ref="P59" si="15">MIN(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R59" s="77" t="s">
+      <c r="R59" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="77"/>
+      <c r="S59" s="91"/>
       <c r="T59" s="22">
         <v>0.53879999999999995</v>
       </c>
@@ -14071,10 +14071,10 @@
       <c r="AX59" s="27"/>
     </row>
     <row r="60" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="83"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="31">
         <f>MAX(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.76629999999999998</v>
@@ -14131,10 +14131,10 @@
         <f t="shared" ref="P60" si="23">MAX(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="R60" s="78" t="s">
+      <c r="R60" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="S60" s="78"/>
+      <c r="S60" s="89"/>
       <c r="T60" s="24"/>
       <c r="U60" s="24"/>
       <c r="V60" s="24"/>
@@ -14167,10 +14167,10 @@
       <c r="AX60" s="27"/>
     </row>
     <row r="61" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="83"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="31">
         <f>AVERAGE(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.70574285714285712</v>
@@ -14227,10 +14227,10 @@
         <f t="shared" ref="P61" si="30">AVERAGE(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.82257142857142873</v>
       </c>
-      <c r="R61" s="77" t="s">
+      <c r="R61" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S61" s="77"/>
+      <c r="S61" s="91"/>
       <c r="T61" s="22">
         <v>0.76090000000000002</v>
       </c>
@@ -14291,10 +14291,10 @@
       <c r="AX61" s="27"/>
     </row>
     <row r="62" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R62" s="77" t="s">
+      <c r="R62" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S62" s="77"/>
+      <c r="S62" s="91"/>
       <c r="T62" s="22">
         <v>0.7581</v>
       </c>
@@ -14355,10 +14355,10 @@
       <c r="AX62" s="27"/>
     </row>
     <row r="63" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R63" s="77" t="s">
+      <c r="R63" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S63" s="77"/>
+      <c r="S63" s="91"/>
       <c r="T63" s="22">
         <v>0.75390000000000001</v>
       </c>
@@ -14419,28 +14419,28 @@
       <c r="AX63" s="27"/>
     </row>
     <row r="64" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="R64" s="77" t="s">
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="R64" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S64" s="77"/>
+      <c r="S64" s="91"/>
       <c r="T64" s="22">
         <v>0.75490000000000002</v>
       </c>
@@ -14517,10 +14517,10 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
       <c r="P65" s="25"/>
-      <c r="R65" s="78" t="s">
+      <c r="R65" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="S65" s="78"/>
+      <c r="S65" s="89"/>
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
       <c r="V65" s="24"/>
@@ -14553,32 +14553,32 @@
       <c r="AX65" s="27"/>
     </row>
     <row r="66" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="81" t="s">
+      <c r="A66" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="81"/>
-      <c r="C66" s="79" t="s">
+      <c r="B66" s="73"/>
+      <c r="C66" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79" t="s">
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79"/>
-      <c r="P66" s="79"/>
-      <c r="R66" s="77" t="s">
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="74"/>
+      <c r="P66" s="74"/>
+      <c r="R66" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="77"/>
+      <c r="S66" s="91"/>
       <c r="T66" s="22">
         <v>0.44569999999999999</v>
       </c>
@@ -14639,8 +14639,8 @@
       <c r="AX66" s="27"/>
     </row>
     <row r="67" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="81"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="11">
         <v>1</v>
       </c>
@@ -14683,10 +14683,10 @@
       <c r="P67" s="11">
         <v>7</v>
       </c>
-      <c r="R67" s="77" t="s">
+      <c r="R67" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S67" s="77"/>
+      <c r="S67" s="91"/>
       <c r="T67" s="22">
         <v>0.48749999999999999</v>
       </c>
@@ -14747,10 +14747,10 @@
       <c r="AX67" s="27"/>
     </row>
     <row r="68" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="82"/>
+      <c r="B68" s="85"/>
       <c r="C68" s="22">
         <f t="shared" ref="C68:J68" si="31">MIN(T56,T61,T66,T71)</f>
         <v>0.44569999999999999</v>
@@ -14807,10 +14807,10 @@
         <f t="shared" si="32"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="R68" s="77" t="s">
+      <c r="R68" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S68" s="77"/>
+      <c r="S68" s="91"/>
       <c r="T68" s="22">
         <v>0.43519999999999998</v>
       </c>
@@ -14871,10 +14871,10 @@
       <c r="AX68" s="27"/>
     </row>
     <row r="69" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="83"/>
+      <c r="B69" s="86"/>
       <c r="C69" s="31">
         <f>MAX(T56,T61,T66,T71)</f>
         <v>0.76090000000000002</v>
@@ -14931,10 +14931,10 @@
         <f t="shared" si="34"/>
         <v>0.77990000000000004</v>
       </c>
-      <c r="R69" s="77" t="s">
+      <c r="R69" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S69" s="77"/>
+      <c r="S69" s="91"/>
       <c r="T69" s="22">
         <v>0.4325</v>
       </c>
@@ -14995,10 +14995,10 @@
       <c r="AX69" s="27"/>
     </row>
     <row r="70" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="83"/>
+      <c r="B70" s="86"/>
       <c r="C70" s="31">
         <f>AVERAGE(T56,T61,T66,T71)</f>
         <v>0.60192500000000004</v>
@@ -15055,10 +15055,10 @@
         <f t="shared" si="36"/>
         <v>0.72894999999999999</v>
       </c>
-      <c r="R70" s="78" t="s">
+      <c r="R70" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="S70" s="78"/>
+      <c r="S70" s="89"/>
       <c r="T70" s="24"/>
       <c r="U70" s="24"/>
       <c r="V70" s="24"/>
@@ -15107,10 +15107,10 @@
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
-      <c r="R71" s="77" t="s">
+      <c r="R71" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S71" s="77"/>
+      <c r="S71" s="91"/>
       <c r="T71" s="22">
         <v>0.64129999999999998</v>
       </c>
@@ -15171,10 +15171,10 @@
       <c r="AX71" s="27"/>
     </row>
     <row r="72" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R72" s="77" t="s">
+      <c r="R72" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S72" s="77"/>
+      <c r="S72" s="91"/>
       <c r="T72" s="22">
         <v>0.64639999999999997</v>
       </c>
@@ -15235,28 +15235,28 @@
       <c r="AX72" s="27"/>
     </row>
     <row r="73" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="R73" s="77" t="s">
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="R73" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="77"/>
+      <c r="S73" s="91"/>
       <c r="T73" s="22">
         <v>0.6371</v>
       </c>
@@ -15333,10 +15333,10 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
-      <c r="R74" s="77" t="s">
+      <c r="R74" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S74" s="77"/>
+      <c r="S74" s="91"/>
       <c r="T74" s="22">
         <v>0.64019999999999999</v>
       </c>
@@ -15397,32 +15397,32 @@
       <c r="AX74" s="27"/>
     </row>
     <row r="75" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="84" t="s">
+      <c r="A75" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="84"/>
-      <c r="C75" s="79" t="s">
+      <c r="B75" s="90"/>
+      <c r="C75" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79" t="s">
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="79"/>
-      <c r="R75" s="78" t="s">
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="74"/>
+      <c r="P75" s="74"/>
+      <c r="R75" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="S75" s="78"/>
+      <c r="S75" s="89"/>
       <c r="T75" s="24"/>
       <c r="U75" s="24"/>
       <c r="V75" s="24"/>
@@ -15455,30 +15455,30 @@
       <c r="AX75" s="27"/>
     </row>
     <row r="76" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="79">
+      <c r="A76" s="90"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="74">
         <v>1</v>
       </c>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79">
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74">
         <v>1</v>
       </c>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="79"/>
-      <c r="R76" s="77" t="s">
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="74"/>
+      <c r="P76" s="74"/>
+      <c r="R76" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="77"/>
+      <c r="S76" s="91"/>
       <c r="T76" s="33"/>
       <c r="U76" s="33"/>
       <c r="V76" s="33"/>
@@ -15511,28 +15511,28 @@
       <c r="AX76" s="27"/>
     </row>
     <row r="77" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="78" t="s">
+      <c r="A77" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="86"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="86"/>
-      <c r="L77" s="86"/>
-      <c r="M77" s="86"/>
-      <c r="N77" s="86"/>
-      <c r="O77" s="86"/>
-      <c r="P77" s="87"/>
-      <c r="R77" s="77" t="s">
+      <c r="B77" s="89"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="83"/>
+      <c r="L77" s="83"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="84"/>
+      <c r="R77" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S77" s="77"/>
+      <c r="S77" s="91"/>
       <c r="T77" s="33"/>
       <c r="U77" s="33"/>
       <c r="V77" s="33"/>
@@ -15565,34 +15565,34 @@
       <c r="AX77" s="27"/>
     </row>
     <row r="78" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="82"/>
-      <c r="C78" s="90">
+      <c r="B78" s="85"/>
+      <c r="C78" s="87">
         <f>MIN(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.56520000000000004</v>
       </c>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="88">
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="70">
         <f>MIN(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.4864</v>
       </c>
-      <c r="K78" s="88"/>
-      <c r="L78" s="88"/>
-      <c r="M78" s="88"/>
-      <c r="N78" s="88"/>
-      <c r="O78" s="88"/>
-      <c r="P78" s="88"/>
-      <c r="R78" s="77" t="s">
+      <c r="K78" s="70"/>
+      <c r="L78" s="70"/>
+      <c r="M78" s="70"/>
+      <c r="N78" s="70"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="70"/>
+      <c r="R78" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S78" s="77"/>
+      <c r="S78" s="91"/>
       <c r="T78" s="33"/>
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
@@ -15625,34 +15625,34 @@
       <c r="AX78" s="27"/>
     </row>
     <row r="79" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="83" t="s">
+      <c r="A79" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="90">
+      <c r="B79" s="86"/>
+      <c r="C79" s="87">
         <f>MAX(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.88039999999999996</v>
       </c>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="88">
+      <c r="D79" s="87"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="87"/>
+      <c r="J79" s="70">
         <f>MAX(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.86140000000000005</v>
       </c>
-      <c r="K79" s="88"/>
-      <c r="L79" s="88"/>
-      <c r="M79" s="88"/>
-      <c r="N79" s="88"/>
-      <c r="O79" s="88"/>
-      <c r="P79" s="88"/>
-      <c r="R79" s="77" t="s">
+      <c r="K79" s="70"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="70"/>
+      <c r="N79" s="70"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="70"/>
+      <c r="R79" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S79" s="77"/>
+      <c r="S79" s="91"/>
       <c r="T79" s="33"/>
       <c r="U79" s="33"/>
       <c r="V79" s="33"/>
@@ -15685,34 +15685,34 @@
       <c r="AX79" s="27"/>
     </row>
     <row r="80" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="83"/>
-      <c r="C80" s="90">
+      <c r="B80" s="86"/>
+      <c r="C80" s="87">
         <f>AVERAGE(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.77329999999999999</v>
       </c>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="88">
+      <c r="D80" s="87"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="87"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="87"/>
+      <c r="J80" s="70">
         <f>AVERAGE(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.75155714285714281</v>
       </c>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="88"/>
-      <c r="O80" s="88"/>
-      <c r="P80" s="88"/>
-      <c r="R80" s="78" t="s">
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
+      <c r="R80" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="S80" s="78"/>
+      <c r="S80" s="89"/>
       <c r="T80" s="24"/>
       <c r="U80" s="24"/>
       <c r="V80" s="24"/>
@@ -15745,28 +15745,28 @@
       <c r="AX80" s="27"/>
     </row>
     <row r="81" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="78"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="86"/>
-      <c r="F81" s="86"/>
-      <c r="G81" s="86"/>
-      <c r="H81" s="86"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="86"/>
-      <c r="L81" s="86"/>
-      <c r="M81" s="86"/>
-      <c r="N81" s="86"/>
-      <c r="O81" s="86"/>
-      <c r="P81" s="87"/>
-      <c r="R81" s="77" t="s">
+      <c r="B81" s="89"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="83"/>
+      <c r="L81" s="83"/>
+      <c r="M81" s="83"/>
+      <c r="N81" s="83"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="84"/>
+      <c r="R81" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="77"/>
+      <c r="S81" s="91"/>
       <c r="T81" s="33"/>
       <c r="U81" s="33"/>
       <c r="V81" s="33"/>
@@ -15799,34 +15799,34 @@
       <c r="AX81" s="27"/>
     </row>
     <row r="82" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="82" t="s">
+      <c r="A82" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="82"/>
-      <c r="C82" s="90">
+      <c r="B82" s="85"/>
+      <c r="C82" s="87">
         <f>MIN(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.60329999999999995</v>
       </c>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="88">
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="88"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="70">
         <f>MIN(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="K82" s="89"/>
-      <c r="L82" s="89"/>
-      <c r="M82" s="89"/>
-      <c r="N82" s="89"/>
-      <c r="O82" s="89"/>
-      <c r="P82" s="89"/>
-      <c r="R82" s="77" t="s">
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="R82" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="S82" s="77"/>
+      <c r="S82" s="91"/>
       <c r="T82" s="33"/>
       <c r="U82" s="33"/>
       <c r="V82" s="33"/>
@@ -15859,34 +15859,34 @@
       <c r="AX82" s="27"/>
     </row>
     <row r="83" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="90">
+      <c r="B83" s="86"/>
+      <c r="C83" s="87">
         <f>MAX(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.86409999999999998</v>
       </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="88">
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="70">
         <f>MAX(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="K83" s="89"/>
-      <c r="L83" s="89"/>
-      <c r="M83" s="89"/>
-      <c r="N83" s="89"/>
-      <c r="O83" s="89"/>
-      <c r="P83" s="89"/>
-      <c r="R83" s="77" t="s">
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
+      <c r="R83" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S83" s="77"/>
+      <c r="S83" s="91"/>
       <c r="T83" s="33"/>
       <c r="U83" s="33"/>
       <c r="V83" s="33"/>
@@ -15919,34 +15919,34 @@
       <c r="AX83" s="27"/>
     </row>
     <row r="84" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="90">
+      <c r="B84" s="86"/>
+      <c r="C84" s="87">
         <f>AVERAGE(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.77872857142857133</v>
       </c>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="88">
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="70">
         <f>AVERAGE(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.74030000000000007</v>
       </c>
-      <c r="K84" s="89"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="89"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="89"/>
-      <c r="P84" s="89"/>
-      <c r="R84" s="77" t="s">
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="R84" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="S84" s="77"/>
+      <c r="S84" s="91"/>
       <c r="T84" s="33"/>
       <c r="U84" s="33"/>
       <c r="V84" s="33"/>
@@ -16013,24 +16013,24 @@
       <c r="AX85" s="27"/>
     </row>
     <row r="86" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="63" t="s">
+      <c r="A86" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="63"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="63"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="72"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="72"/>
+      <c r="N86" s="72"/>
+      <c r="O86" s="72"/>
+      <c r="P86" s="72"/>
       <c r="AI86" s="27"/>
       <c r="AJ86" s="27"/>
       <c r="AK86" s="27"/>
@@ -16049,24 +16049,24 @@
       <c r="AX86" s="27"/>
     </row>
     <row r="87" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R87" s="63" t="s">
+      <c r="R87" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="S87" s="63"/>
-      <c r="T87" s="63"/>
-      <c r="U87" s="63"/>
-      <c r="V87" s="63"/>
-      <c r="W87" s="63"/>
-      <c r="X87" s="63"/>
-      <c r="Y87" s="63"/>
-      <c r="Z87" s="63"/>
-      <c r="AA87" s="63"/>
-      <c r="AB87" s="63"/>
-      <c r="AC87" s="63"/>
-      <c r="AD87" s="63"/>
-      <c r="AE87" s="63"/>
-      <c r="AF87" s="63"/>
-      <c r="AG87" s="63"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
+      <c r="V87" s="72"/>
+      <c r="W87" s="72"/>
+      <c r="X87" s="72"/>
+      <c r="Y87" s="72"/>
+      <c r="Z87" s="72"/>
+      <c r="AA87" s="72"/>
+      <c r="AB87" s="72"/>
+      <c r="AC87" s="72"/>
+      <c r="AD87" s="72"/>
+      <c r="AE87" s="72"/>
+      <c r="AF87" s="72"/>
+      <c r="AG87" s="72"/>
       <c r="AI87" s="27"/>
       <c r="AJ87" s="27"/>
       <c r="AK87" s="27"/>
@@ -16085,46 +16085,46 @@
       <c r="AX87" s="27"/>
     </row>
     <row r="88" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="81" t="s">
+      <c r="A88" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="81"/>
-      <c r="C88" s="79" t="s">
+      <c r="B88" s="73"/>
+      <c r="C88" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79" t="s">
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="79"/>
-      <c r="O88" s="79"/>
-      <c r="P88" s="79"/>
-      <c r="R88" s="63" t="s">
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
+      <c r="P88" s="74"/>
+      <c r="R88" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="S88" s="63"/>
-      <c r="T88" s="63"/>
-      <c r="U88" s="63"/>
-      <c r="V88" s="63"/>
-      <c r="W88" s="63"/>
-      <c r="X88" s="63"/>
-      <c r="Y88" s="63"/>
-      <c r="Z88" s="63"/>
-      <c r="AA88" s="63"/>
-      <c r="AB88" s="63"/>
-      <c r="AC88" s="63"/>
-      <c r="AD88" s="63"/>
-      <c r="AE88" s="63"/>
-      <c r="AF88" s="63"/>
-      <c r="AG88" s="63"/>
+      <c r="S88" s="72"/>
+      <c r="T88" s="72"/>
+      <c r="U88" s="72"/>
+      <c r="V88" s="72"/>
+      <c r="W88" s="72"/>
+      <c r="X88" s="72"/>
+      <c r="Y88" s="72"/>
+      <c r="Z88" s="72"/>
+      <c r="AA88" s="72"/>
+      <c r="AB88" s="72"/>
+      <c r="AC88" s="72"/>
+      <c r="AD88" s="72"/>
+      <c r="AE88" s="72"/>
+      <c r="AF88" s="72"/>
+      <c r="AG88" s="72"/>
       <c r="AI88" s="27"/>
       <c r="AJ88" s="27"/>
       <c r="AK88" s="27"/>
@@ -16143,8 +16143,8 @@
       <c r="AX88" s="27"/>
     </row>
     <row r="89" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="81"/>
-      <c r="B89" s="81"/>
+      <c r="A89" s="73"/>
+      <c r="B89" s="73"/>
       <c r="C89" s="11">
         <v>1</v>
       </c>
@@ -16205,10 +16205,10 @@
       <c r="AX89" s="27"/>
     </row>
     <row r="90" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="94" t="s">
+      <c r="A90" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="94"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -16223,28 +16223,28 @@
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
       <c r="P90" s="13"/>
-      <c r="R90" s="69" t="s">
+      <c r="R90" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="S90" s="70"/>
-      <c r="T90" s="65" t="s">
+      <c r="S90" s="76"/>
+      <c r="T90" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="U90" s="66"/>
-      <c r="V90" s="66"/>
-      <c r="W90" s="66"/>
-      <c r="X90" s="66"/>
-      <c r="Y90" s="66"/>
-      <c r="Z90" s="67"/>
-      <c r="AA90" s="65" t="s">
+      <c r="U90" s="80"/>
+      <c r="V90" s="80"/>
+      <c r="W90" s="80"/>
+      <c r="X90" s="80"/>
+      <c r="Y90" s="80"/>
+      <c r="Z90" s="81"/>
+      <c r="AA90" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AB90" s="66"/>
-      <c r="AC90" s="66"/>
-      <c r="AD90" s="66"/>
-      <c r="AE90" s="66"/>
-      <c r="AF90" s="66"/>
-      <c r="AG90" s="67"/>
+      <c r="AB90" s="80"/>
+      <c r="AC90" s="80"/>
+      <c r="AD90" s="80"/>
+      <c r="AE90" s="80"/>
+      <c r="AF90" s="80"/>
+      <c r="AG90" s="81"/>
       <c r="AI90" s="27"/>
       <c r="AJ90" s="27"/>
       <c r="AK90" s="27"/>
@@ -16323,8 +16323,8 @@
         <f t="shared" si="38"/>
         <v>0.54000000000000714</v>
       </c>
-      <c r="R91" s="71"/>
-      <c r="S91" s="72"/>
+      <c r="R91" s="77"/>
+      <c r="S91" s="78"/>
       <c r="T91" s="11">
         <v>1</v>
       </c>
@@ -16445,10 +16445,10 @@
         <f t="shared" si="40"/>
         <v>-0.54000000000000714</v>
       </c>
-      <c r="R92" s="92" t="s">
+      <c r="R92" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="S92" s="93"/>
+      <c r="S92" s="66"/>
       <c r="T92" s="13"/>
       <c r="U92" s="13"/>
       <c r="V92" s="13"/>
@@ -16541,10 +16541,10 @@
         <f t="shared" si="42"/>
         <v>6.25</v>
       </c>
-      <c r="R93" s="60" t="s">
+      <c r="R93" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S93" s="61"/>
+      <c r="S93" s="68"/>
       <c r="T93" s="22">
         <v>0.76090000000000002</v>
       </c>
@@ -16665,10 +16665,10 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="R94" s="60" t="s">
+      <c r="R94" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="S94" s="61"/>
+      <c r="S94" s="68"/>
       <c r="T94" s="22">
         <v>0.75080000000000002</v>
       </c>
@@ -16789,10 +16789,10 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="R95" s="60" t="s">
+      <c r="R95" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S95" s="61"/>
+      <c r="S95" s="68"/>
       <c r="T95" s="22">
         <v>0.75219999999999998</v>
       </c>
@@ -16913,10 +16913,10 @@
         <f t="shared" si="48"/>
         <v>-0.26999999999999247</v>
       </c>
-      <c r="R96" s="60" t="s">
+      <c r="R96" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="S96" s="61"/>
+      <c r="S96" s="68"/>
       <c r="T96" s="22">
         <v>0.75039999999999996</v>
       </c>
@@ -17037,10 +17037,10 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R97" s="92" t="s">
+      <c r="R97" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="S97" s="93"/>
+      <c r="S97" s="66"/>
       <c r="T97" s="10"/>
       <c r="U97" s="10"/>
       <c r="V97" s="10"/>
@@ -17073,10 +17073,10 @@
       <c r="AX97" s="27"/>
     </row>
     <row r="98" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="94" t="s">
+      <c r="A98" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="94"/>
+      <c r="B98" s="69"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
@@ -17091,10 +17091,10 @@
       <c r="N98" s="21"/>
       <c r="O98" s="21"/>
       <c r="P98" s="21"/>
-      <c r="R98" s="60" t="s">
+      <c r="R98" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S98" s="61"/>
+      <c r="S98" s="68"/>
       <c r="T98" s="22">
         <v>0.73909999999999998</v>
       </c>
@@ -17215,10 +17215,10 @@
         <f t="shared" si="52"/>
         <v>-7.3400000000000016</v>
       </c>
-      <c r="R99" s="60" t="s">
+      <c r="R99" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="S99" s="61"/>
+      <c r="S99" s="68"/>
       <c r="T99" s="22">
         <v>0.74119999999999997</v>
       </c>
@@ -17339,10 +17339,10 @@
         <f t="shared" si="54"/>
         <v>-2.4399999999999977</v>
       </c>
-      <c r="R100" s="60" t="s">
+      <c r="R100" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S100" s="61"/>
+      <c r="S100" s="68"/>
       <c r="T100" s="22">
         <v>0.72870000000000001</v>
       </c>
@@ -17463,10 +17463,10 @@
         <f t="shared" si="56"/>
         <v>-16.570000000000007</v>
       </c>
-      <c r="R101" s="60" t="s">
+      <c r="R101" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="61"/>
+      <c r="S101" s="68"/>
       <c r="T101" s="22">
         <v>0.72989999999999999</v>
       </c>
@@ -17605,10 +17605,10 @@
       <c r="AX102" s="27"/>
     </row>
     <row r="103" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="94" t="s">
+      <c r="A103" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="94"/>
+      <c r="B103" s="69"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
@@ -17719,10 +17719,10 @@
       <c r="AX104" s="27"/>
     </row>
     <row r="105" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="94" t="s">
+      <c r="A105" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="94"/>
+      <c r="B105" s="69"/>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
@@ -18182,6 +18182,181 @@
     </row>
   </sheetData>
   <mergeCells count="199">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="T1:Z2"/>
+    <mergeCell ref="AA1:AG2"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C1:I2"/>
+    <mergeCell ref="J1:P2"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="R48:S49"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R45:AG45"/>
+    <mergeCell ref="R46:AG46"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="J66:P66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="T48:Z48"/>
+    <mergeCell ref="AA48:AG48"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="J75:P75"/>
+    <mergeCell ref="C76:I76"/>
+    <mergeCell ref="J76:P76"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="J77:P77"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="J81:P81"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="J83:P83"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="J78:P78"/>
+    <mergeCell ref="J79:P79"/>
+    <mergeCell ref="J80:P80"/>
+    <mergeCell ref="C81:I81"/>
     <mergeCell ref="R92:S92"/>
     <mergeCell ref="R93:S93"/>
     <mergeCell ref="A103:B103"/>
@@ -18206,181 +18381,6 @@
     <mergeCell ref="R90:S91"/>
     <mergeCell ref="T90:Z90"/>
     <mergeCell ref="AA90:AG90"/>
-    <mergeCell ref="J81:P81"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="J82:P82"/>
-    <mergeCell ref="C82:I82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="J83:P83"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="J78:P78"/>
-    <mergeCell ref="J79:P79"/>
-    <mergeCell ref="J80:P80"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:I75"/>
-    <mergeCell ref="J75:P75"/>
-    <mergeCell ref="C76:I76"/>
-    <mergeCell ref="J76:P76"/>
-    <mergeCell ref="C77:I77"/>
-    <mergeCell ref="J77:P77"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="J66:P66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="T48:Z48"/>
-    <mergeCell ref="AA48:AG48"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="R48:S49"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R45:AG45"/>
-    <mergeCell ref="R46:AG46"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C1:I2"/>
-    <mergeCell ref="J1:P2"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="T1:Z2"/>
-    <mergeCell ref="AA1:AG2"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A45:P45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -18399,7 +18399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4182EC-7BBA-4F9A-8828-D4FF92B3F21E}">
   <dimension ref="C2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -18412,25 +18412,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="95"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="54">
         <v>1</v>
       </c>
@@ -19004,103 +19004,103 @@
       </c>
     </row>
     <row r="25" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="95" t="s">
+      <c r="E25" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
     </row>
     <row r="26" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="103"/>
-      <c r="E26" s="104">
+      <c r="D26" s="105"/>
+      <c r="E26" s="63">
         <v>1</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="64">
         <v>2</v>
       </c>
-      <c r="G26" s="105">
+      <c r="G26" s="64">
         <v>3</v>
       </c>
-      <c r="H26" s="105">
+      <c r="H26" s="64">
         <v>4</v>
       </c>
-      <c r="I26" s="105">
+      <c r="I26" s="64">
         <v>5</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="64">
         <v>6</v>
       </c>
-      <c r="K26" s="105">
+      <c r="K26" s="64">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="107">
+      <c r="E27" s="60">
         <v>0.73</v>
       </c>
-      <c r="F27" s="107">
+      <c r="F27" s="60">
         <v>0.15</v>
       </c>
-      <c r="G27" s="107">
+      <c r="G27" s="60">
         <v>0.81</v>
       </c>
-      <c r="H27" s="107">
+      <c r="H27" s="60">
         <v>0.75</v>
       </c>
-      <c r="I27" s="107">
+      <c r="I27" s="60">
         <v>0.85</v>
       </c>
-      <c r="J27" s="107">
+      <c r="J27" s="60">
         <v>0.81</v>
       </c>
-      <c r="K27" s="107">
+      <c r="K27" s="60">
         <v>0.86</v>
       </c>
     </row>
     <row r="28" spans="3:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="106" t="s">
+      <c r="D28" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="107">
+      <c r="E28" s="60">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F28" s="107">
+      <c r="F28" s="60">
         <v>0.02</v>
       </c>
-      <c r="G28" s="107">
+      <c r="G28" s="60">
         <v>0.65</v>
       </c>
-      <c r="H28" s="107">
+      <c r="H28" s="60">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I28" s="107">
+      <c r="I28" s="60">
         <v>0.73</v>
       </c>
-      <c r="J28" s="107">
+      <c r="J28" s="60">
         <v>0.65</v>
       </c>
-      <c r="K28" s="107">
+      <c r="K28" s="60">
         <v>0.74</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -19119,7 +19119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9EE9C4-8FE8-49DE-B3BB-670161C36C54}">
   <dimension ref="C20:D28"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
@@ -19200,48 +19200,48 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100" t="s">
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="100" t="s">
+      <c r="O3" s="106" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
       <c r="F4" s="40" t="s">
         <v>22</v>
       </c>
@@ -19263,9 +19263,9 @@
       <c r="L4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="100"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="106"/>
     </row>
     <row r="5" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
@@ -19870,16 +19870,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>

--- a/Evaluasi Model Klasifikasi.xlsx
+++ b/Evaluasi Model Klasifikasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\sklearn-kopra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\kopra-introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78E446-B9F1-49C9-B0E5-B9443B710C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D97F8-F5B4-4570-A941-13DBE83088FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil percobaan Split Validasi" sheetId="1" r:id="rId1"/>
@@ -8929,8 +8929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX120"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I42"/>
+    <sheetView zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18399,7 +18399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4182EC-7BBA-4F9A-8828-D4FF92B3F21E}">
   <dimension ref="C2:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -19119,7 +19119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9EE9C4-8FE8-49DE-B3BB-670161C36C54}">
   <dimension ref="C20:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C2" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
@@ -19172,8 +19172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19898,7 +19898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:A10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
